--- a/data/misspell_origin.xlsx
+++ b/data/misspell_origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ijpark\PycharmProjects\mkdg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB6DFB-841E-470F-9F01-9005525A94EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BD1DD-1814-40F7-A3CE-737066986989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="2580" windowWidth="13935" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>origin</t>
   </si>
@@ -69,6 +69,22 @@
   </si>
   <si>
     <t>이니라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉쥬르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,6 +464,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/misspell_origin.xlsx
+++ b/data/misspell_origin.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5728"/>
+  <dimension ref="A1:D6705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57682,6 +57682,9776 @@
       <c r="C5728" t="inlineStr"/>
       <c r="D5728" t="inlineStr"/>
     </row>
+    <row r="5729">
+      <c r="A5729" s="1" t="inlineStr">
+        <is>
+          <t>천오백이십</t>
+        </is>
+      </c>
+      <c r="B5729" t="inlineStr"/>
+      <c r="C5729" t="inlineStr"/>
+      <c r="D5729" t="inlineStr"/>
+    </row>
+    <row r="5730">
+      <c r="A5730" s="1" t="inlineStr">
+        <is>
+          <t>식당</t>
+        </is>
+      </c>
+      <c r="B5730" t="inlineStr"/>
+      <c r="C5730" t="inlineStr"/>
+      <c r="D5730" t="inlineStr"/>
+    </row>
+    <row r="5731">
+      <c r="A5731" s="1" t="inlineStr">
+        <is>
+          <t>대로요</t>
+        </is>
+      </c>
+      <c r="B5731" t="inlineStr"/>
+      <c r="C5731" t="inlineStr"/>
+      <c r="D5731" t="inlineStr"/>
+    </row>
+    <row r="5732">
+      <c r="A5732" s="1" t="inlineStr">
+        <is>
+          <t>오반도</t>
+        </is>
+      </c>
+      <c r="B5732" t="inlineStr"/>
+      <c r="C5732" t="inlineStr"/>
+      <c r="D5732" t="inlineStr"/>
+    </row>
+    <row r="5733">
+      <c r="A5733" s="1" t="inlineStr">
+        <is>
+          <t>타웅</t>
+        </is>
+      </c>
+      <c r="B5733" t="inlineStr"/>
+      <c r="C5733" t="inlineStr"/>
+      <c r="D5733" t="inlineStr"/>
+    </row>
+    <row r="5734">
+      <c r="A5734" s="1" t="inlineStr">
+        <is>
+          <t>지나치더라고요</t>
+        </is>
+      </c>
+      <c r="B5734" t="inlineStr"/>
+      <c r="C5734" t="inlineStr"/>
+      <c r="D5734" t="inlineStr"/>
+    </row>
+    <row r="5735">
+      <c r="A5735" s="1" t="inlineStr">
+        <is>
+          <t>진입이</t>
+        </is>
+      </c>
+      <c r="B5735" t="inlineStr"/>
+      <c r="C5735" t="inlineStr"/>
+      <c r="D5735" t="inlineStr"/>
+    </row>
+    <row r="5736">
+      <c r="A5736" s="1" t="inlineStr">
+        <is>
+          <t>박물관</t>
+        </is>
+      </c>
+      <c r="B5736" t="inlineStr"/>
+      <c r="C5736" t="inlineStr"/>
+      <c r="D5736" t="inlineStr"/>
+    </row>
+    <row r="5737">
+      <c r="A5737" s="1" t="inlineStr">
+        <is>
+          <t>신동으로</t>
+        </is>
+      </c>
+      <c r="B5737" t="inlineStr"/>
+      <c r="C5737" t="inlineStr"/>
+      <c r="D5737" t="inlineStr"/>
+    </row>
+    <row r="5738">
+      <c r="A5738" s="1" t="inlineStr">
+        <is>
+          <t>대로에서</t>
+        </is>
+      </c>
+      <c r="B5738" t="inlineStr"/>
+      <c r="C5738" t="inlineStr"/>
+      <c r="D5738" t="inlineStr"/>
+    </row>
+    <row r="5739">
+      <c r="A5739" s="1" t="inlineStr">
+        <is>
+          <t>오토</t>
+        </is>
+      </c>
+      <c r="B5739" t="inlineStr"/>
+      <c r="C5739" t="inlineStr"/>
+      <c r="D5739" t="inlineStr"/>
+    </row>
+    <row r="5740">
+      <c r="A5740" s="1" t="inlineStr">
+        <is>
+          <t>동성로에까지</t>
+        </is>
+      </c>
+      <c r="B5740" t="inlineStr"/>
+      <c r="C5740" t="inlineStr"/>
+      <c r="D5740" t="inlineStr"/>
+    </row>
+    <row r="5741">
+      <c r="A5741" s="1" t="inlineStr">
+        <is>
+          <t>오십육분쯤</t>
+        </is>
+      </c>
+      <c r="B5741" t="inlineStr"/>
+      <c r="C5741" t="inlineStr"/>
+      <c r="D5741" t="inlineStr"/>
+    </row>
+    <row r="5742">
+      <c r="A5742" s="1" t="inlineStr">
+        <is>
+          <t>삼백구</t>
+        </is>
+      </c>
+      <c r="B5742" t="inlineStr"/>
+      <c r="C5742" t="inlineStr"/>
+      <c r="D5742" t="inlineStr"/>
+    </row>
+    <row r="5743">
+      <c r="A5743" s="1" t="inlineStr">
+        <is>
+          <t>삼백육백이십삼</t>
+        </is>
+      </c>
+      <c r="B5743" t="inlineStr"/>
+      <c r="C5743" t="inlineStr"/>
+      <c r="D5743" t="inlineStr"/>
+    </row>
+    <row r="5744">
+      <c r="A5744" s="1" t="inlineStr">
+        <is>
+          <t>사번으로</t>
+        </is>
+      </c>
+      <c r="B5744" t="inlineStr"/>
+      <c r="C5744" t="inlineStr"/>
+      <c r="D5744" t="inlineStr"/>
+    </row>
+    <row r="5745">
+      <c r="A5745" s="1" t="inlineStr">
+        <is>
+          <t>지나치기가</t>
+        </is>
+      </c>
+      <c r="B5745" t="inlineStr"/>
+      <c r="C5745" t="inlineStr"/>
+      <c r="D5745" t="inlineStr"/>
+    </row>
+    <row r="5746">
+      <c r="A5746" s="1" t="inlineStr">
+        <is>
+          <t>앞인</t>
+        </is>
+      </c>
+      <c r="B5746" t="inlineStr"/>
+      <c r="C5746" t="inlineStr"/>
+      <c r="D5746" t="inlineStr"/>
+    </row>
+    <row r="5747">
+      <c r="A5747" s="1" t="inlineStr">
+        <is>
+          <t>좋다는</t>
+        </is>
+      </c>
+      <c r="B5747" t="inlineStr"/>
+      <c r="C5747" t="inlineStr"/>
+      <c r="D5747" t="inlineStr"/>
+    </row>
+    <row r="5748">
+      <c r="A5748" s="1" t="inlineStr">
+        <is>
+          <t>삼백십사</t>
+        </is>
+      </c>
+      <c r="B5748" t="inlineStr"/>
+      <c r="C5748" t="inlineStr"/>
+      <c r="D5748" t="inlineStr"/>
+    </row>
+    <row r="5749">
+      <c r="A5749" s="1" t="inlineStr">
+        <is>
+          <t>업체</t>
+        </is>
+      </c>
+      <c r="B5749" t="inlineStr"/>
+      <c r="C5749" t="inlineStr"/>
+      <c r="D5749" t="inlineStr"/>
+    </row>
+    <row r="5750">
+      <c r="A5750" s="1" t="inlineStr">
+        <is>
+          <t>넘게</t>
+        </is>
+      </c>
+      <c r="B5750" t="inlineStr"/>
+      <c r="C5750" t="inlineStr"/>
+      <c r="D5750" t="inlineStr"/>
+    </row>
+    <row r="5751">
+      <c r="A5751" s="1" t="inlineStr">
+        <is>
+          <t>오백이십사</t>
+        </is>
+      </c>
+      <c r="B5751" t="inlineStr"/>
+      <c r="C5751" t="inlineStr"/>
+      <c r="D5751" t="inlineStr"/>
+    </row>
+    <row r="5752">
+      <c r="A5752" s="1" t="inlineStr">
+        <is>
+          <t>국제마라톤</t>
+        </is>
+      </c>
+      <c r="B5752" t="inlineStr"/>
+      <c r="C5752" t="inlineStr"/>
+      <c r="D5752" t="inlineStr"/>
+    </row>
+    <row r="5753">
+      <c r="A5753" s="1" t="inlineStr">
+        <is>
+          <t>다고</t>
+        </is>
+      </c>
+      <c r="B5753" t="inlineStr"/>
+      <c r="C5753" t="inlineStr"/>
+      <c r="D5753" t="inlineStr"/>
+    </row>
+    <row r="5754">
+      <c r="A5754" s="1" t="inlineStr">
+        <is>
+          <t>박물관까지</t>
+        </is>
+      </c>
+      <c r="B5754" t="inlineStr"/>
+      <c r="C5754" t="inlineStr"/>
+      <c r="D5754" t="inlineStr"/>
+    </row>
+    <row r="5755">
+      <c r="A5755" s="1" t="inlineStr">
+        <is>
+          <t>칠백오십</t>
+        </is>
+      </c>
+      <c r="B5755" t="inlineStr"/>
+      <c r="C5755" t="inlineStr"/>
+      <c r="D5755" t="inlineStr"/>
+    </row>
+    <row r="5756">
+      <c r="A5756" s="1" t="inlineStr">
+        <is>
+          <t>오길래</t>
+        </is>
+      </c>
+      <c r="B5756" t="inlineStr"/>
+      <c r="C5756" t="inlineStr"/>
+      <c r="D5756" t="inlineStr"/>
+    </row>
+    <row r="5757">
+      <c r="A5757" s="1" t="inlineStr">
+        <is>
+          <t>모르시고요</t>
+        </is>
+      </c>
+      <c r="B5757" t="inlineStr"/>
+      <c r="C5757" t="inlineStr"/>
+      <c r="D5757" t="inlineStr"/>
+    </row>
+    <row r="5758">
+      <c r="A5758" s="1" t="inlineStr">
+        <is>
+          <t>시장용</t>
+        </is>
+      </c>
+      <c r="B5758" t="inlineStr"/>
+      <c r="C5758" t="inlineStr"/>
+      <c r="D5758" t="inlineStr"/>
+    </row>
+    <row r="5759">
+      <c r="A5759" s="1" t="inlineStr">
+        <is>
+          <t>거평</t>
+        </is>
+      </c>
+      <c r="B5759" t="inlineStr"/>
+      <c r="C5759" t="inlineStr"/>
+      <c r="D5759" t="inlineStr"/>
+    </row>
+    <row r="5760">
+      <c r="A5760" s="1" t="inlineStr">
+        <is>
+          <t>빼놓으시나요</t>
+        </is>
+      </c>
+      <c r="B5760" t="inlineStr"/>
+      <c r="C5760" t="inlineStr"/>
+      <c r="D5760" t="inlineStr"/>
+    </row>
+    <row r="5761">
+      <c r="A5761" s="1" t="inlineStr">
+        <is>
+          <t>동쪽이고요</t>
+        </is>
+      </c>
+      <c r="B5761" t="inlineStr"/>
+      <c r="C5761" t="inlineStr"/>
+      <c r="D5761" t="inlineStr"/>
+    </row>
+    <row r="5762">
+      <c r="A5762" s="1" t="inlineStr">
+        <is>
+          <t>전화하시는</t>
+        </is>
+      </c>
+      <c r="B5762" t="inlineStr"/>
+      <c r="C5762" t="inlineStr"/>
+      <c r="D5762" t="inlineStr"/>
+    </row>
+    <row r="5763">
+      <c r="A5763" s="1" t="inlineStr">
+        <is>
+          <t>센터라고</t>
+        </is>
+      </c>
+      <c r="B5763" t="inlineStr"/>
+      <c r="C5763" t="inlineStr"/>
+      <c r="D5763" t="inlineStr"/>
+    </row>
+    <row r="5764">
+      <c r="A5764" s="1" t="inlineStr">
+        <is>
+          <t>칠십사일팔이</t>
+        </is>
+      </c>
+      <c r="B5764" t="inlineStr"/>
+      <c r="C5764" t="inlineStr"/>
+      <c r="D5764" t="inlineStr"/>
+    </row>
+    <row r="5765">
+      <c r="A5765" s="1" t="inlineStr">
+        <is>
+          <t>육칠</t>
+        </is>
+      </c>
+      <c r="B5765" t="inlineStr"/>
+      <c r="C5765" t="inlineStr"/>
+      <c r="D5765" t="inlineStr"/>
+    </row>
+    <row r="5766">
+      <c r="A5766" s="1" t="inlineStr">
+        <is>
+          <t>오백삼</t>
+        </is>
+      </c>
+      <c r="B5766" t="inlineStr"/>
+      <c r="C5766" t="inlineStr"/>
+      <c r="D5766" t="inlineStr"/>
+    </row>
+    <row r="5767">
+      <c r="A5767" s="1" t="inlineStr">
+        <is>
+          <t>역이나</t>
+        </is>
+      </c>
+      <c r="B5767" t="inlineStr"/>
+      <c r="C5767" t="inlineStr"/>
+      <c r="D5767" t="inlineStr"/>
+    </row>
+    <row r="5768">
+      <c r="A5768" s="1" t="inlineStr">
+        <is>
+          <t>감사합니다레</t>
+        </is>
+      </c>
+      <c r="B5768" t="inlineStr"/>
+      <c r="C5768" t="inlineStr"/>
+      <c r="D5768" t="inlineStr"/>
+    </row>
+    <row r="5769">
+      <c r="A5769" s="1" t="inlineStr">
+        <is>
+          <t>이력이</t>
+        </is>
+      </c>
+      <c r="B5769" t="inlineStr"/>
+      <c r="C5769" t="inlineStr"/>
+      <c r="D5769" t="inlineStr"/>
+    </row>
+    <row r="5770">
+      <c r="A5770" s="1" t="inlineStr">
+        <is>
+          <t>유통단지에</t>
+        </is>
+      </c>
+      <c r="B5770" t="inlineStr"/>
+      <c r="C5770" t="inlineStr"/>
+      <c r="D5770" t="inlineStr"/>
+    </row>
+    <row r="5771">
+      <c r="A5771" s="1" t="inlineStr">
+        <is>
+          <t>이삼이팔</t>
+        </is>
+      </c>
+      <c r="B5771" t="inlineStr"/>
+      <c r="C5771" t="inlineStr"/>
+      <c r="D5771" t="inlineStr"/>
+    </row>
+    <row r="5772">
+      <c r="A5772" s="1" t="inlineStr">
+        <is>
+          <t>갖다</t>
+        </is>
+      </c>
+      <c r="B5772" t="inlineStr"/>
+      <c r="C5772" t="inlineStr"/>
+      <c r="D5772" t="inlineStr"/>
+    </row>
+    <row r="5773">
+      <c r="A5773" s="1" t="inlineStr">
+        <is>
+          <t>팔백구</t>
+        </is>
+      </c>
+      <c r="B5773" t="inlineStr"/>
+      <c r="C5773" t="inlineStr"/>
+      <c r="D5773" t="inlineStr"/>
+    </row>
+    <row r="5774">
+      <c r="A5774" s="1" t="inlineStr">
+        <is>
+          <t>유턴하시고</t>
+        </is>
+      </c>
+      <c r="B5774" t="inlineStr"/>
+      <c r="C5774" t="inlineStr"/>
+      <c r="D5774" t="inlineStr"/>
+    </row>
+    <row r="5775">
+      <c r="A5775" s="1" t="inlineStr">
+        <is>
+          <t>갈아타</t>
+        </is>
+      </c>
+      <c r="B5775" t="inlineStr"/>
+      <c r="C5775" t="inlineStr"/>
+      <c r="D5775" t="inlineStr"/>
+    </row>
+    <row r="5776">
+      <c r="A5776" s="1" t="inlineStr">
+        <is>
+          <t>북편</t>
+        </is>
+      </c>
+      <c r="B5776" t="inlineStr"/>
+      <c r="C5776" t="inlineStr"/>
+      <c r="D5776" t="inlineStr"/>
+    </row>
+    <row r="5777">
+      <c r="A5777" s="1" t="inlineStr">
+        <is>
+          <t>예여</t>
+        </is>
+      </c>
+      <c r="B5777" t="inlineStr"/>
+      <c r="C5777" t="inlineStr"/>
+      <c r="D5777" t="inlineStr"/>
+    </row>
+    <row r="5778">
+      <c r="A5778" s="1" t="inlineStr">
+        <is>
+          <t>바가</t>
+        </is>
+      </c>
+      <c r="B5778" t="inlineStr"/>
+      <c r="C5778" t="inlineStr"/>
+      <c r="D5778" t="inlineStr"/>
+    </row>
+    <row r="5779">
+      <c r="A5779" s="1" t="inlineStr">
+        <is>
+          <t>하이츠에서</t>
+        </is>
+      </c>
+      <c r="B5779" t="inlineStr"/>
+      <c r="C5779" t="inlineStr"/>
+      <c r="D5779" t="inlineStr"/>
+    </row>
+    <row r="5780">
+      <c r="A5780" s="1" t="inlineStr">
+        <is>
+          <t>설치할라</t>
+        </is>
+      </c>
+      <c r="B5780" t="inlineStr"/>
+      <c r="C5780" t="inlineStr"/>
+      <c r="D5780" t="inlineStr"/>
+    </row>
+    <row r="5781">
+      <c r="A5781" s="1" t="inlineStr">
+        <is>
+          <t>칠이</t>
+        </is>
+      </c>
+      <c r="B5781" t="inlineStr"/>
+      <c r="C5781" t="inlineStr"/>
+      <c r="D5781" t="inlineStr"/>
+    </row>
+    <row r="5782">
+      <c r="A5782" s="1" t="inlineStr">
+        <is>
+          <t>안되고요</t>
+        </is>
+      </c>
+      <c r="B5782" t="inlineStr"/>
+      <c r="C5782" t="inlineStr"/>
+      <c r="D5782" t="inlineStr"/>
+    </row>
+    <row r="5783">
+      <c r="A5783" s="1" t="inlineStr">
+        <is>
+          <t>가려</t>
+        </is>
+      </c>
+      <c r="B5783" t="inlineStr"/>
+      <c r="C5783" t="inlineStr"/>
+      <c r="D5783" t="inlineStr"/>
+    </row>
+    <row r="5784">
+      <c r="A5784" s="1" t="inlineStr">
+        <is>
+          <t>바로바로</t>
+        </is>
+      </c>
+      <c r="B5784" t="inlineStr"/>
+      <c r="C5784" t="inlineStr"/>
+      <c r="D5784" t="inlineStr"/>
+    </row>
+    <row r="5785">
+      <c r="A5785" s="1" t="inlineStr">
+        <is>
+          <t>강남고속</t>
+        </is>
+      </c>
+      <c r="B5785" t="inlineStr"/>
+      <c r="C5785" t="inlineStr"/>
+      <c r="D5785" t="inlineStr"/>
+    </row>
+    <row r="5786">
+      <c r="A5786" s="1" t="inlineStr">
+        <is>
+          <t>로터리에서</t>
+        </is>
+      </c>
+      <c r="B5786" t="inlineStr"/>
+      <c r="C5786" t="inlineStr"/>
+      <c r="D5786" t="inlineStr"/>
+    </row>
+    <row r="5787">
+      <c r="A5787" s="1" t="inlineStr">
+        <is>
+          <t>장갑</t>
+        </is>
+      </c>
+      <c r="B5787" t="inlineStr"/>
+      <c r="C5787" t="inlineStr"/>
+      <c r="D5787" t="inlineStr"/>
+    </row>
+    <row r="5788">
+      <c r="A5788" s="1" t="inlineStr">
+        <is>
+          <t>부분이시고요</t>
+        </is>
+      </c>
+      <c r="B5788" t="inlineStr"/>
+      <c r="C5788" t="inlineStr"/>
+      <c r="D5788" t="inlineStr"/>
+    </row>
+    <row r="5789">
+      <c r="A5789" s="1" t="inlineStr">
+        <is>
+          <t>셨나요</t>
+        </is>
+      </c>
+      <c r="B5789" t="inlineStr"/>
+      <c r="C5789" t="inlineStr"/>
+      <c r="D5789" t="inlineStr"/>
+    </row>
+    <row r="5790">
+      <c r="A5790" s="1" t="inlineStr">
+        <is>
+          <t>교통정보센터는</t>
+        </is>
+      </c>
+      <c r="B5790" t="inlineStr"/>
+      <c r="C5790" t="inlineStr"/>
+      <c r="D5790" t="inlineStr"/>
+    </row>
+    <row r="5791">
+      <c r="A5791" s="1" t="inlineStr">
+        <is>
+          <t>둬야</t>
+        </is>
+      </c>
+      <c r="B5791" t="inlineStr"/>
+      <c r="C5791" t="inlineStr"/>
+      <c r="D5791" t="inlineStr"/>
+    </row>
+    <row r="5792">
+      <c r="A5792" s="1" t="inlineStr">
+        <is>
+          <t>쇼핑백</t>
+        </is>
+      </c>
+      <c r="B5792" t="inlineStr"/>
+      <c r="C5792" t="inlineStr"/>
+      <c r="D5792" t="inlineStr"/>
+    </row>
+    <row r="5793">
+      <c r="A5793" s="1" t="inlineStr">
+        <is>
+          <t>뻔했어요</t>
+        </is>
+      </c>
+      <c r="B5793" t="inlineStr"/>
+      <c r="C5793" t="inlineStr"/>
+      <c r="D5793" t="inlineStr"/>
+    </row>
+    <row r="5794">
+      <c r="A5794" s="1" t="inlineStr">
+        <is>
+          <t>번까지</t>
+        </is>
+      </c>
+      <c r="B5794" t="inlineStr"/>
+      <c r="C5794" t="inlineStr"/>
+      <c r="D5794" t="inlineStr"/>
+    </row>
+    <row r="5795">
+      <c r="A5795" s="1" t="inlineStr">
+        <is>
+          <t>전쯤에</t>
+        </is>
+      </c>
+      <c r="B5795" t="inlineStr"/>
+      <c r="C5795" t="inlineStr"/>
+      <c r="D5795" t="inlineStr"/>
+    </row>
+    <row r="5796">
+      <c r="A5796" s="1" t="inlineStr">
+        <is>
+          <t>그러</t>
+        </is>
+      </c>
+      <c r="B5796" t="inlineStr"/>
+      <c r="C5796" t="inlineStr"/>
+      <c r="D5796" t="inlineStr"/>
+    </row>
+    <row r="5797">
+      <c r="A5797" s="1" t="inlineStr">
+        <is>
+          <t>가능하실</t>
+        </is>
+      </c>
+      <c r="B5797" t="inlineStr"/>
+      <c r="C5797" t="inlineStr"/>
+      <c r="D5797" t="inlineStr"/>
+    </row>
+    <row r="5798">
+      <c r="A5798" s="1" t="inlineStr">
+        <is>
+          <t>다니기가</t>
+        </is>
+      </c>
+      <c r="B5798" t="inlineStr"/>
+      <c r="C5798" t="inlineStr"/>
+      <c r="D5798" t="inlineStr"/>
+    </row>
+    <row r="5799">
+      <c r="A5799" s="1" t="inlineStr">
+        <is>
+          <t>주공이라고</t>
+        </is>
+      </c>
+      <c r="B5799" t="inlineStr"/>
+      <c r="C5799" t="inlineStr"/>
+      <c r="D5799" t="inlineStr"/>
+    </row>
+    <row r="5800">
+      <c r="A5800" s="1" t="inlineStr">
+        <is>
+          <t>신암이</t>
+        </is>
+      </c>
+      <c r="B5800" t="inlineStr"/>
+      <c r="C5800" t="inlineStr"/>
+      <c r="D5800" t="inlineStr"/>
+    </row>
+    <row r="5801">
+      <c r="A5801" s="1" t="inlineStr">
+        <is>
+          <t>빠져나갔거든요</t>
+        </is>
+      </c>
+      <c r="B5801" t="inlineStr"/>
+      <c r="C5801" t="inlineStr"/>
+      <c r="D5801" t="inlineStr"/>
+    </row>
+    <row r="5802">
+      <c r="A5802" s="1" t="inlineStr">
+        <is>
+          <t>사백삼</t>
+        </is>
+      </c>
+      <c r="B5802" t="inlineStr"/>
+      <c r="C5802" t="inlineStr"/>
+      <c r="D5802" t="inlineStr"/>
+    </row>
+    <row r="5803">
+      <c r="A5803" s="1" t="inlineStr">
+        <is>
+          <t>자리에</t>
+        </is>
+      </c>
+      <c r="B5803" t="inlineStr"/>
+      <c r="C5803" t="inlineStr"/>
+      <c r="D5803" t="inlineStr"/>
+    </row>
+    <row r="5804">
+      <c r="A5804" s="1" t="inlineStr">
+        <is>
+          <t>주정차는</t>
+        </is>
+      </c>
+      <c r="B5804" t="inlineStr"/>
+      <c r="C5804" t="inlineStr"/>
+      <c r="D5804" t="inlineStr"/>
+    </row>
+    <row r="5805">
+      <c r="A5805" s="1" t="inlineStr">
+        <is>
+          <t>고발하려고</t>
+        </is>
+      </c>
+      <c r="B5805" t="inlineStr"/>
+      <c r="C5805" t="inlineStr"/>
+      <c r="D5805" t="inlineStr"/>
+    </row>
+    <row r="5806">
+      <c r="A5806" s="1" t="inlineStr">
+        <is>
+          <t>오빌</t>
+        </is>
+      </c>
+      <c r="B5806" t="inlineStr"/>
+      <c r="C5806" t="inlineStr"/>
+      <c r="D5806" t="inlineStr"/>
+    </row>
+    <row r="5807">
+      <c r="A5807" s="1" t="inlineStr">
+        <is>
+          <t>공일이거든요</t>
+        </is>
+      </c>
+      <c r="B5807" t="inlineStr"/>
+      <c r="C5807" t="inlineStr"/>
+      <c r="D5807" t="inlineStr"/>
+    </row>
+    <row r="5808">
+      <c r="A5808" s="1" t="inlineStr">
+        <is>
+          <t>보조견이나</t>
+        </is>
+      </c>
+      <c r="B5808" t="inlineStr"/>
+      <c r="C5808" t="inlineStr"/>
+      <c r="D5808" t="inlineStr"/>
+    </row>
+    <row r="5809">
+      <c r="A5809" s="1" t="inlineStr">
+        <is>
+          <t>말씀드려</t>
+        </is>
+      </c>
+      <c r="B5809" t="inlineStr"/>
+      <c r="C5809" t="inlineStr"/>
+      <c r="D5809" t="inlineStr"/>
+    </row>
+    <row r="5810">
+      <c r="A5810" s="1" t="inlineStr">
+        <is>
+          <t>지나다니는데</t>
+        </is>
+      </c>
+      <c r="B5810" t="inlineStr"/>
+      <c r="C5810" t="inlineStr"/>
+      <c r="D5810" t="inlineStr"/>
+    </row>
+    <row r="5811">
+      <c r="A5811" s="1" t="inlineStr">
+        <is>
+          <t>시경</t>
+        </is>
+      </c>
+      <c r="B5811" t="inlineStr"/>
+      <c r="C5811" t="inlineStr"/>
+      <c r="D5811" t="inlineStr"/>
+    </row>
+    <row r="5812">
+      <c r="A5812" s="1" t="inlineStr">
+        <is>
+          <t>네거리까지는</t>
+        </is>
+      </c>
+      <c r="B5812" t="inlineStr"/>
+      <c r="C5812" t="inlineStr"/>
+      <c r="D5812" t="inlineStr"/>
+    </row>
+    <row r="5813">
+      <c r="A5813" s="1" t="inlineStr">
+        <is>
+          <t>칠사삼</t>
+        </is>
+      </c>
+      <c r="B5813" t="inlineStr"/>
+      <c r="C5813" t="inlineStr"/>
+      <c r="D5813" t="inlineStr"/>
+    </row>
+    <row r="5814">
+      <c r="A5814" s="1" t="inlineStr">
+        <is>
+          <t>이용에</t>
+        </is>
+      </c>
+      <c r="B5814" t="inlineStr"/>
+      <c r="C5814" t="inlineStr"/>
+      <c r="D5814" t="inlineStr"/>
+    </row>
+    <row r="5815">
+      <c r="A5815" s="1" t="inlineStr">
+        <is>
+          <t>없네</t>
+        </is>
+      </c>
+      <c r="B5815" t="inlineStr"/>
+      <c r="C5815" t="inlineStr"/>
+      <c r="D5815" t="inlineStr"/>
+    </row>
+    <row r="5816">
+      <c r="A5816" s="1" t="inlineStr">
+        <is>
+          <t>삼백육</t>
+        </is>
+      </c>
+      <c r="B5816" t="inlineStr"/>
+      <c r="C5816" t="inlineStr"/>
+      <c r="D5816" t="inlineStr"/>
+    </row>
+    <row r="5817">
+      <c r="A5817" s="1" t="inlineStr">
+        <is>
+          <t>매일매일은</t>
+        </is>
+      </c>
+      <c r="B5817" t="inlineStr"/>
+      <c r="C5817" t="inlineStr"/>
+      <c r="D5817" t="inlineStr"/>
+    </row>
+    <row r="5818">
+      <c r="A5818" s="1" t="inlineStr">
+        <is>
+          <t>전화함</t>
+        </is>
+      </c>
+      <c r="B5818" t="inlineStr"/>
+      <c r="C5818" t="inlineStr"/>
+      <c r="D5818" t="inlineStr"/>
+    </row>
+    <row r="5819">
+      <c r="A5819" s="1" t="inlineStr">
+        <is>
+          <t>나오</t>
+        </is>
+      </c>
+      <c r="B5819" t="inlineStr"/>
+      <c r="C5819" t="inlineStr"/>
+      <c r="D5819" t="inlineStr"/>
+    </row>
+    <row r="5820">
+      <c r="A5820" s="1" t="inlineStr">
+        <is>
+          <t>타시려고</t>
+        </is>
+      </c>
+      <c r="B5820" t="inlineStr"/>
+      <c r="C5820" t="inlineStr"/>
+      <c r="D5820" t="inlineStr"/>
+    </row>
+    <row r="5821">
+      <c r="A5821" s="1" t="inlineStr">
+        <is>
+          <t>번이나</t>
+        </is>
+      </c>
+      <c r="B5821" t="inlineStr"/>
+      <c r="C5821" t="inlineStr"/>
+      <c r="D5821" t="inlineStr"/>
+    </row>
+    <row r="5822">
+      <c r="A5822" s="1" t="inlineStr">
+        <is>
+          <t>감삼동</t>
+        </is>
+      </c>
+      <c r="B5822" t="inlineStr"/>
+      <c r="C5822" t="inlineStr"/>
+      <c r="D5822" t="inlineStr"/>
+    </row>
+    <row r="5823">
+      <c r="A5823" s="1" t="inlineStr">
+        <is>
+          <t>몇몇</t>
+        </is>
+      </c>
+      <c r="B5823" t="inlineStr"/>
+      <c r="C5823" t="inlineStr"/>
+      <c r="D5823" t="inlineStr"/>
+    </row>
+    <row r="5824">
+      <c r="A5824" s="1" t="inlineStr">
+        <is>
+          <t>타세요</t>
+        </is>
+      </c>
+      <c r="B5824" t="inlineStr"/>
+      <c r="C5824" t="inlineStr"/>
+      <c r="D5824" t="inlineStr"/>
+    </row>
+    <row r="5825">
+      <c r="A5825" s="1" t="inlineStr">
+        <is>
+          <t>레</t>
+        </is>
+      </c>
+      <c r="B5825" t="inlineStr"/>
+      <c r="C5825" t="inlineStr"/>
+      <c r="D5825" t="inlineStr"/>
+    </row>
+    <row r="5826">
+      <c r="A5826" s="1" t="inlineStr">
+        <is>
+          <t>사이</t>
+        </is>
+      </c>
+      <c r="B5826" t="inlineStr"/>
+      <c r="C5826" t="inlineStr"/>
+      <c r="D5826" t="inlineStr"/>
+    </row>
+    <row r="5827">
+      <c r="A5827" s="1" t="inlineStr">
+        <is>
+          <t>구구요</t>
+        </is>
+      </c>
+      <c r="B5827" t="inlineStr"/>
+      <c r="C5827" t="inlineStr"/>
+      <c r="D5827" t="inlineStr"/>
+    </row>
+    <row r="5828">
+      <c r="A5828" s="1" t="inlineStr">
+        <is>
+          <t>별다른</t>
+        </is>
+      </c>
+      <c r="B5828" t="inlineStr"/>
+      <c r="C5828" t="inlineStr"/>
+      <c r="D5828" t="inlineStr"/>
+    </row>
+    <row r="5829">
+      <c r="A5829" s="1" t="inlineStr">
+        <is>
+          <t>이번이</t>
+        </is>
+      </c>
+      <c r="B5829" t="inlineStr"/>
+      <c r="C5829" t="inlineStr"/>
+      <c r="D5829" t="inlineStr"/>
+    </row>
+    <row r="5830">
+      <c r="A5830" s="1" t="inlineStr">
+        <is>
+          <t>주셨던</t>
+        </is>
+      </c>
+      <c r="B5830" t="inlineStr"/>
+      <c r="C5830" t="inlineStr"/>
+      <c r="D5830" t="inlineStr"/>
+    </row>
+    <row r="5831">
+      <c r="A5831" s="1" t="inlineStr">
+        <is>
+          <t>서서</t>
+        </is>
+      </c>
+      <c r="B5831" t="inlineStr"/>
+      <c r="C5831" t="inlineStr"/>
+      <c r="D5831" t="inlineStr"/>
+    </row>
+    <row r="5832">
+      <c r="A5832" s="1" t="inlineStr">
+        <is>
+          <t>차선으로</t>
+        </is>
+      </c>
+      <c r="B5832" t="inlineStr"/>
+      <c r="C5832" t="inlineStr"/>
+      <c r="D5832" t="inlineStr"/>
+    </row>
+    <row r="5833">
+      <c r="A5833" s="1" t="inlineStr">
+        <is>
+          <t>연오지</t>
+        </is>
+      </c>
+      <c r="B5833" t="inlineStr"/>
+      <c r="C5833" t="inlineStr"/>
+      <c r="D5833" t="inlineStr"/>
+    </row>
+    <row r="5834">
+      <c r="A5834" s="1" t="inlineStr">
+        <is>
+          <t>신고받는</t>
+        </is>
+      </c>
+      <c r="B5834" t="inlineStr"/>
+      <c r="C5834" t="inlineStr"/>
+      <c r="D5834" t="inlineStr"/>
+    </row>
+    <row r="5835">
+      <c r="A5835" s="1" t="inlineStr">
+        <is>
+          <t>쪽이더라고요</t>
+        </is>
+      </c>
+      <c r="B5835" t="inlineStr"/>
+      <c r="C5835" t="inlineStr"/>
+      <c r="D5835" t="inlineStr"/>
+    </row>
+    <row r="5836">
+      <c r="A5836" s="1" t="inlineStr">
+        <is>
+          <t>세무서</t>
+        </is>
+      </c>
+      <c r="B5836" t="inlineStr"/>
+      <c r="C5836" t="inlineStr"/>
+      <c r="D5836" t="inlineStr"/>
+    </row>
+    <row r="5837">
+      <c r="A5837" s="1" t="inlineStr">
+        <is>
+          <t>운영과</t>
+        </is>
+      </c>
+      <c r="B5837" t="inlineStr"/>
+      <c r="C5837" t="inlineStr"/>
+      <c r="D5837" t="inlineStr"/>
+    </row>
+    <row r="5838">
+      <c r="A5838" s="1" t="inlineStr">
+        <is>
+          <t>통제구간인</t>
+        </is>
+      </c>
+      <c r="B5838" t="inlineStr"/>
+      <c r="C5838" t="inlineStr"/>
+      <c r="D5838" t="inlineStr"/>
+    </row>
+    <row r="5839">
+      <c r="A5839" s="1" t="inlineStr">
+        <is>
+          <t>아카시아</t>
+        </is>
+      </c>
+      <c r="B5839" t="inlineStr"/>
+      <c r="C5839" t="inlineStr"/>
+      <c r="D5839" t="inlineStr"/>
+    </row>
+    <row r="5840">
+      <c r="A5840" s="1" t="inlineStr">
+        <is>
+          <t>봐서</t>
+        </is>
+      </c>
+      <c r="B5840" t="inlineStr"/>
+      <c r="C5840" t="inlineStr"/>
+      <c r="D5840" t="inlineStr"/>
+    </row>
+    <row r="5841">
+      <c r="A5841" s="1" t="inlineStr">
+        <is>
+          <t>차량이고요</t>
+        </is>
+      </c>
+      <c r="B5841" t="inlineStr"/>
+      <c r="C5841" t="inlineStr"/>
+      <c r="D5841" t="inlineStr"/>
+    </row>
+    <row r="5842">
+      <c r="A5842" s="1" t="inlineStr">
+        <is>
+          <t>성</t>
+        </is>
+      </c>
+      <c r="B5842" t="inlineStr"/>
+      <c r="C5842" t="inlineStr"/>
+      <c r="D5842" t="inlineStr"/>
+    </row>
+    <row r="5843">
+      <c r="A5843" s="1" t="inlineStr">
+        <is>
+          <t>교통이면</t>
+        </is>
+      </c>
+      <c r="B5843" t="inlineStr"/>
+      <c r="C5843" t="inlineStr"/>
+      <c r="D5843" t="inlineStr"/>
+    </row>
+    <row r="5844">
+      <c r="A5844" s="1" t="inlineStr">
+        <is>
+          <t>들어왔나</t>
+        </is>
+      </c>
+      <c r="B5844" t="inlineStr"/>
+      <c r="C5844" t="inlineStr"/>
+      <c r="D5844" t="inlineStr"/>
+    </row>
+    <row r="5845">
+      <c r="A5845" s="1" t="inlineStr">
+        <is>
+          <t>동지거든요</t>
+        </is>
+      </c>
+      <c r="B5845" t="inlineStr"/>
+      <c r="C5845" t="inlineStr"/>
+      <c r="D5845" t="inlineStr"/>
+    </row>
+    <row r="5846">
+      <c r="A5846" s="1" t="inlineStr">
+        <is>
+          <t>위반돼</t>
+        </is>
+      </c>
+      <c r="B5846" t="inlineStr"/>
+      <c r="C5846" t="inlineStr"/>
+      <c r="D5846" t="inlineStr"/>
+    </row>
+    <row r="5847">
+      <c r="A5847" s="1" t="inlineStr">
+        <is>
+          <t>이제부터</t>
+        </is>
+      </c>
+      <c r="B5847" t="inlineStr"/>
+      <c r="C5847" t="inlineStr"/>
+      <c r="D5847" t="inlineStr"/>
+    </row>
+    <row r="5848">
+      <c r="A5848" s="1" t="inlineStr">
+        <is>
+          <t>차선</t>
+        </is>
+      </c>
+      <c r="B5848" t="inlineStr"/>
+      <c r="C5848" t="inlineStr"/>
+      <c r="D5848" t="inlineStr"/>
+    </row>
+    <row r="5849">
+      <c r="A5849" s="1" t="inlineStr">
+        <is>
+          <t>천백</t>
+        </is>
+      </c>
+      <c r="B5849" t="inlineStr"/>
+      <c r="C5849" t="inlineStr"/>
+      <c r="D5849" t="inlineStr"/>
+    </row>
+    <row r="5850">
+      <c r="A5850" s="1" t="inlineStr">
+        <is>
+          <t>주민센터에서</t>
+        </is>
+      </c>
+      <c r="B5850" t="inlineStr"/>
+      <c r="C5850" t="inlineStr"/>
+      <c r="D5850" t="inlineStr"/>
+    </row>
+    <row r="5851">
+      <c r="A5851" s="1" t="inlineStr">
+        <is>
+          <t>순한</t>
+        </is>
+      </c>
+      <c r="B5851" t="inlineStr"/>
+      <c r="C5851" t="inlineStr"/>
+      <c r="D5851" t="inlineStr"/>
+    </row>
+    <row r="5852">
+      <c r="A5852" s="1" t="inlineStr">
+        <is>
+          <t>동구청으로</t>
+        </is>
+      </c>
+      <c r="B5852" t="inlineStr"/>
+      <c r="C5852" t="inlineStr"/>
+      <c r="D5852" t="inlineStr"/>
+    </row>
+    <row r="5853">
+      <c r="A5853" s="1" t="inlineStr">
+        <is>
+          <t>팔이라</t>
+        </is>
+      </c>
+      <c r="B5853" t="inlineStr"/>
+      <c r="C5853" t="inlineStr"/>
+      <c r="D5853" t="inlineStr"/>
+    </row>
+    <row r="5854">
+      <c r="A5854" s="1" t="inlineStr">
+        <is>
+          <t>삼사육</t>
+        </is>
+      </c>
+      <c r="B5854" t="inlineStr"/>
+      <c r="C5854" t="inlineStr"/>
+      <c r="D5854" t="inlineStr"/>
+    </row>
+    <row r="5855">
+      <c r="A5855" s="1" t="inlineStr">
+        <is>
+          <t>입구인데요</t>
+        </is>
+      </c>
+      <c r="B5855" t="inlineStr"/>
+      <c r="C5855" t="inlineStr"/>
+      <c r="D5855" t="inlineStr"/>
+    </row>
+    <row r="5856">
+      <c r="A5856" s="1" t="inlineStr">
+        <is>
+          <t>샘임</t>
+        </is>
+      </c>
+      <c r="B5856" t="inlineStr"/>
+      <c r="C5856" t="inlineStr"/>
+      <c r="D5856" t="inlineStr"/>
+    </row>
+    <row r="5857">
+      <c r="A5857" s="1" t="inlineStr">
+        <is>
+          <t>번이라</t>
+        </is>
+      </c>
+      <c r="B5857" t="inlineStr"/>
+      <c r="C5857" t="inlineStr"/>
+      <c r="D5857" t="inlineStr"/>
+    </row>
+    <row r="5858">
+      <c r="A5858" s="1" t="inlineStr">
+        <is>
+          <t>대명</t>
+        </is>
+      </c>
+      <c r="B5858" t="inlineStr"/>
+      <c r="C5858" t="inlineStr"/>
+      <c r="D5858" t="inlineStr"/>
+    </row>
+    <row r="5859">
+      <c r="A5859" s="1" t="inlineStr">
+        <is>
+          <t>드리기</t>
+        </is>
+      </c>
+      <c r="B5859" t="inlineStr"/>
+      <c r="C5859" t="inlineStr"/>
+      <c r="D5859" t="inlineStr"/>
+    </row>
+    <row r="5860">
+      <c r="A5860" s="1" t="inlineStr">
+        <is>
+          <t>공단</t>
+        </is>
+      </c>
+      <c r="B5860" t="inlineStr"/>
+      <c r="C5860" t="inlineStr"/>
+      <c r="D5860" t="inlineStr"/>
+    </row>
+    <row r="5861">
+      <c r="A5861" s="1" t="inlineStr">
+        <is>
+          <t>뛰어가서</t>
+        </is>
+      </c>
+      <c r="B5861" t="inlineStr"/>
+      <c r="C5861" t="inlineStr"/>
+      <c r="D5861" t="inlineStr"/>
+    </row>
+    <row r="5862">
+      <c r="A5862" s="1" t="inlineStr">
+        <is>
+          <t>주정차되어</t>
+        </is>
+      </c>
+      <c r="B5862" t="inlineStr"/>
+      <c r="C5862" t="inlineStr"/>
+      <c r="D5862" t="inlineStr"/>
+    </row>
+    <row r="5863">
+      <c r="A5863" s="1" t="inlineStr">
+        <is>
+          <t>고교</t>
+        </is>
+      </c>
+      <c r="B5863" t="inlineStr"/>
+      <c r="C5863" t="inlineStr"/>
+      <c r="D5863" t="inlineStr"/>
+    </row>
+    <row r="5864">
+      <c r="A5864" s="1" t="inlineStr">
+        <is>
+          <t>입장에서</t>
+        </is>
+      </c>
+      <c r="B5864" t="inlineStr"/>
+      <c r="C5864" t="inlineStr"/>
+      <c r="D5864" t="inlineStr"/>
+    </row>
+    <row r="5865">
+      <c r="A5865" s="1" t="inlineStr">
+        <is>
+          <t>봐주실래</t>
+        </is>
+      </c>
+      <c r="B5865" t="inlineStr"/>
+      <c r="C5865" t="inlineStr"/>
+      <c r="D5865" t="inlineStr"/>
+    </row>
+    <row r="5866">
+      <c r="A5866" s="1" t="inlineStr">
+        <is>
+          <t>왔다</t>
+        </is>
+      </c>
+      <c r="B5866" t="inlineStr"/>
+      <c r="C5866" t="inlineStr"/>
+      <c r="D5866" t="inlineStr"/>
+    </row>
+    <row r="5867">
+      <c r="A5867" s="1" t="inlineStr">
+        <is>
+          <t>부분이고요</t>
+        </is>
+      </c>
+      <c r="B5867" t="inlineStr"/>
+      <c r="C5867" t="inlineStr"/>
+      <c r="D5867" t="inlineStr"/>
+    </row>
+    <row r="5868">
+      <c r="A5868" s="1" t="inlineStr">
+        <is>
+          <t>차선밖에</t>
+        </is>
+      </c>
+      <c r="B5868" t="inlineStr"/>
+      <c r="C5868" t="inlineStr"/>
+      <c r="D5868" t="inlineStr"/>
+    </row>
+    <row r="5869">
+      <c r="A5869" s="1" t="inlineStr">
+        <is>
+          <t>파리채</t>
+        </is>
+      </c>
+      <c r="B5869" t="inlineStr"/>
+      <c r="C5869" t="inlineStr"/>
+      <c r="D5869" t="inlineStr"/>
+    </row>
+    <row r="5870">
+      <c r="A5870" s="1" t="inlineStr">
+        <is>
+          <t>택시였어요</t>
+        </is>
+      </c>
+      <c r="B5870" t="inlineStr"/>
+      <c r="C5870" t="inlineStr"/>
+      <c r="D5870" t="inlineStr"/>
+    </row>
+    <row r="5871">
+      <c r="A5871" s="1" t="inlineStr">
+        <is>
+          <t>안될</t>
+        </is>
+      </c>
+      <c r="B5871" t="inlineStr"/>
+      <c r="C5871" t="inlineStr"/>
+      <c r="D5871" t="inlineStr"/>
+    </row>
+    <row r="5872">
+      <c r="A5872" s="1" t="inlineStr">
+        <is>
+          <t>중리</t>
+        </is>
+      </c>
+      <c r="B5872" t="inlineStr"/>
+      <c r="C5872" t="inlineStr"/>
+      <c r="D5872" t="inlineStr"/>
+    </row>
+    <row r="5873">
+      <c r="A5873" s="1" t="inlineStr">
+        <is>
+          <t>철로</t>
+        </is>
+      </c>
+      <c r="B5873" t="inlineStr"/>
+      <c r="C5873" t="inlineStr"/>
+      <c r="D5873" t="inlineStr"/>
+    </row>
+    <row r="5874">
+      <c r="A5874" s="1" t="inlineStr">
+        <is>
+          <t>보이지는</t>
+        </is>
+      </c>
+      <c r="B5874" t="inlineStr"/>
+      <c r="C5874" t="inlineStr"/>
+      <c r="D5874" t="inlineStr"/>
+    </row>
+    <row r="5875">
+      <c r="A5875" s="1" t="inlineStr">
+        <is>
+          <t>안내기는</t>
+        </is>
+      </c>
+      <c r="B5875" t="inlineStr"/>
+      <c r="C5875" t="inlineStr"/>
+      <c r="D5875" t="inlineStr"/>
+    </row>
+    <row r="5876">
+      <c r="A5876" s="1" t="inlineStr">
+        <is>
+          <t>오공</t>
+        </is>
+      </c>
+      <c r="B5876" t="inlineStr"/>
+      <c r="C5876" t="inlineStr"/>
+      <c r="D5876" t="inlineStr"/>
+    </row>
+    <row r="5877">
+      <c r="A5877" s="1" t="inlineStr">
+        <is>
+          <t>못할</t>
+        </is>
+      </c>
+      <c r="B5877" t="inlineStr"/>
+      <c r="C5877" t="inlineStr"/>
+      <c r="D5877" t="inlineStr"/>
+    </row>
+    <row r="5878">
+      <c r="A5878" s="1" t="inlineStr">
+        <is>
+          <t>택시인데</t>
+        </is>
+      </c>
+      <c r="B5878" t="inlineStr"/>
+      <c r="C5878" t="inlineStr"/>
+      <c r="D5878" t="inlineStr"/>
+    </row>
+    <row r="5879">
+      <c r="A5879" s="1" t="inlineStr">
+        <is>
+          <t>사요</t>
+        </is>
+      </c>
+      <c r="B5879" t="inlineStr"/>
+      <c r="C5879" t="inlineStr"/>
+      <c r="D5879" t="inlineStr"/>
+    </row>
+    <row r="5880">
+      <c r="A5880" s="1" t="inlineStr">
+        <is>
+          <t>대백플라자</t>
+        </is>
+      </c>
+      <c r="B5880" t="inlineStr"/>
+      <c r="C5880" t="inlineStr"/>
+      <c r="D5880" t="inlineStr"/>
+    </row>
+    <row r="5881">
+      <c r="A5881" s="1" t="inlineStr">
+        <is>
+          <t>동부</t>
+        </is>
+      </c>
+      <c r="B5881" t="inlineStr"/>
+      <c r="C5881" t="inlineStr"/>
+      <c r="D5881" t="inlineStr"/>
+    </row>
+    <row r="5882">
+      <c r="A5882" s="1" t="inlineStr">
+        <is>
+          <t>언제쯤이에요</t>
+        </is>
+      </c>
+      <c r="B5882" t="inlineStr"/>
+      <c r="C5882" t="inlineStr"/>
+      <c r="D5882" t="inlineStr"/>
+    </row>
+    <row r="5883">
+      <c r="A5883" s="1" t="inlineStr">
+        <is>
+          <t>확인하니까</t>
+        </is>
+      </c>
+      <c r="B5883" t="inlineStr"/>
+      <c r="C5883" t="inlineStr"/>
+      <c r="D5883" t="inlineStr"/>
+    </row>
+    <row r="5884">
+      <c r="A5884" s="1" t="inlineStr">
+        <is>
+          <t>센터라든지</t>
+        </is>
+      </c>
+      <c r="B5884" t="inlineStr"/>
+      <c r="C5884" t="inlineStr"/>
+      <c r="D5884" t="inlineStr"/>
+    </row>
+    <row r="5885">
+      <c r="A5885" s="1" t="inlineStr">
+        <is>
+          <t>콜택시</t>
+        </is>
+      </c>
+      <c r="B5885" t="inlineStr"/>
+      <c r="C5885" t="inlineStr"/>
+      <c r="D5885" t="inlineStr"/>
+    </row>
+    <row r="5886">
+      <c r="A5886" s="1" t="inlineStr">
+        <is>
+          <t>이쪽에서</t>
+        </is>
+      </c>
+      <c r="B5886" t="inlineStr"/>
+      <c r="C5886" t="inlineStr"/>
+      <c r="D5886" t="inlineStr"/>
+    </row>
+    <row r="5887">
+      <c r="A5887" s="1" t="inlineStr">
+        <is>
+          <t>운송</t>
+        </is>
+      </c>
+      <c r="B5887" t="inlineStr"/>
+      <c r="C5887" t="inlineStr"/>
+      <c r="D5887" t="inlineStr"/>
+    </row>
+    <row r="5888">
+      <c r="A5888" s="1" t="inlineStr">
+        <is>
+          <t>빠르고요</t>
+        </is>
+      </c>
+      <c r="B5888" t="inlineStr"/>
+      <c r="C5888" t="inlineStr"/>
+      <c r="D5888" t="inlineStr"/>
+    </row>
+    <row r="5889">
+      <c r="A5889" s="1" t="inlineStr">
+        <is>
+          <t>나는데</t>
+        </is>
+      </c>
+      <c r="B5889" t="inlineStr"/>
+      <c r="C5889" t="inlineStr"/>
+      <c r="D5889" t="inlineStr"/>
+    </row>
+    <row r="5890">
+      <c r="A5890" s="1" t="inlineStr">
+        <is>
+          <t>상가</t>
+        </is>
+      </c>
+      <c r="B5890" t="inlineStr"/>
+      <c r="C5890" t="inlineStr"/>
+      <c r="D5890" t="inlineStr"/>
+    </row>
+    <row r="5891">
+      <c r="A5891" s="1" t="inlineStr">
+        <is>
+          <t>부른</t>
+        </is>
+      </c>
+      <c r="B5891" t="inlineStr"/>
+      <c r="C5891" t="inlineStr"/>
+      <c r="D5891" t="inlineStr"/>
+    </row>
+    <row r="5892">
+      <c r="A5892" s="1" t="inlineStr">
+        <is>
+          <t>연암</t>
+        </is>
+      </c>
+      <c r="B5892" t="inlineStr"/>
+      <c r="C5892" t="inlineStr"/>
+      <c r="D5892" t="inlineStr"/>
+    </row>
+    <row r="5893">
+      <c r="A5893" s="1" t="inlineStr">
+        <is>
+          <t>주셨고요</t>
+        </is>
+      </c>
+      <c r="B5893" t="inlineStr"/>
+      <c r="C5893" t="inlineStr"/>
+      <c r="D5893" t="inlineStr"/>
+    </row>
+    <row r="5894">
+      <c r="A5894" s="1" t="inlineStr">
+        <is>
+          <t>절차가</t>
+        </is>
+      </c>
+      <c r="B5894" t="inlineStr"/>
+      <c r="C5894" t="inlineStr"/>
+      <c r="D5894" t="inlineStr"/>
+    </row>
+    <row r="5895">
+      <c r="A5895" s="1" t="inlineStr">
+        <is>
+          <t>공</t>
+        </is>
+      </c>
+      <c r="B5895" t="inlineStr"/>
+      <c r="C5895" t="inlineStr"/>
+      <c r="D5895" t="inlineStr"/>
+    </row>
+    <row r="5896">
+      <c r="A5896" s="1" t="inlineStr">
+        <is>
+          <t>부근으로는</t>
+        </is>
+      </c>
+      <c r="B5896" t="inlineStr"/>
+      <c r="C5896" t="inlineStr"/>
+      <c r="D5896" t="inlineStr"/>
+    </row>
+    <row r="5897">
+      <c r="A5897" s="1" t="inlineStr">
+        <is>
+          <t>송</t>
+        </is>
+      </c>
+      <c r="B5897" t="inlineStr"/>
+      <c r="C5897" t="inlineStr"/>
+      <c r="D5897" t="inlineStr"/>
+    </row>
+    <row r="5898">
+      <c r="A5898" s="1" t="inlineStr">
+        <is>
+          <t>백이십</t>
+        </is>
+      </c>
+      <c r="B5898" t="inlineStr"/>
+      <c r="C5898" t="inlineStr"/>
+      <c r="D5898" t="inlineStr"/>
+    </row>
+    <row r="5899">
+      <c r="A5899" s="1" t="inlineStr">
+        <is>
+          <t>남부</t>
+        </is>
+      </c>
+      <c r="B5899" t="inlineStr"/>
+      <c r="C5899" t="inlineStr"/>
+      <c r="D5899" t="inlineStr"/>
+    </row>
+    <row r="5900">
+      <c r="A5900" s="1" t="inlineStr">
+        <is>
+          <t>하더라고요</t>
+        </is>
+      </c>
+      <c r="B5900" t="inlineStr"/>
+      <c r="C5900" t="inlineStr"/>
+      <c r="D5900" t="inlineStr"/>
+    </row>
+    <row r="5901">
+      <c r="A5901" s="1" t="inlineStr">
+        <is>
+          <t>이번하고요</t>
+        </is>
+      </c>
+      <c r="B5901" t="inlineStr"/>
+      <c r="C5901" t="inlineStr"/>
+      <c r="D5901" t="inlineStr"/>
+    </row>
+    <row r="5902">
+      <c r="A5902" s="1" t="inlineStr">
+        <is>
+          <t>하려고요</t>
+        </is>
+      </c>
+      <c r="B5902" t="inlineStr"/>
+      <c r="C5902" t="inlineStr"/>
+      <c r="D5902" t="inlineStr"/>
+    </row>
+    <row r="5903">
+      <c r="A5903" s="1" t="inlineStr">
+        <is>
+          <t>어디쯤이십니까</t>
+        </is>
+      </c>
+      <c r="B5903" t="inlineStr"/>
+      <c r="C5903" t="inlineStr"/>
+      <c r="D5903" t="inlineStr"/>
+    </row>
+    <row r="5904">
+      <c r="A5904" s="1" t="inlineStr">
+        <is>
+          <t>세무서로</t>
+        </is>
+      </c>
+      <c r="B5904" t="inlineStr"/>
+      <c r="C5904" t="inlineStr"/>
+      <c r="D5904" t="inlineStr"/>
+    </row>
+    <row r="5905">
+      <c r="A5905" s="1" t="inlineStr">
+        <is>
+          <t>이팔</t>
+        </is>
+      </c>
+      <c r="B5905" t="inlineStr"/>
+      <c r="C5905" t="inlineStr"/>
+      <c r="D5905" t="inlineStr"/>
+    </row>
+    <row r="5906">
+      <c r="A5906" s="1" t="inlineStr">
+        <is>
+          <t>걸라고요</t>
+        </is>
+      </c>
+      <c r="B5906" t="inlineStr"/>
+      <c r="C5906" t="inlineStr"/>
+      <c r="D5906" t="inlineStr"/>
+    </row>
+    <row r="5907">
+      <c r="A5907" s="1" t="inlineStr">
+        <is>
+          <t>자인</t>
+        </is>
+      </c>
+      <c r="B5907" t="inlineStr"/>
+      <c r="C5907" t="inlineStr"/>
+      <c r="D5907" t="inlineStr"/>
+    </row>
+    <row r="5908">
+      <c r="A5908" s="1" t="inlineStr">
+        <is>
+          <t>카니까</t>
+        </is>
+      </c>
+      <c r="B5908" t="inlineStr"/>
+      <c r="C5908" t="inlineStr"/>
+      <c r="D5908" t="inlineStr"/>
+    </row>
+    <row r="5909">
+      <c r="A5909" s="1" t="inlineStr">
+        <is>
+          <t>도움드리기는</t>
+        </is>
+      </c>
+      <c r="B5909" t="inlineStr"/>
+      <c r="C5909" t="inlineStr"/>
+      <c r="D5909" t="inlineStr"/>
+    </row>
+    <row r="5910">
+      <c r="A5910" s="1" t="inlineStr">
+        <is>
+          <t>신천</t>
+        </is>
+      </c>
+      <c r="B5910" t="inlineStr"/>
+      <c r="C5910" t="inlineStr"/>
+      <c r="D5910" t="inlineStr"/>
+    </row>
+    <row r="5911">
+      <c r="A5911" s="1" t="inlineStr">
+        <is>
+          <t>거에</t>
+        </is>
+      </c>
+      <c r="B5911" t="inlineStr"/>
+      <c r="C5911" t="inlineStr"/>
+      <c r="D5911" t="inlineStr"/>
+    </row>
+    <row r="5912">
+      <c r="A5912" s="1" t="inlineStr">
+        <is>
+          <t>건이고요</t>
+        </is>
+      </c>
+      <c r="B5912" t="inlineStr"/>
+      <c r="C5912" t="inlineStr"/>
+      <c r="D5912" t="inlineStr"/>
+    </row>
+    <row r="5913">
+      <c r="A5913" s="1" t="inlineStr">
+        <is>
+          <t>못해요</t>
+        </is>
+      </c>
+      <c r="B5913" t="inlineStr"/>
+      <c r="C5913" t="inlineStr"/>
+      <c r="D5913" t="inlineStr"/>
+    </row>
+    <row r="5914">
+      <c r="A5914" s="1" t="inlineStr">
+        <is>
+          <t>지구</t>
+        </is>
+      </c>
+      <c r="B5914" t="inlineStr"/>
+      <c r="C5914" t="inlineStr"/>
+      <c r="D5914" t="inlineStr"/>
+    </row>
+    <row r="5915">
+      <c r="A5915" s="1" t="inlineStr">
+        <is>
+          <t>가능하시겠어요</t>
+        </is>
+      </c>
+      <c r="B5915" t="inlineStr"/>
+      <c r="C5915" t="inlineStr"/>
+      <c r="D5915" t="inlineStr"/>
+    </row>
+    <row r="5916">
+      <c r="A5916" s="1" t="inlineStr">
+        <is>
+          <t>시민</t>
+        </is>
+      </c>
+      <c r="B5916" t="inlineStr"/>
+      <c r="C5916" t="inlineStr"/>
+      <c r="D5916" t="inlineStr"/>
+    </row>
+    <row r="5917">
+      <c r="A5917" s="1" t="inlineStr">
+        <is>
+          <t>택시회사</t>
+        </is>
+      </c>
+      <c r="B5917" t="inlineStr"/>
+      <c r="C5917" t="inlineStr"/>
+      <c r="D5917" t="inlineStr"/>
+    </row>
+    <row r="5918">
+      <c r="A5918" s="1" t="inlineStr">
+        <is>
+          <t>스타</t>
+        </is>
+      </c>
+      <c r="B5918" t="inlineStr"/>
+      <c r="C5918" t="inlineStr"/>
+      <c r="D5918" t="inlineStr"/>
+    </row>
+    <row r="5919">
+      <c r="A5919" s="1" t="inlineStr">
+        <is>
+          <t>걸어가야</t>
+        </is>
+      </c>
+      <c r="B5919" t="inlineStr"/>
+      <c r="C5919" t="inlineStr"/>
+      <c r="D5919" t="inlineStr"/>
+    </row>
+    <row r="5920">
+      <c r="A5920" s="1" t="inlineStr">
+        <is>
+          <t>육이</t>
+        </is>
+      </c>
+      <c r="B5920" t="inlineStr"/>
+      <c r="C5920" t="inlineStr"/>
+      <c r="D5920" t="inlineStr"/>
+    </row>
+    <row r="5921">
+      <c r="A5921" s="1" t="inlineStr">
+        <is>
+          <t>뒷좌석에</t>
+        </is>
+      </c>
+      <c r="B5921" t="inlineStr"/>
+      <c r="C5921" t="inlineStr"/>
+      <c r="D5921" t="inlineStr"/>
+    </row>
+    <row r="5922">
+      <c r="A5922" s="1" t="inlineStr">
+        <is>
+          <t>여섯시쯤요</t>
+        </is>
+      </c>
+      <c r="B5922" t="inlineStr"/>
+      <c r="C5922" t="inlineStr"/>
+      <c r="D5922" t="inlineStr"/>
+    </row>
+    <row r="5923">
+      <c r="A5923" s="1" t="inlineStr">
+        <is>
+          <t>수선</t>
+        </is>
+      </c>
+      <c r="B5923" t="inlineStr"/>
+      <c r="C5923" t="inlineStr"/>
+      <c r="D5923" t="inlineStr"/>
+    </row>
+    <row r="5924">
+      <c r="A5924" s="1" t="inlineStr">
+        <is>
+          <t>어디쯤에</t>
+        </is>
+      </c>
+      <c r="B5924" t="inlineStr"/>
+      <c r="C5924" t="inlineStr"/>
+      <c r="D5924" t="inlineStr"/>
+    </row>
+    <row r="5925">
+      <c r="A5925" s="1" t="inlineStr">
+        <is>
+          <t>주시는</t>
+        </is>
+      </c>
+      <c r="B5925" t="inlineStr"/>
+      <c r="C5925" t="inlineStr"/>
+      <c r="D5925" t="inlineStr"/>
+    </row>
+    <row r="5926">
+      <c r="A5926" s="1" t="inlineStr">
+        <is>
+          <t>삼백칠</t>
+        </is>
+      </c>
+      <c r="B5926" t="inlineStr"/>
+      <c r="C5926" t="inlineStr"/>
+      <c r="D5926" t="inlineStr"/>
+    </row>
+    <row r="5927">
+      <c r="A5927" s="1" t="inlineStr">
+        <is>
+          <t>쫓아올라</t>
+        </is>
+      </c>
+      <c r="B5927" t="inlineStr"/>
+      <c r="C5927" t="inlineStr"/>
+      <c r="D5927" t="inlineStr"/>
+    </row>
+    <row r="5928">
+      <c r="A5928" s="1" t="inlineStr">
+        <is>
+          <t>성서주공이</t>
+        </is>
+      </c>
+      <c r="B5928" t="inlineStr"/>
+      <c r="C5928" t="inlineStr"/>
+      <c r="D5928" t="inlineStr"/>
+    </row>
+    <row r="5929">
+      <c r="A5929" s="1" t="inlineStr">
+        <is>
+          <t>구륙</t>
+        </is>
+      </c>
+      <c r="B5929" t="inlineStr"/>
+      <c r="C5929" t="inlineStr"/>
+      <c r="D5929" t="inlineStr"/>
+    </row>
+    <row r="5930">
+      <c r="A5930" s="1" t="inlineStr">
+        <is>
+          <t>신고받습니까</t>
+        </is>
+      </c>
+      <c r="B5930" t="inlineStr"/>
+      <c r="C5930" t="inlineStr"/>
+      <c r="D5930" t="inlineStr"/>
+    </row>
+    <row r="5931">
+      <c r="A5931" s="1" t="inlineStr">
+        <is>
+          <t>주말이다</t>
+        </is>
+      </c>
+      <c r="B5931" t="inlineStr"/>
+      <c r="C5931" t="inlineStr"/>
+      <c r="D5931" t="inlineStr"/>
+    </row>
+    <row r="5932">
+      <c r="A5932" s="1" t="inlineStr">
+        <is>
+          <t>도착하고요</t>
+        </is>
+      </c>
+      <c r="B5932" t="inlineStr"/>
+      <c r="C5932" t="inlineStr"/>
+      <c r="D5932" t="inlineStr"/>
+    </row>
+    <row r="5933">
+      <c r="A5933" s="1" t="inlineStr">
+        <is>
+          <t>성모여</t>
+        </is>
+      </c>
+      <c r="B5933" t="inlineStr"/>
+      <c r="C5933" t="inlineStr"/>
+      <c r="D5933" t="inlineStr"/>
+    </row>
+    <row r="5934">
+      <c r="A5934" s="1" t="inlineStr">
+        <is>
+          <t>광명은</t>
+        </is>
+      </c>
+      <c r="B5934" t="inlineStr"/>
+      <c r="C5934" t="inlineStr"/>
+      <c r="D5934" t="inlineStr"/>
+    </row>
+    <row r="5935">
+      <c r="A5935" s="1" t="inlineStr">
+        <is>
+          <t>백팔십이</t>
+        </is>
+      </c>
+      <c r="B5935" t="inlineStr"/>
+      <c r="C5935" t="inlineStr"/>
+      <c r="D5935" t="inlineStr"/>
+    </row>
+    <row r="5936">
+      <c r="A5936" s="1" t="inlineStr">
+        <is>
+          <t>중학교</t>
+        </is>
+      </c>
+      <c r="B5936" t="inlineStr"/>
+      <c r="C5936" t="inlineStr"/>
+      <c r="D5936" t="inlineStr"/>
+    </row>
+    <row r="5937">
+      <c r="A5937" s="1" t="inlineStr">
+        <is>
+          <t>동대구</t>
+        </is>
+      </c>
+      <c r="B5937" t="inlineStr"/>
+      <c r="C5937" t="inlineStr"/>
+      <c r="D5937" t="inlineStr"/>
+    </row>
+    <row r="5938">
+      <c r="A5938" s="1" t="inlineStr">
+        <is>
+          <t>주정차라든지</t>
+        </is>
+      </c>
+      <c r="B5938" t="inlineStr"/>
+      <c r="C5938" t="inlineStr"/>
+      <c r="D5938" t="inlineStr"/>
+    </row>
+    <row r="5939">
+      <c r="A5939" s="1" t="inlineStr">
+        <is>
+          <t>내리까</t>
+        </is>
+      </c>
+      <c r="B5939" t="inlineStr"/>
+      <c r="C5939" t="inlineStr"/>
+      <c r="D5939" t="inlineStr"/>
+    </row>
+    <row r="5940">
+      <c r="A5940" s="1" t="inlineStr">
+        <is>
+          <t>배차정보</t>
+        </is>
+      </c>
+      <c r="B5940" t="inlineStr"/>
+      <c r="C5940" t="inlineStr"/>
+      <c r="D5940" t="inlineStr"/>
+    </row>
+    <row r="5941">
+      <c r="A5941" s="1" t="inlineStr">
+        <is>
+          <t>허구일</t>
+        </is>
+      </c>
+      <c r="B5941" t="inlineStr"/>
+      <c r="C5941" t="inlineStr"/>
+      <c r="D5941" t="inlineStr"/>
+    </row>
+    <row r="5942">
+      <c r="A5942" s="1" t="inlineStr">
+        <is>
+          <t>상가가</t>
+        </is>
+      </c>
+      <c r="B5942" t="inlineStr"/>
+      <c r="C5942" t="inlineStr"/>
+      <c r="D5942" t="inlineStr"/>
+    </row>
+    <row r="5943">
+      <c r="A5943" s="1" t="inlineStr">
+        <is>
+          <t>열삼십분짼데</t>
+        </is>
+      </c>
+      <c r="B5943" t="inlineStr"/>
+      <c r="C5943" t="inlineStr"/>
+      <c r="D5943" t="inlineStr"/>
+    </row>
+    <row r="5944">
+      <c r="A5944" s="1" t="inlineStr">
+        <is>
+          <t>오백이십삼</t>
+        </is>
+      </c>
+      <c r="B5944" t="inlineStr"/>
+      <c r="C5944" t="inlineStr"/>
+      <c r="D5944" t="inlineStr"/>
+    </row>
+    <row r="5945">
+      <c r="A5945" s="1" t="inlineStr">
+        <is>
+          <t>팔달</t>
+        </is>
+      </c>
+      <c r="B5945" t="inlineStr"/>
+      <c r="C5945" t="inlineStr"/>
+      <c r="D5945" t="inlineStr"/>
+    </row>
+    <row r="5946">
+      <c r="A5946" s="1" t="inlineStr">
+        <is>
+          <t>파출소</t>
+        </is>
+      </c>
+      <c r="B5946" t="inlineStr"/>
+      <c r="C5946" t="inlineStr"/>
+      <c r="D5946" t="inlineStr"/>
+    </row>
+    <row r="5947">
+      <c r="A5947" s="1" t="inlineStr">
+        <is>
+          <t>달구벌</t>
+        </is>
+      </c>
+      <c r="B5947" t="inlineStr"/>
+      <c r="C5947" t="inlineStr"/>
+      <c r="D5947" t="inlineStr"/>
+    </row>
+    <row r="5948">
+      <c r="A5948" s="1" t="inlineStr">
+        <is>
+          <t>교육까지</t>
+        </is>
+      </c>
+      <c r="B5948" t="inlineStr"/>
+      <c r="C5948" t="inlineStr"/>
+      <c r="D5948" t="inlineStr"/>
+    </row>
+    <row r="5949">
+      <c r="A5949" s="1" t="inlineStr">
+        <is>
+          <t>번이라고</t>
+        </is>
+      </c>
+      <c r="B5949" t="inlineStr"/>
+      <c r="C5949" t="inlineStr"/>
+      <c r="D5949" t="inlineStr"/>
+    </row>
+    <row r="5950">
+      <c r="A5950" s="1" t="inlineStr">
+        <is>
+          <t>급행일</t>
+        </is>
+      </c>
+      <c r="B5950" t="inlineStr"/>
+      <c r="C5950" t="inlineStr"/>
+      <c r="D5950" t="inlineStr"/>
+    </row>
+    <row r="5951">
+      <c r="A5951" s="1" t="inlineStr">
+        <is>
+          <t>오팔이요</t>
+        </is>
+      </c>
+      <c r="B5951" t="inlineStr"/>
+      <c r="C5951" t="inlineStr"/>
+      <c r="D5951" t="inlineStr"/>
+    </row>
+    <row r="5952">
+      <c r="A5952" s="1" t="inlineStr">
+        <is>
+          <t>시내버스가</t>
+        </is>
+      </c>
+      <c r="B5952" t="inlineStr"/>
+      <c r="C5952" t="inlineStr"/>
+      <c r="D5952" t="inlineStr"/>
+    </row>
+    <row r="5953">
+      <c r="A5953" s="1" t="inlineStr">
+        <is>
+          <t>하나둘</t>
+        </is>
+      </c>
+      <c r="B5953" t="inlineStr"/>
+      <c r="C5953" t="inlineStr"/>
+      <c r="D5953" t="inlineStr"/>
+    </row>
+    <row r="5954">
+      <c r="A5954" s="1" t="inlineStr">
+        <is>
+          <t>사이와</t>
+        </is>
+      </c>
+      <c r="B5954" t="inlineStr"/>
+      <c r="C5954" t="inlineStr"/>
+      <c r="D5954" t="inlineStr"/>
+    </row>
+    <row r="5955">
+      <c r="A5955" s="1" t="inlineStr">
+        <is>
+          <t>오백이십칠</t>
+        </is>
+      </c>
+      <c r="B5955" t="inlineStr"/>
+      <c r="C5955" t="inlineStr"/>
+      <c r="D5955" t="inlineStr"/>
+    </row>
+    <row r="5956">
+      <c r="A5956" s="1" t="inlineStr">
+        <is>
+          <t>심하고요</t>
+        </is>
+      </c>
+      <c r="B5956" t="inlineStr"/>
+      <c r="C5956" t="inlineStr"/>
+      <c r="D5956" t="inlineStr"/>
+    </row>
+    <row r="5957">
+      <c r="A5957" s="1" t="inlineStr">
+        <is>
+          <t>유아르엘이라도</t>
+        </is>
+      </c>
+      <c r="B5957" t="inlineStr"/>
+      <c r="C5957" t="inlineStr"/>
+      <c r="D5957" t="inlineStr"/>
+    </row>
+    <row r="5958">
+      <c r="A5958" s="1" t="inlineStr">
+        <is>
+          <t>달서일</t>
+        </is>
+      </c>
+      <c r="B5958" t="inlineStr"/>
+      <c r="C5958" t="inlineStr"/>
+      <c r="D5958" t="inlineStr"/>
+    </row>
+    <row r="5959">
+      <c r="A5959" s="1" t="inlineStr">
+        <is>
+          <t>대로로</t>
+        </is>
+      </c>
+      <c r="B5959" t="inlineStr"/>
+      <c r="C5959" t="inlineStr"/>
+      <c r="D5959" t="inlineStr"/>
+    </row>
+    <row r="5960">
+      <c r="A5960" s="1" t="inlineStr">
+        <is>
+          <t>피시적인</t>
+        </is>
+      </c>
+      <c r="B5960" t="inlineStr"/>
+      <c r="C5960" t="inlineStr"/>
+      <c r="D5960" t="inlineStr"/>
+    </row>
+    <row r="5961">
+      <c r="A5961" s="1" t="inlineStr">
+        <is>
+          <t>두류</t>
+        </is>
+      </c>
+      <c r="B5961" t="inlineStr"/>
+      <c r="C5961" t="inlineStr"/>
+      <c r="D5961" t="inlineStr"/>
+    </row>
+    <row r="5962">
+      <c r="A5962" s="1" t="inlineStr">
+        <is>
+          <t>출구인데요</t>
+        </is>
+      </c>
+      <c r="B5962" t="inlineStr"/>
+      <c r="C5962" t="inlineStr"/>
+      <c r="D5962" t="inlineStr"/>
+    </row>
+    <row r="5963">
+      <c r="A5963" s="1" t="inlineStr">
+        <is>
+          <t>사행</t>
+        </is>
+      </c>
+      <c r="B5963" t="inlineStr"/>
+      <c r="C5963" t="inlineStr"/>
+      <c r="D5963" t="inlineStr"/>
+    </row>
+    <row r="5964">
+      <c r="A5964" s="1" t="inlineStr">
+        <is>
+          <t>친절기사님으로</t>
+        </is>
+      </c>
+      <c r="B5964" t="inlineStr"/>
+      <c r="C5964" t="inlineStr"/>
+      <c r="D5964" t="inlineStr"/>
+    </row>
+    <row r="5965">
+      <c r="A5965" s="1" t="inlineStr">
+        <is>
+          <t>성함요</t>
+        </is>
+      </c>
+      <c r="B5965" t="inlineStr"/>
+      <c r="C5965" t="inlineStr"/>
+      <c r="D5965" t="inlineStr"/>
+    </row>
+    <row r="5966">
+      <c r="A5966" s="1" t="inlineStr">
+        <is>
+          <t>사업조합</t>
+        </is>
+      </c>
+      <c r="B5966" t="inlineStr"/>
+      <c r="C5966" t="inlineStr"/>
+      <c r="D5966" t="inlineStr"/>
+    </row>
+    <row r="5967">
+      <c r="A5967" s="1" t="inlineStr">
+        <is>
+          <t>돼지국밥이고요</t>
+        </is>
+      </c>
+      <c r="B5967" t="inlineStr"/>
+      <c r="C5967" t="inlineStr"/>
+      <c r="D5967" t="inlineStr"/>
+    </row>
+    <row r="5968">
+      <c r="A5968" s="1" t="inlineStr">
+        <is>
+          <t>영</t>
+        </is>
+      </c>
+      <c r="B5968" t="inlineStr"/>
+      <c r="C5968" t="inlineStr"/>
+      <c r="D5968" t="inlineStr"/>
+    </row>
+    <row r="5969">
+      <c r="A5969" s="1" t="inlineStr">
+        <is>
+          <t>사백일</t>
+        </is>
+      </c>
+      <c r="B5969" t="inlineStr"/>
+      <c r="C5969" t="inlineStr"/>
+      <c r="D5969" t="inlineStr"/>
+    </row>
+    <row r="5970">
+      <c r="A5970" s="1" t="inlineStr">
+        <is>
+          <t>신고도</t>
+        </is>
+      </c>
+      <c r="B5970" t="inlineStr"/>
+      <c r="C5970" t="inlineStr"/>
+      <c r="D5970" t="inlineStr"/>
+    </row>
+    <row r="5971">
+      <c r="A5971" s="1" t="inlineStr">
+        <is>
+          <t>아무거나</t>
+        </is>
+      </c>
+      <c r="B5971" t="inlineStr"/>
+      <c r="C5971" t="inlineStr"/>
+      <c r="D5971" t="inlineStr"/>
+    </row>
+    <row r="5972">
+      <c r="A5972" s="1" t="inlineStr">
+        <is>
+          <t>안지랑</t>
+        </is>
+      </c>
+      <c r="B5972" t="inlineStr"/>
+      <c r="C5972" t="inlineStr"/>
+      <c r="D5972" t="inlineStr"/>
+    </row>
+    <row r="5973">
+      <c r="A5973" s="1" t="inlineStr">
+        <is>
+          <t>육백육</t>
+        </is>
+      </c>
+      <c r="B5973" t="inlineStr"/>
+      <c r="C5973" t="inlineStr"/>
+      <c r="D5973" t="inlineStr"/>
+    </row>
+    <row r="5974">
+      <c r="A5974" s="1" t="inlineStr">
+        <is>
+          <t>칠</t>
+        </is>
+      </c>
+      <c r="B5974" t="inlineStr"/>
+      <c r="C5974" t="inlineStr"/>
+      <c r="D5974" t="inlineStr"/>
+    </row>
+    <row r="5975">
+      <c r="A5975" s="1" t="inlineStr">
+        <is>
+          <t>서문시장이</t>
+        </is>
+      </c>
+      <c r="B5975" t="inlineStr"/>
+      <c r="C5975" t="inlineStr"/>
+      <c r="D5975" t="inlineStr"/>
+    </row>
+    <row r="5976">
+      <c r="A5976" s="1" t="inlineStr">
+        <is>
+          <t>서구이</t>
+        </is>
+      </c>
+      <c r="B5976" t="inlineStr"/>
+      <c r="C5976" t="inlineStr"/>
+      <c r="D5976" t="inlineStr"/>
+    </row>
+    <row r="5977">
+      <c r="A5977" s="1" t="inlineStr">
+        <is>
+          <t>쪽인가요</t>
+        </is>
+      </c>
+      <c r="B5977" t="inlineStr"/>
+      <c r="C5977" t="inlineStr"/>
+      <c r="D5977" t="inlineStr"/>
+    </row>
+    <row r="5978">
+      <c r="A5978" s="1" t="inlineStr">
+        <is>
+          <t>반쯤에</t>
+        </is>
+      </c>
+      <c r="B5978" t="inlineStr"/>
+      <c r="C5978" t="inlineStr"/>
+      <c r="D5978" t="inlineStr"/>
+    </row>
+    <row r="5979">
+      <c r="A5979" s="1" t="inlineStr">
+        <is>
+          <t>뛰어와가지고</t>
+        </is>
+      </c>
+      <c r="B5979" t="inlineStr"/>
+      <c r="C5979" t="inlineStr"/>
+      <c r="D5979" t="inlineStr"/>
+    </row>
+    <row r="5980">
+      <c r="A5980" s="1" t="inlineStr">
+        <is>
+          <t>진천</t>
+        </is>
+      </c>
+      <c r="B5980" t="inlineStr"/>
+      <c r="C5980" t="inlineStr"/>
+      <c r="D5980" t="inlineStr"/>
+    </row>
+    <row r="5981">
+      <c r="A5981" s="1" t="inlineStr">
+        <is>
+          <t>초등학교</t>
+        </is>
+      </c>
+      <c r="B5981" t="inlineStr"/>
+      <c r="C5981" t="inlineStr"/>
+      <c r="D5981" t="inlineStr"/>
+    </row>
+    <row r="5982">
+      <c r="A5982" s="1" t="inlineStr">
+        <is>
+          <t>지고요</t>
+        </is>
+      </c>
+      <c r="B5982" t="inlineStr"/>
+      <c r="C5982" t="inlineStr"/>
+      <c r="D5982" t="inlineStr"/>
+    </row>
+    <row r="5983">
+      <c r="A5983" s="1" t="inlineStr">
+        <is>
+          <t>병원에</t>
+        </is>
+      </c>
+      <c r="B5983" t="inlineStr"/>
+      <c r="C5983" t="inlineStr"/>
+      <c r="D5983" t="inlineStr"/>
+    </row>
+    <row r="5984">
+      <c r="A5984" s="1" t="inlineStr">
+        <is>
+          <t>화성파크</t>
+        </is>
+      </c>
+      <c r="B5984" t="inlineStr"/>
+      <c r="C5984" t="inlineStr"/>
+      <c r="D5984" t="inlineStr"/>
+    </row>
+    <row r="5985">
+      <c r="A5985" s="1" t="inlineStr">
+        <is>
+          <t>건너쪽이에요</t>
+        </is>
+      </c>
+      <c r="B5985" t="inlineStr"/>
+      <c r="C5985" t="inlineStr"/>
+      <c r="D5985" t="inlineStr"/>
+    </row>
+    <row r="5986">
+      <c r="A5986" s="1" t="inlineStr">
+        <is>
+          <t>주정차해</t>
+        </is>
+      </c>
+      <c r="B5986" t="inlineStr"/>
+      <c r="C5986" t="inlineStr"/>
+      <c r="D5986" t="inlineStr"/>
+    </row>
+    <row r="5987">
+      <c r="A5987" s="1" t="inlineStr">
+        <is>
+          <t>반월당역일</t>
+        </is>
+      </c>
+      <c r="B5987" t="inlineStr"/>
+      <c r="C5987" t="inlineStr"/>
+      <c r="D5987" t="inlineStr"/>
+    </row>
+    <row r="5988">
+      <c r="A5988" s="1" t="inlineStr">
+        <is>
+          <t>계통이었고요</t>
+        </is>
+      </c>
+      <c r="B5988" t="inlineStr"/>
+      <c r="C5988" t="inlineStr"/>
+      <c r="D5988" t="inlineStr"/>
+    </row>
+    <row r="5989">
+      <c r="A5989" s="1" t="inlineStr">
+        <is>
+          <t>매호</t>
+        </is>
+      </c>
+      <c r="B5989" t="inlineStr"/>
+      <c r="C5989" t="inlineStr"/>
+      <c r="D5989" t="inlineStr"/>
+    </row>
+    <row r="5990">
+      <c r="A5990" s="1" t="inlineStr">
+        <is>
+          <t>승차거부가</t>
+        </is>
+      </c>
+      <c r="B5990" t="inlineStr"/>
+      <c r="C5990" t="inlineStr"/>
+      <c r="D5990" t="inlineStr"/>
+    </row>
+    <row r="5991">
+      <c r="A5991" s="1" t="inlineStr">
+        <is>
+          <t>오이삼팔</t>
+        </is>
+      </c>
+      <c r="B5991" t="inlineStr"/>
+      <c r="C5991" t="inlineStr"/>
+      <c r="D5991" t="inlineStr"/>
+    </row>
+    <row r="5992">
+      <c r="A5992" s="1" t="inlineStr">
+        <is>
+          <t>번이셨고요</t>
+        </is>
+      </c>
+      <c r="B5992" t="inlineStr"/>
+      <c r="C5992" t="inlineStr"/>
+      <c r="D5992" t="inlineStr"/>
+    </row>
+    <row r="5993">
+      <c r="A5993" s="1" t="inlineStr">
+        <is>
+          <t>배가</t>
+        </is>
+      </c>
+      <c r="B5993" t="inlineStr"/>
+      <c r="C5993" t="inlineStr"/>
+      <c r="D5993" t="inlineStr"/>
+    </row>
+    <row r="5994">
+      <c r="A5994" s="1" t="inlineStr">
+        <is>
+          <t>팔공일</t>
+        </is>
+      </c>
+      <c r="B5994" t="inlineStr"/>
+      <c r="C5994" t="inlineStr"/>
+      <c r="D5994" t="inlineStr"/>
+    </row>
+    <row r="5995">
+      <c r="A5995" s="1" t="inlineStr">
+        <is>
+          <t>오오사영</t>
+        </is>
+      </c>
+      <c r="B5995" t="inlineStr"/>
+      <c r="C5995" t="inlineStr"/>
+      <c r="D5995" t="inlineStr"/>
+    </row>
+    <row r="5996">
+      <c r="A5996" s="1" t="inlineStr">
+        <is>
+          <t>보고요</t>
+        </is>
+      </c>
+      <c r="B5996" t="inlineStr"/>
+      <c r="C5996" t="inlineStr"/>
+      <c r="D5996" t="inlineStr"/>
+    </row>
+    <row r="5997">
+      <c r="A5997" s="1" t="inlineStr">
+        <is>
+          <t>담이</t>
+        </is>
+      </c>
+      <c r="B5997" t="inlineStr"/>
+      <c r="C5997" t="inlineStr"/>
+      <c r="D5997" t="inlineStr"/>
+    </row>
+    <row r="5998">
+      <c r="A5998" s="1" t="inlineStr">
+        <is>
+          <t>건이나</t>
+        </is>
+      </c>
+      <c r="B5998" t="inlineStr"/>
+      <c r="C5998" t="inlineStr"/>
+      <c r="D5998" t="inlineStr"/>
+    </row>
+    <row r="5999">
+      <c r="A5999" s="1" t="inlineStr">
+        <is>
+          <t>따로서</t>
+        </is>
+      </c>
+      <c r="B5999" t="inlineStr"/>
+      <c r="C5999" t="inlineStr"/>
+      <c r="D5999" t="inlineStr"/>
+    </row>
+    <row r="6000">
+      <c r="A6000" s="1" t="inlineStr">
+        <is>
+          <t>육백이십삼</t>
+        </is>
+      </c>
+      <c r="B6000" t="inlineStr"/>
+      <c r="C6000" t="inlineStr"/>
+      <c r="D6000" t="inlineStr"/>
+    </row>
+    <row r="6001">
+      <c r="A6001" s="1" t="inlineStr">
+        <is>
+          <t>여덟</t>
+        </is>
+      </c>
+      <c r="B6001" t="inlineStr"/>
+      <c r="C6001" t="inlineStr"/>
+      <c r="D6001" t="inlineStr"/>
+    </row>
+    <row r="6002">
+      <c r="A6002" s="1" t="inlineStr">
+        <is>
+          <t>호선</t>
+        </is>
+      </c>
+      <c r="B6002" t="inlineStr"/>
+      <c r="C6002" t="inlineStr"/>
+      <c r="D6002" t="inlineStr"/>
+    </row>
+    <row r="6003">
+      <c r="A6003" s="1" t="inlineStr">
+        <is>
+          <t>오백십팔</t>
+        </is>
+      </c>
+      <c r="B6003" t="inlineStr"/>
+      <c r="C6003" t="inlineStr"/>
+      <c r="D6003" t="inlineStr"/>
+    </row>
+    <row r="6004">
+      <c r="A6004" s="1" t="inlineStr">
+        <is>
+          <t>차입니까</t>
+        </is>
+      </c>
+      <c r="B6004" t="inlineStr"/>
+      <c r="C6004" t="inlineStr"/>
+      <c r="D6004" t="inlineStr"/>
+    </row>
+    <row r="6005">
+      <c r="A6005" s="1" t="inlineStr">
+        <is>
+          <t>심하게</t>
+        </is>
+      </c>
+      <c r="B6005" t="inlineStr"/>
+      <c r="C6005" t="inlineStr"/>
+      <c r="D6005" t="inlineStr"/>
+    </row>
+    <row r="6006">
+      <c r="A6006" s="1" t="inlineStr">
+        <is>
+          <t>팔사</t>
+        </is>
+      </c>
+      <c r="B6006" t="inlineStr"/>
+      <c r="C6006" t="inlineStr"/>
+      <c r="D6006" t="inlineStr"/>
+    </row>
+    <row r="6007">
+      <c r="A6007" s="1" t="inlineStr">
+        <is>
+          <t>삼거리인데요</t>
+        </is>
+      </c>
+      <c r="B6007" t="inlineStr"/>
+      <c r="C6007" t="inlineStr"/>
+      <c r="D6007" t="inlineStr"/>
+    </row>
+    <row r="6008">
+      <c r="A6008" s="1" t="inlineStr">
+        <is>
+          <t>아기를</t>
+        </is>
+      </c>
+      <c r="B6008" t="inlineStr"/>
+      <c r="C6008" t="inlineStr"/>
+      <c r="D6008" t="inlineStr"/>
+    </row>
+    <row r="6009">
+      <c r="A6009" s="1" t="inlineStr">
+        <is>
+          <t>맞은편에서</t>
+        </is>
+      </c>
+      <c r="B6009" t="inlineStr"/>
+      <c r="C6009" t="inlineStr"/>
+      <c r="D6009" t="inlineStr"/>
+    </row>
+    <row r="6010">
+      <c r="A6010" s="1" t="inlineStr">
+        <is>
+          <t>기다려주십시오</t>
+        </is>
+      </c>
+      <c r="B6010" t="inlineStr"/>
+      <c r="C6010" t="inlineStr"/>
+      <c r="D6010" t="inlineStr"/>
+    </row>
+    <row r="6011">
+      <c r="A6011" s="1" t="inlineStr">
+        <is>
+          <t>주말이기</t>
+        </is>
+      </c>
+      <c r="B6011" t="inlineStr"/>
+      <c r="C6011" t="inlineStr"/>
+      <c r="D6011" t="inlineStr"/>
+    </row>
+    <row r="6012">
+      <c r="A6012" s="1" t="inlineStr">
+        <is>
+          <t>환불받으실</t>
+        </is>
+      </c>
+      <c r="B6012" t="inlineStr"/>
+      <c r="C6012" t="inlineStr"/>
+      <c r="D6012" t="inlineStr"/>
+    </row>
+    <row r="6013">
+      <c r="A6013" s="1" t="inlineStr">
+        <is>
+          <t>연락드려도</t>
+        </is>
+      </c>
+      <c r="B6013" t="inlineStr"/>
+      <c r="C6013" t="inlineStr"/>
+      <c r="D6013" t="inlineStr"/>
+    </row>
+    <row r="6014">
+      <c r="A6014" s="1" t="inlineStr">
+        <is>
+          <t>행사</t>
+        </is>
+      </c>
+      <c r="B6014" t="inlineStr"/>
+      <c r="C6014" t="inlineStr"/>
+      <c r="D6014" t="inlineStr"/>
+    </row>
+    <row r="6015">
+      <c r="A6015" s="1" t="inlineStr">
+        <is>
+          <t>칠사오</t>
+        </is>
+      </c>
+      <c r="B6015" t="inlineStr"/>
+      <c r="C6015" t="inlineStr"/>
+      <c r="D6015" t="inlineStr"/>
+    </row>
+    <row r="6016">
+      <c r="A6016" s="1" t="inlineStr">
+        <is>
+          <t>공항</t>
+        </is>
+      </c>
+      <c r="B6016" t="inlineStr"/>
+      <c r="C6016" t="inlineStr"/>
+      <c r="D6016" t="inlineStr"/>
+    </row>
+    <row r="6017">
+      <c r="A6017" s="1" t="inlineStr">
+        <is>
+          <t>삼사십</t>
+        </is>
+      </c>
+      <c r="B6017" t="inlineStr"/>
+      <c r="C6017" t="inlineStr"/>
+      <c r="D6017" t="inlineStr"/>
+    </row>
+    <row r="6018">
+      <c r="A6018" s="1" t="inlineStr">
+        <is>
+          <t>공일</t>
+        </is>
+      </c>
+      <c r="B6018" t="inlineStr"/>
+      <c r="C6018" t="inlineStr"/>
+      <c r="D6018" t="inlineStr"/>
+    </row>
+    <row r="6019">
+      <c r="A6019" s="1" t="inlineStr">
+        <is>
+          <t>불법주차해가지고요</t>
+        </is>
+      </c>
+      <c r="B6019" t="inlineStr"/>
+      <c r="C6019" t="inlineStr"/>
+      <c r="D6019" t="inlineStr"/>
+    </row>
+    <row r="6020">
+      <c r="A6020" s="1" t="inlineStr">
+        <is>
+          <t>거리</t>
+        </is>
+      </c>
+      <c r="B6020" t="inlineStr"/>
+      <c r="C6020" t="inlineStr"/>
+      <c r="D6020" t="inlineStr"/>
+    </row>
+    <row r="6021">
+      <c r="A6021" s="1" t="inlineStr">
+        <is>
+          <t>칠일</t>
+        </is>
+      </c>
+      <c r="B6021" t="inlineStr"/>
+      <c r="C6021" t="inlineStr"/>
+      <c r="D6021" t="inlineStr"/>
+    </row>
+    <row r="6022">
+      <c r="A6022" s="1" t="inlineStr">
+        <is>
+          <t>보상</t>
+        </is>
+      </c>
+      <c r="B6022" t="inlineStr"/>
+      <c r="C6022" t="inlineStr"/>
+      <c r="D6022" t="inlineStr"/>
+    </row>
+    <row r="6023">
+      <c r="A6023" s="1" t="inlineStr">
+        <is>
+          <t>부서에서</t>
+        </is>
+      </c>
+      <c r="B6023" t="inlineStr"/>
+      <c r="C6023" t="inlineStr"/>
+      <c r="D6023" t="inlineStr"/>
+    </row>
+    <row r="6024">
+      <c r="A6024" s="1" t="inlineStr">
+        <is>
+          <t>시경에</t>
+        </is>
+      </c>
+      <c r="B6024" t="inlineStr"/>
+      <c r="C6024" t="inlineStr"/>
+      <c r="D6024" t="inlineStr"/>
+    </row>
+    <row r="6025">
+      <c r="A6025" s="1" t="inlineStr">
+        <is>
+          <t>통로</t>
+        </is>
+      </c>
+      <c r="B6025" t="inlineStr"/>
+      <c r="C6025" t="inlineStr"/>
+      <c r="D6025" t="inlineStr"/>
+    </row>
+    <row r="6026">
+      <c r="A6026" s="1" t="inlineStr">
+        <is>
+          <t>주변</t>
+        </is>
+      </c>
+      <c r="B6026" t="inlineStr"/>
+      <c r="C6026" t="inlineStr"/>
+      <c r="D6026" t="inlineStr"/>
+    </row>
+    <row r="6027">
+      <c r="A6027" s="1" t="inlineStr">
+        <is>
+          <t>되시기</t>
+        </is>
+      </c>
+      <c r="B6027" t="inlineStr"/>
+      <c r="C6027" t="inlineStr"/>
+      <c r="D6027" t="inlineStr"/>
+    </row>
+    <row r="6028">
+      <c r="A6028" s="1" t="inlineStr">
+        <is>
+          <t>번입니다</t>
+        </is>
+      </c>
+      <c r="B6028" t="inlineStr"/>
+      <c r="C6028" t="inlineStr"/>
+      <c r="D6028" t="inlineStr"/>
+    </row>
+    <row r="6029">
+      <c r="A6029" s="1" t="inlineStr">
+        <is>
+          <t>아마에</t>
+        </is>
+      </c>
+      <c r="B6029" t="inlineStr"/>
+      <c r="C6029" t="inlineStr"/>
+      <c r="D6029" t="inlineStr"/>
+    </row>
+    <row r="6030">
+      <c r="A6030" s="1" t="inlineStr">
+        <is>
+          <t>운수</t>
+        </is>
+      </c>
+      <c r="B6030" t="inlineStr"/>
+      <c r="C6030" t="inlineStr"/>
+      <c r="D6030" t="inlineStr"/>
+    </row>
+    <row r="6031">
+      <c r="A6031" s="1" t="inlineStr">
+        <is>
+          <t>때쯤에서</t>
+        </is>
+      </c>
+      <c r="B6031" t="inlineStr"/>
+      <c r="C6031" t="inlineStr"/>
+      <c r="D6031" t="inlineStr"/>
+    </row>
+    <row r="6032">
+      <c r="A6032" s="1" t="inlineStr">
+        <is>
+          <t>주더라고요</t>
+        </is>
+      </c>
+      <c r="B6032" t="inlineStr"/>
+      <c r="C6032" t="inlineStr"/>
+      <c r="D6032" t="inlineStr"/>
+    </row>
+    <row r="6033">
+      <c r="A6033" s="1" t="inlineStr">
+        <is>
+          <t>일일부터</t>
+        </is>
+      </c>
+      <c r="B6033" t="inlineStr"/>
+      <c r="C6033" t="inlineStr"/>
+      <c r="D6033" t="inlineStr"/>
+    </row>
+    <row r="6034">
+      <c r="A6034" s="1" t="inlineStr">
+        <is>
+          <t>대서요</t>
+        </is>
+      </c>
+      <c r="B6034" t="inlineStr"/>
+      <c r="C6034" t="inlineStr"/>
+      <c r="D6034" t="inlineStr"/>
+    </row>
+    <row r="6035">
+      <c r="A6035" s="1" t="inlineStr">
+        <is>
+          <t>팔당</t>
+        </is>
+      </c>
+      <c r="B6035" t="inlineStr"/>
+      <c r="C6035" t="inlineStr"/>
+      <c r="D6035" t="inlineStr"/>
+    </row>
+    <row r="6036">
+      <c r="A6036" s="1" t="inlineStr">
+        <is>
+          <t>내리라</t>
+        </is>
+      </c>
+      <c r="B6036" t="inlineStr"/>
+      <c r="C6036" t="inlineStr"/>
+      <c r="D6036" t="inlineStr"/>
+    </row>
+    <row r="6037">
+      <c r="A6037" s="1" t="inlineStr">
+        <is>
+          <t>지하도요</t>
+        </is>
+      </c>
+      <c r="B6037" t="inlineStr"/>
+      <c r="C6037" t="inlineStr"/>
+      <c r="D6037" t="inlineStr"/>
+    </row>
+    <row r="6038">
+      <c r="A6038" s="1" t="inlineStr">
+        <is>
+          <t>확인되는</t>
+        </is>
+      </c>
+      <c r="B6038" t="inlineStr"/>
+      <c r="C6038" t="inlineStr"/>
+      <c r="D6038" t="inlineStr"/>
+    </row>
+    <row r="6039">
+      <c r="A6039" s="1" t="inlineStr">
+        <is>
+          <t>팔백사십</t>
+        </is>
+      </c>
+      <c r="B6039" t="inlineStr"/>
+      <c r="C6039" t="inlineStr"/>
+      <c r="D6039" t="inlineStr"/>
+    </row>
+    <row r="6040">
+      <c r="A6040" s="1" t="inlineStr">
+        <is>
+          <t>온</t>
+        </is>
+      </c>
+      <c r="B6040" t="inlineStr"/>
+      <c r="C6040" t="inlineStr"/>
+      <c r="D6040" t="inlineStr"/>
+    </row>
+    <row r="6041">
+      <c r="A6041" s="1" t="inlineStr">
+        <is>
+          <t>보셨고요</t>
+        </is>
+      </c>
+      <c r="B6041" t="inlineStr"/>
+      <c r="C6041" t="inlineStr"/>
+      <c r="D6041" t="inlineStr"/>
+    </row>
+    <row r="6042">
+      <c r="A6042" s="1" t="inlineStr">
+        <is>
+          <t>신신</t>
+        </is>
+      </c>
+      <c r="B6042" t="inlineStr"/>
+      <c r="C6042" t="inlineStr"/>
+      <c r="D6042" t="inlineStr"/>
+    </row>
+    <row r="6043">
+      <c r="A6043" s="1" t="inlineStr">
+        <is>
+          <t>올리라</t>
+        </is>
+      </c>
+      <c r="B6043" t="inlineStr"/>
+      <c r="C6043" t="inlineStr"/>
+      <c r="D6043" t="inlineStr"/>
+    </row>
+    <row r="6044">
+      <c r="A6044" s="1" t="inlineStr">
+        <is>
+          <t>말씀이시고요</t>
+        </is>
+      </c>
+      <c r="B6044" t="inlineStr"/>
+      <c r="C6044" t="inlineStr"/>
+      <c r="D6044" t="inlineStr"/>
+    </row>
+    <row r="6045">
+      <c r="A6045" s="1" t="inlineStr">
+        <is>
+          <t>아기들은</t>
+        </is>
+      </c>
+      <c r="B6045" t="inlineStr"/>
+      <c r="C6045" t="inlineStr"/>
+      <c r="D6045" t="inlineStr"/>
+    </row>
+    <row r="6046">
+      <c r="A6046" s="1" t="inlineStr">
+        <is>
+          <t>어제저녁</t>
+        </is>
+      </c>
+      <c r="B6046" t="inlineStr"/>
+      <c r="C6046" t="inlineStr"/>
+      <c r="D6046" t="inlineStr"/>
+    </row>
+    <row r="6047">
+      <c r="A6047" s="1" t="inlineStr">
+        <is>
+          <t>주거지려고</t>
+        </is>
+      </c>
+      <c r="B6047" t="inlineStr"/>
+      <c r="C6047" t="inlineStr"/>
+      <c r="D6047" t="inlineStr"/>
+    </row>
+    <row r="6048">
+      <c r="A6048" s="1" t="inlineStr">
+        <is>
+          <t>말고요</t>
+        </is>
+      </c>
+      <c r="B6048" t="inlineStr"/>
+      <c r="C6048" t="inlineStr"/>
+      <c r="D6048" t="inlineStr"/>
+    </row>
+    <row r="6049">
+      <c r="A6049" s="1" t="inlineStr">
+        <is>
+          <t>조회에서</t>
+        </is>
+      </c>
+      <c r="B6049" t="inlineStr"/>
+      <c r="C6049" t="inlineStr"/>
+      <c r="D6049" t="inlineStr"/>
+    </row>
+    <row r="6050">
+      <c r="A6050" s="1" t="inlineStr">
+        <is>
+          <t>공단에</t>
+        </is>
+      </c>
+      <c r="B6050" t="inlineStr"/>
+      <c r="C6050" t="inlineStr"/>
+      <c r="D6050" t="inlineStr"/>
+    </row>
+    <row r="6051">
+      <c r="A6051" s="1" t="inlineStr">
+        <is>
+          <t>택시조합</t>
+        </is>
+      </c>
+      <c r="B6051" t="inlineStr"/>
+      <c r="C6051" t="inlineStr"/>
+      <c r="D6051" t="inlineStr"/>
+    </row>
+    <row r="6052">
+      <c r="A6052" s="1" t="inlineStr">
+        <is>
+          <t>열정</t>
+        </is>
+      </c>
+      <c r="B6052" t="inlineStr"/>
+      <c r="C6052" t="inlineStr"/>
+      <c r="D6052" t="inlineStr"/>
+    </row>
+    <row r="6053">
+      <c r="A6053" s="1" t="inlineStr">
+        <is>
+          <t>공공이</t>
+        </is>
+      </c>
+      <c r="B6053" t="inlineStr"/>
+      <c r="C6053" t="inlineStr"/>
+      <c r="D6053" t="inlineStr"/>
+    </row>
+    <row r="6054">
+      <c r="A6054" s="1" t="inlineStr">
+        <is>
+          <t>칸</t>
+        </is>
+      </c>
+      <c r="B6054" t="inlineStr"/>
+      <c r="C6054" t="inlineStr"/>
+      <c r="D6054" t="inlineStr"/>
+    </row>
+    <row r="6055">
+      <c r="A6055" s="1" t="inlineStr">
+        <is>
+          <t>이력</t>
+        </is>
+      </c>
+      <c r="B6055" t="inlineStr"/>
+      <c r="C6055" t="inlineStr"/>
+      <c r="D6055" t="inlineStr"/>
+    </row>
+    <row r="6056">
+      <c r="A6056" s="1" t="inlineStr">
+        <is>
+          <t>명</t>
+        </is>
+      </c>
+      <c r="B6056" t="inlineStr"/>
+      <c r="C6056" t="inlineStr"/>
+      <c r="D6056" t="inlineStr"/>
+    </row>
+    <row r="6057">
+      <c r="A6057" s="1" t="inlineStr">
+        <is>
+          <t>서기</t>
+        </is>
+      </c>
+      <c r="B6057" t="inlineStr"/>
+      <c r="C6057" t="inlineStr"/>
+      <c r="D6057" t="inlineStr"/>
+    </row>
+    <row r="6058">
+      <c r="A6058" s="1" t="inlineStr">
+        <is>
+          <t>정도만</t>
+        </is>
+      </c>
+      <c r="B6058" t="inlineStr"/>
+      <c r="C6058" t="inlineStr"/>
+      <c r="D6058" t="inlineStr"/>
+    </row>
+    <row r="6059">
+      <c r="A6059" s="1" t="inlineStr">
+        <is>
+          <t>와요</t>
+        </is>
+      </c>
+      <c r="B6059" t="inlineStr"/>
+      <c r="C6059" t="inlineStr"/>
+      <c r="D6059" t="inlineStr"/>
+    </row>
+    <row r="6060">
+      <c r="A6060" s="1" t="inlineStr">
+        <is>
+          <t>삼육사</t>
+        </is>
+      </c>
+      <c r="B6060" t="inlineStr"/>
+      <c r="C6060" t="inlineStr"/>
+      <c r="D6060" t="inlineStr"/>
+    </row>
+    <row r="6061">
+      <c r="A6061" s="1" t="inlineStr">
+        <is>
+          <t>지하도이라고</t>
+        </is>
+      </c>
+      <c r="B6061" t="inlineStr"/>
+      <c r="C6061" t="inlineStr"/>
+      <c r="D6061" t="inlineStr"/>
+    </row>
+    <row r="6062">
+      <c r="A6062" s="1" t="inlineStr">
+        <is>
+          <t>똑같아요</t>
+        </is>
+      </c>
+      <c r="B6062" t="inlineStr"/>
+      <c r="C6062" t="inlineStr"/>
+      <c r="D6062" t="inlineStr"/>
+    </row>
+    <row r="6063">
+      <c r="A6063" s="1" t="inlineStr">
+        <is>
+          <t>삼국</t>
+        </is>
+      </c>
+      <c r="B6063" t="inlineStr"/>
+      <c r="C6063" t="inlineStr"/>
+      <c r="D6063" t="inlineStr"/>
+    </row>
+    <row r="6064">
+      <c r="A6064" s="1" t="inlineStr">
+        <is>
+          <t>운전기사고요</t>
+        </is>
+      </c>
+      <c r="B6064" t="inlineStr"/>
+      <c r="C6064" t="inlineStr"/>
+      <c r="D6064" t="inlineStr"/>
+    </row>
+    <row r="6065">
+      <c r="A6065" s="1" t="inlineStr">
+        <is>
+          <t>단지에서</t>
+        </is>
+      </c>
+      <c r="B6065" t="inlineStr"/>
+      <c r="C6065" t="inlineStr"/>
+      <c r="D6065" t="inlineStr"/>
+    </row>
+    <row r="6066">
+      <c r="A6066" s="1" t="inlineStr">
+        <is>
+          <t>자데요</t>
+        </is>
+      </c>
+      <c r="B6066" t="inlineStr"/>
+      <c r="C6066" t="inlineStr"/>
+      <c r="D6066" t="inlineStr"/>
+    </row>
+    <row r="6067">
+      <c r="A6067" s="1" t="inlineStr">
+        <is>
+          <t>경화</t>
+        </is>
+      </c>
+      <c r="B6067" t="inlineStr"/>
+      <c r="C6067" t="inlineStr"/>
+      <c r="D6067" t="inlineStr"/>
+    </row>
+    <row r="6068">
+      <c r="A6068" s="1" t="inlineStr">
+        <is>
+          <t>주시기가</t>
+        </is>
+      </c>
+      <c r="B6068" t="inlineStr"/>
+      <c r="C6068" t="inlineStr"/>
+      <c r="D6068" t="inlineStr"/>
+    </row>
+    <row r="6069">
+      <c r="A6069" s="1" t="inlineStr">
+        <is>
+          <t>밀려있길래</t>
+        </is>
+      </c>
+      <c r="B6069" t="inlineStr"/>
+      <c r="C6069" t="inlineStr"/>
+      <c r="D6069" t="inlineStr"/>
+    </row>
+    <row r="6070">
+      <c r="A6070" s="1" t="inlineStr">
+        <is>
+          <t>필요</t>
+        </is>
+      </c>
+      <c r="B6070" t="inlineStr"/>
+      <c r="C6070" t="inlineStr"/>
+      <c r="D6070" t="inlineStr"/>
+    </row>
+    <row r="6071">
+      <c r="A6071" s="1" t="inlineStr">
+        <is>
+          <t>북부동</t>
+        </is>
+      </c>
+      <c r="B6071" t="inlineStr"/>
+      <c r="C6071" t="inlineStr"/>
+      <c r="D6071" t="inlineStr"/>
+    </row>
+    <row r="6072">
+      <c r="A6072" s="1" t="inlineStr">
+        <is>
+          <t>달성</t>
+        </is>
+      </c>
+      <c r="B6072" t="inlineStr"/>
+      <c r="C6072" t="inlineStr"/>
+      <c r="D6072" t="inlineStr"/>
+    </row>
+    <row r="6073">
+      <c r="A6073" s="1" t="inlineStr">
+        <is>
+          <t>아홉시쯤에</t>
+        </is>
+      </c>
+      <c r="B6073" t="inlineStr"/>
+      <c r="C6073" t="inlineStr"/>
+      <c r="D6073" t="inlineStr"/>
+    </row>
+    <row r="6074">
+      <c r="A6074" s="1" t="inlineStr">
+        <is>
+          <t>번호하고</t>
+        </is>
+      </c>
+      <c r="B6074" t="inlineStr"/>
+      <c r="C6074" t="inlineStr"/>
+      <c r="D6074" t="inlineStr"/>
+    </row>
+    <row r="6075">
+      <c r="A6075" s="1" t="inlineStr">
+        <is>
+          <t>안돼서요</t>
+        </is>
+      </c>
+      <c r="B6075" t="inlineStr"/>
+      <c r="C6075" t="inlineStr"/>
+      <c r="D6075" t="inlineStr"/>
+    </row>
+    <row r="6076">
+      <c r="A6076" s="1" t="inlineStr">
+        <is>
+          <t>육백사십구</t>
+        </is>
+      </c>
+      <c r="B6076" t="inlineStr"/>
+      <c r="C6076" t="inlineStr"/>
+      <c r="D6076" t="inlineStr"/>
+    </row>
+    <row r="6077">
+      <c r="A6077" s="1" t="inlineStr">
+        <is>
+          <t>청구타운</t>
+        </is>
+      </c>
+      <c r="B6077" t="inlineStr"/>
+      <c r="C6077" t="inlineStr"/>
+      <c r="D6077" t="inlineStr"/>
+    </row>
+    <row r="6078">
+      <c r="A6078" s="1" t="inlineStr">
+        <is>
+          <t>고구마</t>
+        </is>
+      </c>
+      <c r="B6078" t="inlineStr"/>
+      <c r="C6078" t="inlineStr"/>
+      <c r="D6078" t="inlineStr"/>
+    </row>
+    <row r="6079">
+      <c r="A6079" s="1" t="inlineStr">
+        <is>
+          <t>플라자</t>
+        </is>
+      </c>
+      <c r="B6079" t="inlineStr"/>
+      <c r="C6079" t="inlineStr"/>
+      <c r="D6079" t="inlineStr"/>
+    </row>
+    <row r="6080">
+      <c r="A6080" s="1" t="inlineStr">
+        <is>
+          <t>엔씨</t>
+        </is>
+      </c>
+      <c r="B6080" t="inlineStr"/>
+      <c r="C6080" t="inlineStr"/>
+      <c r="D6080" t="inlineStr"/>
+    </row>
+    <row r="6081">
+      <c r="A6081" s="1" t="inlineStr">
+        <is>
+          <t>개인택시조합연락처와</t>
+        </is>
+      </c>
+      <c r="B6081" t="inlineStr"/>
+      <c r="C6081" t="inlineStr"/>
+      <c r="D6081" t="inlineStr"/>
+    </row>
+    <row r="6082">
+      <c r="A6082" s="1" t="inlineStr">
+        <is>
+          <t>교통이라고</t>
+        </is>
+      </c>
+      <c r="B6082" t="inlineStr"/>
+      <c r="C6082" t="inlineStr"/>
+      <c r="D6082" t="inlineStr"/>
+    </row>
+    <row r="6083">
+      <c r="A6083" s="1" t="inlineStr">
+        <is>
+          <t>교통으로</t>
+        </is>
+      </c>
+      <c r="B6083" t="inlineStr"/>
+      <c r="C6083" t="inlineStr"/>
+      <c r="D6083" t="inlineStr"/>
+    </row>
+    <row r="6084">
+      <c r="A6084" s="1" t="inlineStr">
+        <is>
+          <t>주신다고</t>
+        </is>
+      </c>
+      <c r="B6084" t="inlineStr"/>
+      <c r="C6084" t="inlineStr"/>
+      <c r="D6084" t="inlineStr"/>
+    </row>
+    <row r="6085">
+      <c r="A6085" s="1" t="inlineStr">
+        <is>
+          <t>서면</t>
+        </is>
+      </c>
+      <c r="B6085" t="inlineStr"/>
+      <c r="C6085" t="inlineStr"/>
+      <c r="D6085" t="inlineStr"/>
+    </row>
+    <row r="6086">
+      <c r="A6086" s="1" t="inlineStr">
+        <is>
+          <t>빠져나왔는데</t>
+        </is>
+      </c>
+      <c r="B6086" t="inlineStr"/>
+      <c r="C6086" t="inlineStr"/>
+      <c r="D6086" t="inlineStr"/>
+    </row>
+    <row r="6087">
+      <c r="A6087" s="1" t="inlineStr">
+        <is>
+          <t>해진</t>
+        </is>
+      </c>
+      <c r="B6087" t="inlineStr"/>
+      <c r="C6087" t="inlineStr"/>
+      <c r="D6087" t="inlineStr"/>
+    </row>
+    <row r="6088">
+      <c r="A6088" s="1" t="inlineStr">
+        <is>
+          <t>있는가</t>
+        </is>
+      </c>
+      <c r="B6088" t="inlineStr"/>
+      <c r="C6088" t="inlineStr"/>
+      <c r="D6088" t="inlineStr"/>
+    </row>
+    <row r="6089">
+      <c r="A6089" s="1" t="inlineStr">
+        <is>
+          <t>언제쯤이셨나요</t>
+        </is>
+      </c>
+      <c r="B6089" t="inlineStr"/>
+      <c r="C6089" t="inlineStr"/>
+      <c r="D6089" t="inlineStr"/>
+    </row>
+    <row r="6090">
+      <c r="A6090" s="1" t="inlineStr">
+        <is>
+          <t>적혀있거든요</t>
+        </is>
+      </c>
+      <c r="B6090" t="inlineStr"/>
+      <c r="C6090" t="inlineStr"/>
+      <c r="D6090" t="inlineStr"/>
+    </row>
+    <row r="6091">
+      <c r="A6091" s="1" t="inlineStr">
+        <is>
+          <t>오백오십오</t>
+        </is>
+      </c>
+      <c r="B6091" t="inlineStr"/>
+      <c r="C6091" t="inlineStr"/>
+      <c r="D6091" t="inlineStr"/>
+    </row>
+    <row r="6092">
+      <c r="A6092" s="1" t="inlineStr">
+        <is>
+          <t>드림요</t>
+        </is>
+      </c>
+      <c r="B6092" t="inlineStr"/>
+      <c r="C6092" t="inlineStr"/>
+      <c r="D6092" t="inlineStr"/>
+    </row>
+    <row r="6093">
+      <c r="A6093" s="1" t="inlineStr">
+        <is>
+          <t>두산동</t>
+        </is>
+      </c>
+      <c r="B6093" t="inlineStr"/>
+      <c r="C6093" t="inlineStr"/>
+      <c r="D6093" t="inlineStr"/>
+    </row>
+    <row r="6094">
+      <c r="A6094" s="1" t="inlineStr">
+        <is>
+          <t>나가더라고요</t>
+        </is>
+      </c>
+      <c r="B6094" t="inlineStr"/>
+      <c r="C6094" t="inlineStr"/>
+      <c r="D6094" t="inlineStr"/>
+    </row>
+    <row r="6095">
+      <c r="A6095" s="1" t="inlineStr">
+        <is>
+          <t>자진신고해서</t>
+        </is>
+      </c>
+      <c r="B6095" t="inlineStr"/>
+      <c r="C6095" t="inlineStr"/>
+      <c r="D6095" t="inlineStr"/>
+    </row>
+    <row r="6096">
+      <c r="A6096" s="1" t="inlineStr">
+        <is>
+          <t>되실까</t>
+        </is>
+      </c>
+      <c r="B6096" t="inlineStr"/>
+      <c r="C6096" t="inlineStr"/>
+      <c r="D6096" t="inlineStr"/>
+    </row>
+    <row r="6097">
+      <c r="A6097" s="1" t="inlineStr">
+        <is>
+          <t>센터로</t>
+        </is>
+      </c>
+      <c r="B6097" t="inlineStr"/>
+      <c r="C6097" t="inlineStr"/>
+      <c r="D6097" t="inlineStr"/>
+    </row>
+    <row r="6098">
+      <c r="A6098" s="1" t="inlineStr">
+        <is>
+          <t>준수할</t>
+        </is>
+      </c>
+      <c r="B6098" t="inlineStr"/>
+      <c r="C6098" t="inlineStr"/>
+      <c r="D6098" t="inlineStr"/>
+    </row>
+    <row r="6099">
+      <c r="A6099" s="1" t="inlineStr">
+        <is>
+          <t>그쪽이</t>
+        </is>
+      </c>
+      <c r="B6099" t="inlineStr"/>
+      <c r="C6099" t="inlineStr"/>
+      <c r="D6099" t="inlineStr"/>
+    </row>
+    <row r="6100">
+      <c r="A6100" s="1" t="inlineStr">
+        <is>
+          <t>다섯시쯤</t>
+        </is>
+      </c>
+      <c r="B6100" t="inlineStr"/>
+      <c r="C6100" t="inlineStr"/>
+      <c r="D6100" t="inlineStr"/>
+    </row>
+    <row r="6101">
+      <c r="A6101" s="1" t="inlineStr">
+        <is>
+          <t>개산</t>
+        </is>
+      </c>
+      <c r="B6101" t="inlineStr"/>
+      <c r="C6101" t="inlineStr"/>
+      <c r="D6101" t="inlineStr"/>
+    </row>
+    <row r="6102">
+      <c r="A6102" s="1" t="inlineStr">
+        <is>
+          <t>육백십사</t>
+        </is>
+      </c>
+      <c r="B6102" t="inlineStr"/>
+      <c r="C6102" t="inlineStr"/>
+      <c r="D6102" t="inlineStr"/>
+    </row>
+    <row r="6103">
+      <c r="A6103" s="1" t="inlineStr">
+        <is>
+          <t>번이고요</t>
+        </is>
+      </c>
+      <c r="B6103" t="inlineStr"/>
+      <c r="C6103" t="inlineStr"/>
+      <c r="D6103" t="inlineStr"/>
+    </row>
+    <row r="6104">
+      <c r="A6104" s="1" t="inlineStr">
+        <is>
+          <t>캤는데</t>
+        </is>
+      </c>
+      <c r="B6104" t="inlineStr"/>
+      <c r="C6104" t="inlineStr"/>
+      <c r="D6104" t="inlineStr"/>
+    </row>
+    <row r="6105">
+      <c r="A6105" s="1" t="inlineStr">
+        <is>
+          <t>부서</t>
+        </is>
+      </c>
+      <c r="B6105" t="inlineStr"/>
+      <c r="C6105" t="inlineStr"/>
+      <c r="D6105" t="inlineStr"/>
+    </row>
+    <row r="6106">
+      <c r="A6106" s="1" t="inlineStr">
+        <is>
+          <t>중으로</t>
+        </is>
+      </c>
+      <c r="B6106" t="inlineStr"/>
+      <c r="C6106" t="inlineStr"/>
+      <c r="D6106" t="inlineStr"/>
+    </row>
+    <row r="6107">
+      <c r="A6107" s="1" t="inlineStr">
+        <is>
+          <t>경산시</t>
+        </is>
+      </c>
+      <c r="B6107" t="inlineStr"/>
+      <c r="C6107" t="inlineStr"/>
+      <c r="D6107" t="inlineStr"/>
+    </row>
+    <row r="6108">
+      <c r="A6108" s="1" t="inlineStr">
+        <is>
+          <t>백천</t>
+        </is>
+      </c>
+      <c r="B6108" t="inlineStr"/>
+      <c r="C6108" t="inlineStr"/>
+      <c r="D6108" t="inlineStr"/>
+    </row>
+    <row r="6109">
+      <c r="A6109" s="1" t="inlineStr">
+        <is>
+          <t>소방서</t>
+        </is>
+      </c>
+      <c r="B6109" t="inlineStr"/>
+      <c r="C6109" t="inlineStr"/>
+      <c r="D6109" t="inlineStr"/>
+    </row>
+    <row r="6110">
+      <c r="A6110" s="1" t="inlineStr">
+        <is>
+          <t>대공원역일</t>
+        </is>
+      </c>
+      <c r="B6110" t="inlineStr"/>
+      <c r="C6110" t="inlineStr"/>
+      <c r="D6110" t="inlineStr"/>
+    </row>
+    <row r="6111">
+      <c r="A6111" s="1" t="inlineStr">
+        <is>
+          <t>도론데</t>
+        </is>
+      </c>
+      <c r="B6111" t="inlineStr"/>
+      <c r="C6111" t="inlineStr"/>
+      <c r="D6111" t="inlineStr"/>
+    </row>
+    <row r="6112">
+      <c r="A6112" s="1" t="inlineStr">
+        <is>
+          <t>하차하셨고요</t>
+        </is>
+      </c>
+      <c r="B6112" t="inlineStr"/>
+      <c r="C6112" t="inlineStr"/>
+      <c r="D6112" t="inlineStr"/>
+    </row>
+    <row r="6113">
+      <c r="A6113" s="1" t="inlineStr">
+        <is>
+          <t>이팔육둘</t>
+        </is>
+      </c>
+      <c r="B6113" t="inlineStr"/>
+      <c r="C6113" t="inlineStr"/>
+      <c r="D6113" t="inlineStr"/>
+    </row>
+    <row r="6114">
+      <c r="A6114" s="1" t="inlineStr">
+        <is>
+          <t>지정</t>
+        </is>
+      </c>
+      <c r="B6114" t="inlineStr"/>
+      <c r="C6114" t="inlineStr"/>
+      <c r="D6114" t="inlineStr"/>
+    </row>
+    <row r="6115">
+      <c r="A6115" s="1" t="inlineStr">
+        <is>
+          <t>접수하려고</t>
+        </is>
+      </c>
+      <c r="B6115" t="inlineStr"/>
+      <c r="C6115" t="inlineStr"/>
+      <c r="D6115" t="inlineStr"/>
+    </row>
+    <row r="6116">
+      <c r="A6116" s="1" t="inlineStr">
+        <is>
+          <t>아셈</t>
+        </is>
+      </c>
+      <c r="B6116" t="inlineStr"/>
+      <c r="C6116" t="inlineStr"/>
+      <c r="D6116" t="inlineStr"/>
+    </row>
+    <row r="6117">
+      <c r="A6117" s="1" t="inlineStr">
+        <is>
+          <t>자체는</t>
+        </is>
+      </c>
+      <c r="B6117" t="inlineStr"/>
+      <c r="C6117" t="inlineStr"/>
+      <c r="D6117" t="inlineStr"/>
+    </row>
+    <row r="6118">
+      <c r="A6118" s="1" t="inlineStr">
+        <is>
+          <t>상신</t>
+        </is>
+      </c>
+      <c r="B6118" t="inlineStr"/>
+      <c r="C6118" t="inlineStr"/>
+      <c r="D6118" t="inlineStr"/>
+    </row>
+    <row r="6119">
+      <c r="A6119" s="1" t="inlineStr">
+        <is>
+          <t>좌회전하면</t>
+        </is>
+      </c>
+      <c r="B6119" t="inlineStr"/>
+      <c r="C6119" t="inlineStr"/>
+      <c r="D6119" t="inlineStr"/>
+    </row>
+    <row r="6120">
+      <c r="A6120" s="1" t="inlineStr">
+        <is>
+          <t>측이</t>
+        </is>
+      </c>
+      <c r="B6120" t="inlineStr"/>
+      <c r="C6120" t="inlineStr"/>
+      <c r="D6120" t="inlineStr"/>
+    </row>
+    <row r="6121">
+      <c r="A6121" s="1" t="inlineStr">
+        <is>
+          <t>십사일</t>
+        </is>
+      </c>
+      <c r="B6121" t="inlineStr"/>
+      <c r="C6121" t="inlineStr"/>
+      <c r="D6121" t="inlineStr"/>
+    </row>
+    <row r="6122">
+      <c r="A6122" s="1" t="inlineStr">
+        <is>
+          <t>냈다고</t>
+        </is>
+      </c>
+      <c r="B6122" t="inlineStr"/>
+      <c r="C6122" t="inlineStr"/>
+      <c r="D6122" t="inlineStr"/>
+    </row>
+    <row r="6123">
+      <c r="A6123" s="1" t="inlineStr">
+        <is>
+          <t>실려하고</t>
+        </is>
+      </c>
+      <c r="B6123" t="inlineStr"/>
+      <c r="C6123" t="inlineStr"/>
+      <c r="D6123" t="inlineStr"/>
+    </row>
+    <row r="6124">
+      <c r="A6124" s="1" t="inlineStr">
+        <is>
+          <t>삼구</t>
+        </is>
+      </c>
+      <c r="B6124" t="inlineStr"/>
+      <c r="C6124" t="inlineStr"/>
+      <c r="D6124" t="inlineStr"/>
+    </row>
+    <row r="6125">
+      <c r="A6125" s="1" t="inlineStr">
+        <is>
+          <t>물어보려고요</t>
+        </is>
+      </c>
+      <c r="B6125" t="inlineStr"/>
+      <c r="C6125" t="inlineStr"/>
+      <c r="D6125" t="inlineStr"/>
+    </row>
+    <row r="6126">
+      <c r="A6126" s="1" t="inlineStr">
+        <is>
+          <t>확인하시려면</t>
+        </is>
+      </c>
+      <c r="B6126" t="inlineStr"/>
+      <c r="C6126" t="inlineStr"/>
+      <c r="D6126" t="inlineStr"/>
+    </row>
+    <row r="6127">
+      <c r="A6127" s="1" t="inlineStr">
+        <is>
+          <t>자</t>
+        </is>
+      </c>
+      <c r="B6127" t="inlineStr"/>
+      <c r="C6127" t="inlineStr"/>
+      <c r="D6127" t="inlineStr"/>
+    </row>
+    <row r="6128">
+      <c r="A6128" s="1" t="inlineStr">
+        <is>
+          <t>교통인가</t>
+        </is>
+      </c>
+      <c r="B6128" t="inlineStr"/>
+      <c r="C6128" t="inlineStr"/>
+      <c r="D6128" t="inlineStr"/>
+    </row>
+    <row r="6129">
+      <c r="A6129" s="1" t="inlineStr">
+        <is>
+          <t>셔야는데요</t>
+        </is>
+      </c>
+      <c r="B6129" t="inlineStr"/>
+      <c r="C6129" t="inlineStr"/>
+      <c r="D6129" t="inlineStr"/>
+    </row>
+    <row r="6130">
+      <c r="A6130" s="1" t="inlineStr">
+        <is>
+          <t>가예</t>
+        </is>
+      </c>
+      <c r="B6130" t="inlineStr"/>
+      <c r="C6130" t="inlineStr"/>
+      <c r="D6130" t="inlineStr"/>
+    </row>
+    <row r="6131">
+      <c r="A6131" s="1" t="inlineStr">
+        <is>
+          <t>대로는</t>
+        </is>
+      </c>
+      <c r="B6131" t="inlineStr"/>
+      <c r="C6131" t="inlineStr"/>
+      <c r="D6131" t="inlineStr"/>
+    </row>
+    <row r="6132">
+      <c r="A6132" s="1" t="inlineStr">
+        <is>
+          <t>무진</t>
+        </is>
+      </c>
+      <c r="B6132" t="inlineStr"/>
+      <c r="C6132" t="inlineStr"/>
+      <c r="D6132" t="inlineStr"/>
+    </row>
+    <row r="6133">
+      <c r="A6133" s="1" t="inlineStr">
+        <is>
+          <t>미터</t>
+        </is>
+      </c>
+      <c r="B6133" t="inlineStr"/>
+      <c r="C6133" t="inlineStr"/>
+      <c r="D6133" t="inlineStr"/>
+    </row>
+    <row r="6134">
+      <c r="A6134" s="1" t="inlineStr">
+        <is>
+          <t>타운에서</t>
+        </is>
+      </c>
+      <c r="B6134" t="inlineStr"/>
+      <c r="C6134" t="inlineStr"/>
+      <c r="D6134" t="inlineStr"/>
+    </row>
+    <row r="6135">
+      <c r="A6135" s="1" t="inlineStr">
+        <is>
+          <t>현장</t>
+        </is>
+      </c>
+      <c r="B6135" t="inlineStr"/>
+      <c r="C6135" t="inlineStr"/>
+      <c r="D6135" t="inlineStr"/>
+    </row>
+    <row r="6136">
+      <c r="A6136" s="1" t="inlineStr">
+        <is>
+          <t>결제하게</t>
+        </is>
+      </c>
+      <c r="B6136" t="inlineStr"/>
+      <c r="C6136" t="inlineStr"/>
+      <c r="D6136" t="inlineStr"/>
+    </row>
+    <row r="6137">
+      <c r="A6137" s="1" t="inlineStr">
+        <is>
+          <t>일일</t>
+        </is>
+      </c>
+      <c r="B6137" t="inlineStr"/>
+      <c r="C6137" t="inlineStr"/>
+      <c r="D6137" t="inlineStr"/>
+    </row>
+    <row r="6138">
+      <c r="A6138" s="1" t="inlineStr">
+        <is>
+          <t>여쭤볼</t>
+        </is>
+      </c>
+      <c r="B6138" t="inlineStr"/>
+      <c r="C6138" t="inlineStr"/>
+      <c r="D6138" t="inlineStr"/>
+    </row>
+    <row r="6139">
+      <c r="A6139" s="1" t="inlineStr">
+        <is>
+          <t>설치</t>
+        </is>
+      </c>
+      <c r="B6139" t="inlineStr"/>
+      <c r="C6139" t="inlineStr"/>
+      <c r="D6139" t="inlineStr"/>
+    </row>
+    <row r="6140">
+      <c r="A6140" s="1" t="inlineStr">
+        <is>
+          <t>여기저기</t>
+        </is>
+      </c>
+      <c r="B6140" t="inlineStr"/>
+      <c r="C6140" t="inlineStr"/>
+      <c r="D6140" t="inlineStr"/>
+    </row>
+    <row r="6141">
+      <c r="A6141" s="1" t="inlineStr">
+        <is>
+          <t>넘버까지</t>
+        </is>
+      </c>
+      <c r="B6141" t="inlineStr"/>
+      <c r="C6141" t="inlineStr"/>
+      <c r="D6141" t="inlineStr"/>
+    </row>
+    <row r="6142">
+      <c r="A6142" s="1" t="inlineStr">
+        <is>
+          <t>번에서도</t>
+        </is>
+      </c>
+      <c r="B6142" t="inlineStr"/>
+      <c r="C6142" t="inlineStr"/>
+      <c r="D6142" t="inlineStr"/>
+    </row>
+    <row r="6143">
+      <c r="A6143" s="1" t="inlineStr">
+        <is>
+          <t>원짜리</t>
+        </is>
+      </c>
+      <c r="B6143" t="inlineStr"/>
+      <c r="C6143" t="inlineStr"/>
+      <c r="D6143" t="inlineStr"/>
+    </row>
+    <row r="6144">
+      <c r="A6144" s="1" t="inlineStr">
+        <is>
+          <t>병원</t>
+        </is>
+      </c>
+      <c r="B6144" t="inlineStr"/>
+      <c r="C6144" t="inlineStr"/>
+      <c r="D6144" t="inlineStr"/>
+    </row>
+    <row r="6145">
+      <c r="A6145" s="1" t="inlineStr">
+        <is>
+          <t>가버리는</t>
+        </is>
+      </c>
+      <c r="B6145" t="inlineStr"/>
+      <c r="C6145" t="inlineStr"/>
+      <c r="D6145" t="inlineStr"/>
+    </row>
+    <row r="6146">
+      <c r="A6146" s="1" t="inlineStr">
+        <is>
+          <t>맞아서</t>
+        </is>
+      </c>
+      <c r="B6146" t="inlineStr"/>
+      <c r="C6146" t="inlineStr"/>
+      <c r="D6146" t="inlineStr"/>
+    </row>
+    <row r="6147">
+      <c r="A6147" s="1" t="inlineStr">
+        <is>
+          <t>가린</t>
+        </is>
+      </c>
+      <c r="B6147" t="inlineStr"/>
+      <c r="C6147" t="inlineStr"/>
+      <c r="D6147" t="inlineStr"/>
+    </row>
+    <row r="6148">
+      <c r="A6148" s="1" t="inlineStr">
+        <is>
+          <t>약국</t>
+        </is>
+      </c>
+      <c r="B6148" t="inlineStr"/>
+      <c r="C6148" t="inlineStr"/>
+      <c r="D6148" t="inlineStr"/>
+    </row>
+    <row r="6149">
+      <c r="A6149" s="1" t="inlineStr">
+        <is>
+          <t>코스에</t>
+        </is>
+      </c>
+      <c r="B6149" t="inlineStr"/>
+      <c r="C6149" t="inlineStr"/>
+      <c r="D6149" t="inlineStr"/>
+    </row>
+    <row r="6150">
+      <c r="A6150" s="1" t="inlineStr">
+        <is>
+          <t>입금해준다고</t>
+        </is>
+      </c>
+      <c r="B6150" t="inlineStr"/>
+      <c r="C6150" t="inlineStr"/>
+      <c r="D6150" t="inlineStr"/>
+    </row>
+    <row r="6151">
+      <c r="A6151" s="1" t="inlineStr">
+        <is>
+          <t>아니고요</t>
+        </is>
+      </c>
+      <c r="B6151" t="inlineStr"/>
+      <c r="C6151" t="inlineStr"/>
+      <c r="D6151" t="inlineStr"/>
+    </row>
+    <row r="6152">
+      <c r="A6152" s="1" t="inlineStr">
+        <is>
+          <t>찍어갖고</t>
+        </is>
+      </c>
+      <c r="B6152" t="inlineStr"/>
+      <c r="C6152" t="inlineStr"/>
+      <c r="D6152" t="inlineStr"/>
+    </row>
+    <row r="6153">
+      <c r="A6153" s="1" t="inlineStr">
+        <is>
+          <t>일팔이</t>
+        </is>
+      </c>
+      <c r="B6153" t="inlineStr"/>
+      <c r="C6153" t="inlineStr"/>
+      <c r="D6153" t="inlineStr"/>
+    </row>
+    <row r="6154">
+      <c r="A6154" s="1" t="inlineStr">
+        <is>
+          <t>거까지</t>
+        </is>
+      </c>
+      <c r="B6154" t="inlineStr"/>
+      <c r="C6154" t="inlineStr"/>
+      <c r="D6154" t="inlineStr"/>
+    </row>
+    <row r="6155">
+      <c r="A6155" s="1" t="inlineStr">
+        <is>
+          <t>원으로</t>
+        </is>
+      </c>
+      <c r="B6155" t="inlineStr"/>
+      <c r="C6155" t="inlineStr"/>
+      <c r="D6155" t="inlineStr"/>
+    </row>
+    <row r="6156">
+      <c r="A6156" s="1" t="inlineStr">
+        <is>
+          <t>육백오십삼</t>
+        </is>
+      </c>
+      <c r="B6156" t="inlineStr"/>
+      <c r="C6156" t="inlineStr"/>
+      <c r="D6156" t="inlineStr"/>
+    </row>
+    <row r="6157">
+      <c r="A6157" s="1" t="inlineStr">
+        <is>
+          <t>거요</t>
+        </is>
+      </c>
+      <c r="B6157" t="inlineStr"/>
+      <c r="C6157" t="inlineStr"/>
+      <c r="D6157" t="inlineStr"/>
+    </row>
+    <row r="6158">
+      <c r="A6158" s="1" t="inlineStr">
+        <is>
+          <t>일본을</t>
+        </is>
+      </c>
+      <c r="B6158" t="inlineStr"/>
+      <c r="C6158" t="inlineStr"/>
+      <c r="D6158" t="inlineStr"/>
+    </row>
+    <row r="6159">
+      <c r="A6159" s="1" t="inlineStr">
+        <is>
+          <t>할미가</t>
+        </is>
+      </c>
+      <c r="B6159" t="inlineStr"/>
+      <c r="C6159" t="inlineStr"/>
+      <c r="D6159" t="inlineStr"/>
+    </row>
+    <row r="6160">
+      <c r="A6160" s="1" t="inlineStr">
+        <is>
+          <t>걸리시고요</t>
+        </is>
+      </c>
+      <c r="B6160" t="inlineStr"/>
+      <c r="C6160" t="inlineStr"/>
+      <c r="D6160" t="inlineStr"/>
+    </row>
+    <row r="6161">
+      <c r="A6161" s="1" t="inlineStr">
+        <is>
+          <t>대학</t>
+        </is>
+      </c>
+      <c r="B6161" t="inlineStr"/>
+      <c r="C6161" t="inlineStr"/>
+      <c r="D6161" t="inlineStr"/>
+    </row>
+    <row r="6162">
+      <c r="A6162" s="1" t="inlineStr">
+        <is>
+          <t>주정차가</t>
+        </is>
+      </c>
+      <c r="B6162" t="inlineStr"/>
+      <c r="C6162" t="inlineStr"/>
+      <c r="D6162" t="inlineStr"/>
+    </row>
+    <row r="6163">
+      <c r="A6163" s="1" t="inlineStr">
+        <is>
+          <t>실려는</t>
+        </is>
+      </c>
+      <c r="B6163" t="inlineStr"/>
+      <c r="C6163" t="inlineStr"/>
+      <c r="D6163" t="inlineStr"/>
+    </row>
+    <row r="6164">
+      <c r="A6164" s="1" t="inlineStr">
+        <is>
+          <t>모르고요</t>
+        </is>
+      </c>
+      <c r="B6164" t="inlineStr"/>
+      <c r="C6164" t="inlineStr"/>
+      <c r="D6164" t="inlineStr"/>
+    </row>
+    <row r="6165">
+      <c r="A6165" s="1" t="inlineStr">
+        <is>
+          <t>육십일</t>
+        </is>
+      </c>
+      <c r="B6165" t="inlineStr"/>
+      <c r="C6165" t="inlineStr"/>
+      <c r="D6165" t="inlineStr"/>
+    </row>
+    <row r="6166">
+      <c r="A6166" s="1" t="inlineStr">
+        <is>
+          <t>건너편이시고요</t>
+        </is>
+      </c>
+      <c r="B6166" t="inlineStr"/>
+      <c r="C6166" t="inlineStr"/>
+      <c r="D6166" t="inlineStr"/>
+    </row>
+    <row r="6167">
+      <c r="A6167" s="1" t="inlineStr">
+        <is>
+          <t>라카면서</t>
+        </is>
+      </c>
+      <c r="B6167" t="inlineStr"/>
+      <c r="C6167" t="inlineStr"/>
+      <c r="D6167" t="inlineStr"/>
+    </row>
+    <row r="6168">
+      <c r="A6168" s="1" t="inlineStr">
+        <is>
+          <t>십사</t>
+        </is>
+      </c>
+      <c r="B6168" t="inlineStr"/>
+      <c r="C6168" t="inlineStr"/>
+      <c r="D6168" t="inlineStr"/>
+    </row>
+    <row r="6169">
+      <c r="A6169" s="1" t="inlineStr">
+        <is>
+          <t>머무를</t>
+        </is>
+      </c>
+      <c r="B6169" t="inlineStr"/>
+      <c r="C6169" t="inlineStr"/>
+      <c r="D6169" t="inlineStr"/>
+    </row>
+    <row r="6170">
+      <c r="A6170" s="1" t="inlineStr">
+        <is>
+          <t>어젯밤</t>
+        </is>
+      </c>
+      <c r="B6170" t="inlineStr"/>
+      <c r="C6170" t="inlineStr"/>
+      <c r="D6170" t="inlineStr"/>
+    </row>
+    <row r="6171">
+      <c r="A6171" s="1" t="inlineStr">
+        <is>
+          <t>기사분에게</t>
+        </is>
+      </c>
+      <c r="B6171" t="inlineStr"/>
+      <c r="C6171" t="inlineStr"/>
+      <c r="D6171" t="inlineStr"/>
+    </row>
+    <row r="6172">
+      <c r="A6172" s="1" t="inlineStr">
+        <is>
+          <t>18분</t>
+        </is>
+      </c>
+      <c r="B6172" t="inlineStr"/>
+      <c r="C6172" t="inlineStr"/>
+      <c r="D6172" t="inlineStr"/>
+    </row>
+    <row r="6173">
+      <c r="A6173" s="1" t="inlineStr">
+        <is>
+          <t>오이의</t>
+        </is>
+      </c>
+      <c r="B6173" t="inlineStr"/>
+      <c r="C6173" t="inlineStr"/>
+      <c r="D6173" t="inlineStr"/>
+    </row>
+    <row r="6174">
+      <c r="A6174" s="1" t="inlineStr">
+        <is>
+          <t>신거예요</t>
+        </is>
+      </c>
+      <c r="B6174" t="inlineStr"/>
+      <c r="C6174" t="inlineStr"/>
+      <c r="D6174" t="inlineStr"/>
+    </row>
+    <row r="6175">
+      <c r="A6175" s="1" t="inlineStr">
+        <is>
+          <t>번째부터는</t>
+        </is>
+      </c>
+      <c r="B6175" t="inlineStr"/>
+      <c r="C6175" t="inlineStr"/>
+      <c r="D6175" t="inlineStr"/>
+    </row>
+    <row r="6176">
+      <c r="A6176" s="1" t="inlineStr">
+        <is>
+          <t>칠십사에</t>
+        </is>
+      </c>
+      <c r="B6176" t="inlineStr"/>
+      <c r="C6176" t="inlineStr"/>
+      <c r="D6176" t="inlineStr"/>
+    </row>
+    <row r="6177">
+      <c r="A6177" s="1" t="inlineStr">
+        <is>
+          <t>타시고요</t>
+        </is>
+      </c>
+      <c r="B6177" t="inlineStr"/>
+      <c r="C6177" t="inlineStr"/>
+      <c r="D6177" t="inlineStr"/>
+    </row>
+    <row r="6178">
+      <c r="A6178" s="1" t="inlineStr">
+        <is>
+          <t>내리려고</t>
+        </is>
+      </c>
+      <c r="B6178" t="inlineStr"/>
+      <c r="C6178" t="inlineStr"/>
+      <c r="D6178" t="inlineStr"/>
+    </row>
+    <row r="6179">
+      <c r="A6179" s="1" t="inlineStr">
+        <is>
+          <t>재관</t>
+        </is>
+      </c>
+      <c r="B6179" t="inlineStr"/>
+      <c r="C6179" t="inlineStr"/>
+      <c r="D6179" t="inlineStr"/>
+    </row>
+    <row r="6180">
+      <c r="A6180" s="1" t="inlineStr">
+        <is>
+          <t>번인데요</t>
+        </is>
+      </c>
+      <c r="B6180" t="inlineStr"/>
+      <c r="C6180" t="inlineStr"/>
+      <c r="D6180" t="inlineStr"/>
+    </row>
+    <row r="6181">
+      <c r="A6181" s="1" t="inlineStr">
+        <is>
+          <t>이이육</t>
+        </is>
+      </c>
+      <c r="B6181" t="inlineStr"/>
+      <c r="C6181" t="inlineStr"/>
+      <c r="D6181" t="inlineStr"/>
+    </row>
+    <row r="6182">
+      <c r="A6182" s="1" t="inlineStr">
+        <is>
+          <t>다섯시쯤에</t>
+        </is>
+      </c>
+      <c r="B6182" t="inlineStr"/>
+      <c r="C6182" t="inlineStr"/>
+      <c r="D6182" t="inlineStr"/>
+    </row>
+    <row r="6183">
+      <c r="A6183" s="1" t="inlineStr">
+        <is>
+          <t>있으시고요</t>
+        </is>
+      </c>
+      <c r="B6183" t="inlineStr"/>
+      <c r="C6183" t="inlineStr"/>
+      <c r="D6183" t="inlineStr"/>
+    </row>
+    <row r="6184">
+      <c r="A6184" s="1" t="inlineStr">
+        <is>
+          <t>쓰는데</t>
+        </is>
+      </c>
+      <c r="B6184" t="inlineStr"/>
+      <c r="C6184" t="inlineStr"/>
+      <c r="D6184" t="inlineStr"/>
+    </row>
+    <row r="6185">
+      <c r="A6185" s="1" t="inlineStr">
+        <is>
+          <t>흐지부지되는</t>
+        </is>
+      </c>
+      <c r="B6185" t="inlineStr"/>
+      <c r="C6185" t="inlineStr"/>
+      <c r="D6185" t="inlineStr"/>
+    </row>
+    <row r="6186">
+      <c r="A6186" s="1" t="inlineStr">
+        <is>
+          <t>수성점에서</t>
+        </is>
+      </c>
+      <c r="B6186" t="inlineStr"/>
+      <c r="C6186" t="inlineStr"/>
+      <c r="D6186" t="inlineStr"/>
+    </row>
+    <row r="6187">
+      <c r="A6187" s="1" t="inlineStr">
+        <is>
+          <t>드리려고</t>
+        </is>
+      </c>
+      <c r="B6187" t="inlineStr"/>
+      <c r="C6187" t="inlineStr"/>
+      <c r="D6187" t="inlineStr"/>
+    </row>
+    <row r="6188">
+      <c r="A6188" s="1" t="inlineStr">
+        <is>
+          <t>거장</t>
+        </is>
+      </c>
+      <c r="B6188" t="inlineStr"/>
+      <c r="C6188" t="inlineStr"/>
+      <c r="D6188" t="inlineStr"/>
+    </row>
+    <row r="6189">
+      <c r="A6189" s="1" t="inlineStr">
+        <is>
+          <t>그이</t>
+        </is>
+      </c>
+      <c r="B6189" t="inlineStr"/>
+      <c r="C6189" t="inlineStr"/>
+      <c r="D6189" t="inlineStr"/>
+    </row>
+    <row r="6190">
+      <c r="A6190" s="1" t="inlineStr">
+        <is>
+          <t>거역에서</t>
+        </is>
+      </c>
+      <c r="B6190" t="inlineStr"/>
+      <c r="C6190" t="inlineStr"/>
+      <c r="D6190" t="inlineStr"/>
+    </row>
+    <row r="6191">
+      <c r="A6191" s="1" t="inlineStr">
+        <is>
+          <t>놓게</t>
+        </is>
+      </c>
+      <c r="B6191" t="inlineStr"/>
+      <c r="C6191" t="inlineStr"/>
+      <c r="D6191" t="inlineStr"/>
+    </row>
+    <row r="6192">
+      <c r="A6192" s="1" t="inlineStr">
+        <is>
+          <t>이래갖고</t>
+        </is>
+      </c>
+      <c r="B6192" t="inlineStr"/>
+      <c r="C6192" t="inlineStr"/>
+      <c r="D6192" t="inlineStr"/>
+    </row>
+    <row r="6193">
+      <c r="A6193" s="1" t="inlineStr">
+        <is>
+          <t>육백오십일</t>
+        </is>
+      </c>
+      <c r="B6193" t="inlineStr"/>
+      <c r="C6193" t="inlineStr"/>
+      <c r="D6193" t="inlineStr"/>
+    </row>
+    <row r="6194">
+      <c r="A6194" s="1" t="inlineStr">
+        <is>
+          <t>사구에</t>
+        </is>
+      </c>
+      <c r="B6194" t="inlineStr"/>
+      <c r="C6194" t="inlineStr"/>
+      <c r="D6194" t="inlineStr"/>
+    </row>
+    <row r="6195">
+      <c r="A6195" s="1" t="inlineStr">
+        <is>
+          <t>공공</t>
+        </is>
+      </c>
+      <c r="B6195" t="inlineStr"/>
+      <c r="C6195" t="inlineStr"/>
+      <c r="D6195" t="inlineStr"/>
+    </row>
+    <row r="6196">
+      <c r="A6196" s="1" t="inlineStr">
+        <is>
+          <t>쪽이에요</t>
+        </is>
+      </c>
+      <c r="B6196" t="inlineStr"/>
+      <c r="C6196" t="inlineStr"/>
+      <c r="D6196" t="inlineStr"/>
+    </row>
+    <row r="6197">
+      <c r="A6197" s="1" t="inlineStr">
+        <is>
+          <t>삼이</t>
+        </is>
+      </c>
+      <c r="B6197" t="inlineStr"/>
+      <c r="C6197" t="inlineStr"/>
+      <c r="D6197" t="inlineStr"/>
+    </row>
+    <row r="6198">
+      <c r="A6198" s="1" t="inlineStr">
+        <is>
+          <t>한마디</t>
+        </is>
+      </c>
+      <c r="B6198" t="inlineStr"/>
+      <c r="C6198" t="inlineStr"/>
+      <c r="D6198" t="inlineStr"/>
+    </row>
+    <row r="6199">
+      <c r="A6199" s="1" t="inlineStr">
+        <is>
+          <t>강촌</t>
+        </is>
+      </c>
+      <c r="B6199" t="inlineStr"/>
+      <c r="C6199" t="inlineStr"/>
+      <c r="D6199" t="inlineStr"/>
+    </row>
+    <row r="6200">
+      <c r="A6200" s="1" t="inlineStr">
+        <is>
+          <t>주어</t>
+        </is>
+      </c>
+      <c r="B6200" t="inlineStr"/>
+      <c r="C6200" t="inlineStr"/>
+      <c r="D6200" t="inlineStr"/>
+    </row>
+    <row r="6201">
+      <c r="A6201" s="1" t="inlineStr">
+        <is>
+          <t>이삼</t>
+        </is>
+      </c>
+      <c r="B6201" t="inlineStr"/>
+      <c r="C6201" t="inlineStr"/>
+      <c r="D6201" t="inlineStr"/>
+    </row>
+    <row r="6202">
+      <c r="A6202" s="1" t="inlineStr">
+        <is>
+          <t>대서</t>
+        </is>
+      </c>
+      <c r="B6202" t="inlineStr"/>
+      <c r="C6202" t="inlineStr"/>
+      <c r="D6202" t="inlineStr"/>
+    </row>
+    <row r="6203">
+      <c r="A6203" s="1" t="inlineStr">
+        <is>
+          <t>직행했습니다</t>
+        </is>
+      </c>
+      <c r="B6203" t="inlineStr"/>
+      <c r="C6203" t="inlineStr"/>
+      <c r="D6203" t="inlineStr"/>
+    </row>
+    <row r="6204">
+      <c r="A6204" s="1" t="inlineStr">
+        <is>
+          <t>사백십</t>
+        </is>
+      </c>
+      <c r="B6204" t="inlineStr"/>
+      <c r="C6204" t="inlineStr"/>
+      <c r="D6204" t="inlineStr"/>
+    </row>
+    <row r="6205">
+      <c r="A6205" s="1" t="inlineStr">
+        <is>
+          <t>알려드릴</t>
+        </is>
+      </c>
+      <c r="B6205" t="inlineStr"/>
+      <c r="C6205" t="inlineStr"/>
+      <c r="D6205" t="inlineStr"/>
+    </row>
+    <row r="6206">
+      <c r="A6206" s="1" t="inlineStr">
+        <is>
+          <t>의</t>
+        </is>
+      </c>
+      <c r="B6206" t="inlineStr"/>
+      <c r="C6206" t="inlineStr"/>
+      <c r="D6206" t="inlineStr"/>
+    </row>
+    <row r="6207">
+      <c r="A6207" s="1" t="inlineStr">
+        <is>
+          <t>오팔삼</t>
+        </is>
+      </c>
+      <c r="B6207" t="inlineStr"/>
+      <c r="C6207" t="inlineStr"/>
+      <c r="D6207" t="inlineStr"/>
+    </row>
+    <row r="6208">
+      <c r="A6208" s="1" t="inlineStr">
+        <is>
+          <t>4분</t>
+        </is>
+      </c>
+      <c r="B6208" t="inlineStr"/>
+      <c r="C6208" t="inlineStr"/>
+      <c r="D6208" t="inlineStr"/>
+    </row>
+    <row r="6209">
+      <c r="A6209" s="1" t="inlineStr">
+        <is>
+          <t>내버려</t>
+        </is>
+      </c>
+      <c r="B6209" t="inlineStr"/>
+      <c r="C6209" t="inlineStr"/>
+      <c r="D6209" t="inlineStr"/>
+    </row>
+    <row r="6210">
+      <c r="A6210" s="1" t="inlineStr">
+        <is>
+          <t>삼가로</t>
+        </is>
+      </c>
+      <c r="B6210" t="inlineStr"/>
+      <c r="C6210" t="inlineStr"/>
+      <c r="D6210" t="inlineStr"/>
+    </row>
+    <row r="6211">
+      <c r="A6211" s="1" t="inlineStr">
+        <is>
+          <t>대구과학고</t>
+        </is>
+      </c>
+      <c r="B6211" t="inlineStr"/>
+      <c r="C6211" t="inlineStr"/>
+      <c r="D6211" t="inlineStr"/>
+    </row>
+    <row r="6212">
+      <c r="A6212" s="1" t="inlineStr">
+        <is>
+          <t>되거든</t>
+        </is>
+      </c>
+      <c r="B6212" t="inlineStr"/>
+      <c r="C6212" t="inlineStr"/>
+      <c r="D6212" t="inlineStr"/>
+    </row>
+    <row r="6213">
+      <c r="A6213" s="1" t="inlineStr">
+        <is>
+          <t>사업조합으로</t>
+        </is>
+      </c>
+      <c r="B6213" t="inlineStr"/>
+      <c r="C6213" t="inlineStr"/>
+      <c r="D6213" t="inlineStr"/>
+    </row>
+    <row r="6214">
+      <c r="A6214" s="1" t="inlineStr">
+        <is>
+          <t>정비공장</t>
+        </is>
+      </c>
+      <c r="B6214" t="inlineStr"/>
+      <c r="C6214" t="inlineStr"/>
+      <c r="D6214" t="inlineStr"/>
+    </row>
+    <row r="6215">
+      <c r="A6215" s="1" t="inlineStr">
+        <is>
+          <t>말씀해주셨고요</t>
+        </is>
+      </c>
+      <c r="B6215" t="inlineStr"/>
+      <c r="C6215" t="inlineStr"/>
+      <c r="D6215" t="inlineStr"/>
+    </row>
+    <row r="6216">
+      <c r="A6216" s="1" t="inlineStr">
+        <is>
+          <t>십구분쯤에</t>
+        </is>
+      </c>
+      <c r="B6216" t="inlineStr"/>
+      <c r="C6216" t="inlineStr"/>
+      <c r="D6216" t="inlineStr"/>
+    </row>
+    <row r="6217">
+      <c r="A6217" s="1" t="inlineStr">
+        <is>
+          <t>드려볼</t>
+        </is>
+      </c>
+      <c r="B6217" t="inlineStr"/>
+      <c r="C6217" t="inlineStr"/>
+      <c r="D6217" t="inlineStr"/>
+    </row>
+    <row r="6218">
+      <c r="A6218" s="1" t="inlineStr">
+        <is>
+          <t>오일팔오</t>
+        </is>
+      </c>
+      <c r="B6218" t="inlineStr"/>
+      <c r="C6218" t="inlineStr"/>
+      <c r="D6218" t="inlineStr"/>
+    </row>
+    <row r="6219">
+      <c r="A6219" s="1" t="inlineStr">
+        <is>
+          <t>구인데</t>
+        </is>
+      </c>
+      <c r="B6219" t="inlineStr"/>
+      <c r="C6219" t="inlineStr"/>
+      <c r="D6219" t="inlineStr"/>
+    </row>
+    <row r="6220">
+      <c r="A6220" s="1" t="inlineStr">
+        <is>
+          <t>삼가</t>
+        </is>
+      </c>
+      <c r="B6220" t="inlineStr"/>
+      <c r="C6220" t="inlineStr"/>
+      <c r="D6220" t="inlineStr"/>
+    </row>
+    <row r="6221">
+      <c r="A6221" s="1" t="inlineStr">
+        <is>
+          <t>전송</t>
+        </is>
+      </c>
+      <c r="B6221" t="inlineStr"/>
+      <c r="C6221" t="inlineStr"/>
+      <c r="D6221" t="inlineStr"/>
+    </row>
+    <row r="6222">
+      <c r="A6222" s="1" t="inlineStr">
+        <is>
+          <t>구백팔십</t>
+        </is>
+      </c>
+      <c r="B6222" t="inlineStr"/>
+      <c r="C6222" t="inlineStr"/>
+      <c r="D6222" t="inlineStr"/>
+    </row>
+    <row r="6223">
+      <c r="A6223" s="1" t="inlineStr">
+        <is>
+          <t>이십삼십삼분</t>
+        </is>
+      </c>
+      <c r="B6223" t="inlineStr"/>
+      <c r="C6223" t="inlineStr"/>
+      <c r="D6223" t="inlineStr"/>
+    </row>
+    <row r="6224">
+      <c r="A6224" s="1" t="inlineStr">
+        <is>
+          <t>어쩌지</t>
+        </is>
+      </c>
+      <c r="B6224" t="inlineStr"/>
+      <c r="C6224" t="inlineStr"/>
+      <c r="D6224" t="inlineStr"/>
+    </row>
+    <row r="6225">
+      <c r="A6225" s="1" t="inlineStr">
+        <is>
+          <t>데예</t>
+        </is>
+      </c>
+      <c r="B6225" t="inlineStr"/>
+      <c r="C6225" t="inlineStr"/>
+      <c r="D6225" t="inlineStr"/>
+    </row>
+    <row r="6226">
+      <c r="A6226" s="1" t="inlineStr">
+        <is>
+          <t>없고요</t>
+        </is>
+      </c>
+      <c r="B6226" t="inlineStr"/>
+      <c r="C6226" t="inlineStr"/>
+      <c r="D6226" t="inlineStr"/>
+    </row>
+    <row r="6227">
+      <c r="A6227" s="1" t="inlineStr">
+        <is>
+          <t>삼백사</t>
+        </is>
+      </c>
+      <c r="B6227" t="inlineStr"/>
+      <c r="C6227" t="inlineStr"/>
+      <c r="D6227" t="inlineStr"/>
+    </row>
+    <row r="6228">
+      <c r="A6228" s="1" t="inlineStr">
+        <is>
+          <t>장전에</t>
+        </is>
+      </c>
+      <c r="B6228" t="inlineStr"/>
+      <c r="C6228" t="inlineStr"/>
+      <c r="D6228" t="inlineStr"/>
+    </row>
+    <row r="6229">
+      <c r="A6229" s="1" t="inlineStr">
+        <is>
+          <t>센터라에</t>
+        </is>
+      </c>
+      <c r="B6229" t="inlineStr"/>
+      <c r="C6229" t="inlineStr"/>
+      <c r="D6229" t="inlineStr"/>
+    </row>
+    <row r="6230">
+      <c r="A6230" s="1" t="inlineStr">
+        <is>
+          <t>팔백오</t>
+        </is>
+      </c>
+      <c r="B6230" t="inlineStr"/>
+      <c r="C6230" t="inlineStr"/>
+      <c r="D6230" t="inlineStr"/>
+    </row>
+    <row r="6231">
+      <c r="A6231" s="1" t="inlineStr">
+        <is>
+          <t>팔도</t>
+        </is>
+      </c>
+      <c r="B6231" t="inlineStr"/>
+      <c r="C6231" t="inlineStr"/>
+      <c r="D6231" t="inlineStr"/>
+    </row>
+    <row r="6232">
+      <c r="A6232" s="1" t="inlineStr">
+        <is>
+          <t>차여서</t>
+        </is>
+      </c>
+      <c r="B6232" t="inlineStr"/>
+      <c r="C6232" t="inlineStr"/>
+      <c r="D6232" t="inlineStr"/>
+    </row>
+    <row r="6233">
+      <c r="A6233" s="1" t="inlineStr">
+        <is>
+          <t>지나면은</t>
+        </is>
+      </c>
+      <c r="B6233" t="inlineStr"/>
+      <c r="C6233" t="inlineStr"/>
+      <c r="D6233" t="inlineStr"/>
+    </row>
+    <row r="6234">
+      <c r="A6234" s="1" t="inlineStr">
+        <is>
+          <t>페이먼트</t>
+        </is>
+      </c>
+      <c r="B6234" t="inlineStr"/>
+      <c r="C6234" t="inlineStr"/>
+      <c r="D6234" t="inlineStr"/>
+    </row>
+    <row r="6235">
+      <c r="A6235" s="1" t="inlineStr">
+        <is>
+          <t>대원</t>
+        </is>
+      </c>
+      <c r="B6235" t="inlineStr"/>
+      <c r="C6235" t="inlineStr"/>
+      <c r="D6235" t="inlineStr"/>
+    </row>
+    <row r="6236">
+      <c r="A6236" s="1" t="inlineStr">
+        <is>
+          <t>오구육일</t>
+        </is>
+      </c>
+      <c r="B6236" t="inlineStr"/>
+      <c r="C6236" t="inlineStr"/>
+      <c r="D6236" t="inlineStr"/>
+    </row>
+    <row r="6237">
+      <c r="A6237" s="1" t="inlineStr">
+        <is>
+          <t>알려드릴게요</t>
+        </is>
+      </c>
+      <c r="B6237" t="inlineStr"/>
+      <c r="C6237" t="inlineStr"/>
+      <c r="D6237" t="inlineStr"/>
+    </row>
+    <row r="6238">
+      <c r="A6238" s="1" t="inlineStr">
+        <is>
+          <t>광구</t>
+        </is>
+      </c>
+      <c r="B6238" t="inlineStr"/>
+      <c r="C6238" t="inlineStr"/>
+      <c r="D6238" t="inlineStr"/>
+    </row>
+    <row r="6239">
+      <c r="A6239" s="1" t="inlineStr">
+        <is>
+          <t>번호만</t>
+        </is>
+      </c>
+      <c r="B6239" t="inlineStr"/>
+      <c r="C6239" t="inlineStr"/>
+      <c r="D6239" t="inlineStr"/>
+    </row>
+    <row r="6240">
+      <c r="A6240" s="1" t="inlineStr">
+        <is>
+          <t>들어갈</t>
+        </is>
+      </c>
+      <c r="B6240" t="inlineStr"/>
+      <c r="C6240" t="inlineStr"/>
+      <c r="D6240" t="inlineStr"/>
+    </row>
+    <row r="6241">
+      <c r="A6241" s="1" t="inlineStr">
+        <is>
+          <t>반에</t>
+        </is>
+      </c>
+      <c r="B6241" t="inlineStr"/>
+      <c r="C6241" t="inlineStr"/>
+      <c r="D6241" t="inlineStr"/>
+    </row>
+    <row r="6242">
+      <c r="A6242" s="1" t="inlineStr">
+        <is>
+          <t>거여서</t>
+        </is>
+      </c>
+      <c r="B6242" t="inlineStr"/>
+      <c r="C6242" t="inlineStr"/>
+      <c r="D6242" t="inlineStr"/>
+    </row>
+    <row r="6243">
+      <c r="A6243" s="1" t="inlineStr">
+        <is>
+          <t>십일</t>
+        </is>
+      </c>
+      <c r="B6243" t="inlineStr"/>
+      <c r="C6243" t="inlineStr"/>
+      <c r="D6243" t="inlineStr"/>
+    </row>
+    <row r="6244">
+      <c r="A6244" s="1" t="inlineStr">
+        <is>
+          <t>산격</t>
+        </is>
+      </c>
+      <c r="B6244" t="inlineStr"/>
+      <c r="C6244" t="inlineStr"/>
+      <c r="D6244" t="inlineStr"/>
+    </row>
+    <row r="6245">
+      <c r="A6245" s="1" t="inlineStr">
+        <is>
+          <t>정류장이에요</t>
+        </is>
+      </c>
+      <c r="B6245" t="inlineStr"/>
+      <c r="C6245" t="inlineStr"/>
+      <c r="D6245" t="inlineStr"/>
+    </row>
+    <row r="6246">
+      <c r="A6246" s="1" t="inlineStr">
+        <is>
+          <t>삼십이</t>
+        </is>
+      </c>
+      <c r="B6246" t="inlineStr"/>
+      <c r="C6246" t="inlineStr"/>
+      <c r="D6246" t="inlineStr"/>
+    </row>
+    <row r="6247">
+      <c r="A6247" s="1" t="inlineStr">
+        <is>
+          <t>정차</t>
+        </is>
+      </c>
+      <c r="B6247" t="inlineStr"/>
+      <c r="C6247" t="inlineStr"/>
+      <c r="D6247" t="inlineStr"/>
+    </row>
+    <row r="6248">
+      <c r="A6248" s="1" t="inlineStr">
+        <is>
+          <t>평균</t>
+        </is>
+      </c>
+      <c r="B6248" t="inlineStr"/>
+      <c r="C6248" t="inlineStr"/>
+      <c r="D6248" t="inlineStr"/>
+    </row>
+    <row r="6249">
+      <c r="A6249" s="1" t="inlineStr">
+        <is>
+          <t>미안</t>
+        </is>
+      </c>
+      <c r="B6249" t="inlineStr"/>
+      <c r="C6249" t="inlineStr"/>
+      <c r="D6249" t="inlineStr"/>
+    </row>
+    <row r="6250">
+      <c r="A6250" s="1" t="inlineStr">
+        <is>
+          <t>남겨드릴</t>
+        </is>
+      </c>
+      <c r="B6250" t="inlineStr"/>
+      <c r="C6250" t="inlineStr"/>
+      <c r="D6250" t="inlineStr"/>
+    </row>
+    <row r="6251">
+      <c r="A6251" s="1" t="inlineStr">
+        <is>
+          <t>건설과</t>
+        </is>
+      </c>
+      <c r="B6251" t="inlineStr"/>
+      <c r="C6251" t="inlineStr"/>
+      <c r="D6251" t="inlineStr"/>
+    </row>
+    <row r="6252">
+      <c r="A6252" s="1" t="inlineStr">
+        <is>
+          <t>가가</t>
+        </is>
+      </c>
+      <c r="B6252" t="inlineStr"/>
+      <c r="C6252" t="inlineStr"/>
+      <c r="D6252" t="inlineStr"/>
+    </row>
+    <row r="6253">
+      <c r="A6253" s="1" t="inlineStr">
+        <is>
+          <t>영재교에서</t>
+        </is>
+      </c>
+      <c r="B6253" t="inlineStr"/>
+      <c r="C6253" t="inlineStr"/>
+      <c r="D6253" t="inlineStr"/>
+    </row>
+    <row r="6254">
+      <c r="A6254" s="1" t="inlineStr">
+        <is>
+          <t>물류과</t>
+        </is>
+      </c>
+      <c r="B6254" t="inlineStr"/>
+      <c r="C6254" t="inlineStr"/>
+      <c r="D6254" t="inlineStr"/>
+    </row>
+    <row r="6255">
+      <c r="A6255" s="1" t="inlineStr">
+        <is>
+          <t>빠진</t>
+        </is>
+      </c>
+      <c r="B6255" t="inlineStr"/>
+      <c r="C6255" t="inlineStr"/>
+      <c r="D6255" t="inlineStr"/>
+    </row>
+    <row r="6256">
+      <c r="A6256" s="1" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="B6256" t="inlineStr"/>
+      <c r="C6256" t="inlineStr"/>
+      <c r="D6256" t="inlineStr"/>
+    </row>
+    <row r="6257">
+      <c r="A6257" s="1" t="inlineStr">
+        <is>
+          <t>시간만이라도</t>
+        </is>
+      </c>
+      <c r="B6257" t="inlineStr"/>
+      <c r="C6257" t="inlineStr"/>
+      <c r="D6257" t="inlineStr"/>
+    </row>
+    <row r="6258">
+      <c r="A6258" s="1" t="inlineStr">
+        <is>
+          <t>우방아파트에서</t>
+        </is>
+      </c>
+      <c r="B6258" t="inlineStr"/>
+      <c r="C6258" t="inlineStr"/>
+      <c r="D6258" t="inlineStr"/>
+    </row>
+    <row r="6259">
+      <c r="A6259" s="1" t="inlineStr">
+        <is>
+          <t>육지일</t>
+        </is>
+      </c>
+      <c r="B6259" t="inlineStr"/>
+      <c r="C6259" t="inlineStr"/>
+      <c r="D6259" t="inlineStr"/>
+    </row>
+    <row r="6260">
+      <c r="A6260" s="1" t="inlineStr">
+        <is>
+          <t>해드릴</t>
+        </is>
+      </c>
+      <c r="B6260" t="inlineStr"/>
+      <c r="C6260" t="inlineStr"/>
+      <c r="D6260" t="inlineStr"/>
+    </row>
+    <row r="6261">
+      <c r="A6261" s="1" t="inlineStr">
+        <is>
+          <t>멘션이라는</t>
+        </is>
+      </c>
+      <c r="B6261" t="inlineStr"/>
+      <c r="C6261" t="inlineStr"/>
+      <c r="D6261" t="inlineStr"/>
+    </row>
+    <row r="6262">
+      <c r="A6262" s="1" t="inlineStr">
+        <is>
+          <t>칠육사</t>
+        </is>
+      </c>
+      <c r="B6262" t="inlineStr"/>
+      <c r="C6262" t="inlineStr"/>
+      <c r="D6262" t="inlineStr"/>
+    </row>
+    <row r="6263">
+      <c r="A6263" s="1" t="inlineStr">
+        <is>
+          <t>도와드리도록</t>
+        </is>
+      </c>
+      <c r="B6263" t="inlineStr"/>
+      <c r="C6263" t="inlineStr"/>
+      <c r="D6263" t="inlineStr"/>
+    </row>
+    <row r="6264">
+      <c r="A6264" s="1" t="inlineStr">
+        <is>
+          <t>금봉으로</t>
+        </is>
+      </c>
+      <c r="B6264" t="inlineStr"/>
+      <c r="C6264" t="inlineStr"/>
+      <c r="D6264" t="inlineStr"/>
+    </row>
+    <row r="6265">
+      <c r="A6265" s="1" t="inlineStr">
+        <is>
+          <t>경신</t>
+        </is>
+      </c>
+      <c r="B6265" t="inlineStr"/>
+      <c r="C6265" t="inlineStr"/>
+      <c r="D6265" t="inlineStr"/>
+    </row>
+    <row r="6266">
+      <c r="A6266" s="1" t="inlineStr">
+        <is>
+          <t>팔천오백</t>
+        </is>
+      </c>
+      <c r="B6266" t="inlineStr"/>
+      <c r="C6266" t="inlineStr"/>
+      <c r="D6266" t="inlineStr"/>
+    </row>
+    <row r="6267">
+      <c r="A6267" s="1" t="inlineStr">
+        <is>
+          <t>타운</t>
+        </is>
+      </c>
+      <c r="B6267" t="inlineStr"/>
+      <c r="C6267" t="inlineStr"/>
+      <c r="D6267" t="inlineStr"/>
+    </row>
+    <row r="6268">
+      <c r="A6268" s="1" t="inlineStr">
+        <is>
+          <t>밟더라고요</t>
+        </is>
+      </c>
+      <c r="B6268" t="inlineStr"/>
+      <c r="C6268" t="inlineStr"/>
+      <c r="D6268" t="inlineStr"/>
+    </row>
+    <row r="6269">
+      <c r="A6269" s="1" t="inlineStr">
+        <is>
+          <t>찾아가려</t>
+        </is>
+      </c>
+      <c r="B6269" t="inlineStr"/>
+      <c r="C6269" t="inlineStr"/>
+      <c r="D6269" t="inlineStr"/>
+    </row>
+    <row r="6270">
+      <c r="A6270" s="1" t="inlineStr">
+        <is>
+          <t>사백이십오</t>
+        </is>
+      </c>
+      <c r="B6270" t="inlineStr"/>
+      <c r="C6270" t="inlineStr"/>
+      <c r="D6270" t="inlineStr"/>
+    </row>
+    <row r="6271">
+      <c r="A6271" s="1" t="inlineStr">
+        <is>
+          <t>돼있어</t>
+        </is>
+      </c>
+      <c r="B6271" t="inlineStr"/>
+      <c r="C6271" t="inlineStr"/>
+      <c r="D6271" t="inlineStr"/>
+    </row>
+    <row r="6272">
+      <c r="A6272" s="1" t="inlineStr">
+        <is>
+          <t>며칠째</t>
+        </is>
+      </c>
+      <c r="B6272" t="inlineStr"/>
+      <c r="C6272" t="inlineStr"/>
+      <c r="D6272" t="inlineStr"/>
+    </row>
+    <row r="6273">
+      <c r="A6273" s="1" t="inlineStr">
+        <is>
+          <t>삼십분경으로</t>
+        </is>
+      </c>
+      <c r="B6273" t="inlineStr"/>
+      <c r="C6273" t="inlineStr"/>
+      <c r="D6273" t="inlineStr"/>
+    </row>
+    <row r="6274">
+      <c r="A6274" s="1" t="inlineStr">
+        <is>
+          <t>조정에</t>
+        </is>
+      </c>
+      <c r="B6274" t="inlineStr"/>
+      <c r="C6274" t="inlineStr"/>
+      <c r="D6274" t="inlineStr"/>
+    </row>
+    <row r="6275">
+      <c r="A6275" s="1" t="inlineStr">
+        <is>
+          <t>금붕</t>
+        </is>
+      </c>
+      <c r="B6275" t="inlineStr"/>
+      <c r="C6275" t="inlineStr"/>
+      <c r="D6275" t="inlineStr"/>
+    </row>
+    <row r="6276">
+      <c r="A6276" s="1" t="inlineStr">
+        <is>
+          <t>동</t>
+        </is>
+      </c>
+      <c r="B6276" t="inlineStr"/>
+      <c r="C6276" t="inlineStr"/>
+      <c r="D6276" t="inlineStr"/>
+    </row>
+    <row r="6277">
+      <c r="A6277" s="1" t="inlineStr">
+        <is>
+          <t>거실</t>
+        </is>
+      </c>
+      <c r="B6277" t="inlineStr"/>
+      <c r="C6277" t="inlineStr"/>
+      <c r="D6277" t="inlineStr"/>
+    </row>
+    <row r="6278">
+      <c r="A6278" s="1" t="inlineStr">
+        <is>
+          <t>이삼이</t>
+        </is>
+      </c>
+      <c r="B6278" t="inlineStr"/>
+      <c r="C6278" t="inlineStr"/>
+      <c r="D6278" t="inlineStr"/>
+    </row>
+    <row r="6279">
+      <c r="A6279" s="1" t="inlineStr">
+        <is>
+          <t>터미널</t>
+        </is>
+      </c>
+      <c r="B6279" t="inlineStr"/>
+      <c r="C6279" t="inlineStr"/>
+      <c r="D6279" t="inlineStr"/>
+    </row>
+    <row r="6280">
+      <c r="A6280" s="1" t="inlineStr">
+        <is>
+          <t>네거리로</t>
+        </is>
+      </c>
+      <c r="B6280" t="inlineStr"/>
+      <c r="C6280" t="inlineStr"/>
+      <c r="D6280" t="inlineStr"/>
+    </row>
+    <row r="6281">
+      <c r="A6281" s="1" t="inlineStr">
+        <is>
+          <t>세차장</t>
+        </is>
+      </c>
+      <c r="B6281" t="inlineStr"/>
+      <c r="C6281" t="inlineStr"/>
+      <c r="D6281" t="inlineStr"/>
+    </row>
+    <row r="6282">
+      <c r="A6282" s="1" t="inlineStr">
+        <is>
+          <t>사일</t>
+        </is>
+      </c>
+      <c r="B6282" t="inlineStr"/>
+      <c r="C6282" t="inlineStr"/>
+      <c r="D6282" t="inlineStr"/>
+    </row>
+    <row r="6283">
+      <c r="A6283" s="1" t="inlineStr">
+        <is>
+          <t>마비성</t>
+        </is>
+      </c>
+      <c r="B6283" t="inlineStr"/>
+      <c r="C6283" t="inlineStr"/>
+      <c r="D6283" t="inlineStr"/>
+    </row>
+    <row r="6284">
+      <c r="A6284" s="1" t="inlineStr">
+        <is>
+          <t>동화</t>
+        </is>
+      </c>
+      <c r="B6284" t="inlineStr"/>
+      <c r="C6284" t="inlineStr"/>
+      <c r="D6284" t="inlineStr"/>
+    </row>
+    <row r="6285">
+      <c r="A6285" s="1" t="inlineStr">
+        <is>
+          <t>삼백이십삼</t>
+        </is>
+      </c>
+      <c r="B6285" t="inlineStr"/>
+      <c r="C6285" t="inlineStr"/>
+      <c r="D6285" t="inlineStr"/>
+    </row>
+    <row r="6286">
+      <c r="A6286" s="1" t="inlineStr">
+        <is>
+          <t>그러고</t>
+        </is>
+      </c>
+      <c r="B6286" t="inlineStr"/>
+      <c r="C6286" t="inlineStr"/>
+      <c r="D6286" t="inlineStr"/>
+    </row>
+    <row r="6287">
+      <c r="A6287" s="1" t="inlineStr">
+        <is>
+          <t>거는요</t>
+        </is>
+      </c>
+      <c r="B6287" t="inlineStr"/>
+      <c r="C6287" t="inlineStr"/>
+      <c r="D6287" t="inlineStr"/>
+    </row>
+    <row r="6288">
+      <c r="A6288" s="1" t="inlineStr">
+        <is>
+          <t>구분의</t>
+        </is>
+      </c>
+      <c r="B6288" t="inlineStr"/>
+      <c r="C6288" t="inlineStr"/>
+      <c r="D6288" t="inlineStr"/>
+    </row>
+    <row r="6289">
+      <c r="A6289" s="1" t="inlineStr">
+        <is>
+          <t>구일</t>
+        </is>
+      </c>
+      <c r="B6289" t="inlineStr"/>
+      <c r="C6289" t="inlineStr"/>
+      <c r="D6289" t="inlineStr"/>
+    </row>
+    <row r="6290">
+      <c r="A6290" s="1" t="inlineStr">
+        <is>
+          <t>데는</t>
+        </is>
+      </c>
+      <c r="B6290" t="inlineStr"/>
+      <c r="C6290" t="inlineStr"/>
+      <c r="D6290" t="inlineStr"/>
+    </row>
+    <row r="6291">
+      <c r="A6291" s="1" t="inlineStr">
+        <is>
+          <t>일해요</t>
+        </is>
+      </c>
+      <c r="B6291" t="inlineStr"/>
+      <c r="C6291" t="inlineStr"/>
+      <c r="D6291" t="inlineStr"/>
+    </row>
+    <row r="6292">
+      <c r="A6292" s="1" t="inlineStr">
+        <is>
+          <t>용산</t>
+        </is>
+      </c>
+      <c r="B6292" t="inlineStr"/>
+      <c r="C6292" t="inlineStr"/>
+      <c r="D6292" t="inlineStr"/>
+    </row>
+    <row r="6293">
+      <c r="A6293" s="1" t="inlineStr">
+        <is>
+          <t>전화했던</t>
+        </is>
+      </c>
+      <c r="B6293" t="inlineStr"/>
+      <c r="C6293" t="inlineStr"/>
+      <c r="D6293" t="inlineStr"/>
+    </row>
+    <row r="6294">
+      <c r="A6294" s="1" t="inlineStr">
+        <is>
+          <t>영신</t>
+        </is>
+      </c>
+      <c r="B6294" t="inlineStr"/>
+      <c r="C6294" t="inlineStr"/>
+      <c r="D6294" t="inlineStr"/>
+    </row>
+    <row r="6295">
+      <c r="A6295" s="1" t="inlineStr">
+        <is>
+          <t>와갖고</t>
+        </is>
+      </c>
+      <c r="B6295" t="inlineStr"/>
+      <c r="C6295" t="inlineStr"/>
+      <c r="D6295" t="inlineStr"/>
+    </row>
+    <row r="6296">
+      <c r="A6296" s="1" t="inlineStr">
+        <is>
+          <t>저번</t>
+        </is>
+      </c>
+      <c r="B6296" t="inlineStr"/>
+      <c r="C6296" t="inlineStr"/>
+      <c r="D6296" t="inlineStr"/>
+    </row>
+    <row r="6297">
+      <c r="A6297" s="1" t="inlineStr">
+        <is>
+          <t>추적</t>
+        </is>
+      </c>
+      <c r="B6297" t="inlineStr"/>
+      <c r="C6297" t="inlineStr"/>
+      <c r="D6297" t="inlineStr"/>
+    </row>
+    <row r="6298">
+      <c r="A6298" s="1" t="inlineStr">
+        <is>
+          <t>오백육십사</t>
+        </is>
+      </c>
+      <c r="B6298" t="inlineStr"/>
+      <c r="C6298" t="inlineStr"/>
+      <c r="D6298" t="inlineStr"/>
+    </row>
+    <row r="6299">
+      <c r="A6299" s="1" t="inlineStr">
+        <is>
+          <t>이로</t>
+        </is>
+      </c>
+      <c r="B6299" t="inlineStr"/>
+      <c r="C6299" t="inlineStr"/>
+      <c r="D6299" t="inlineStr"/>
+    </row>
+    <row r="6300">
+      <c r="A6300" s="1" t="inlineStr">
+        <is>
+          <t>분실물의</t>
+        </is>
+      </c>
+      <c r="B6300" t="inlineStr"/>
+      <c r="C6300" t="inlineStr"/>
+      <c r="D6300" t="inlineStr"/>
+    </row>
+    <row r="6301">
+      <c r="A6301" s="1" t="inlineStr">
+        <is>
+          <t>희망</t>
+        </is>
+      </c>
+      <c r="B6301" t="inlineStr"/>
+      <c r="C6301" t="inlineStr"/>
+      <c r="D6301" t="inlineStr"/>
+    </row>
+    <row r="6302">
+      <c r="A6302" s="1" t="inlineStr">
+        <is>
+          <t>번은</t>
+        </is>
+      </c>
+      <c r="B6302" t="inlineStr"/>
+      <c r="C6302" t="inlineStr"/>
+      <c r="D6302" t="inlineStr"/>
+    </row>
+    <row r="6303">
+      <c r="A6303" s="1" t="inlineStr">
+        <is>
+          <t>그전</t>
+        </is>
+      </c>
+      <c r="B6303" t="inlineStr"/>
+      <c r="C6303" t="inlineStr"/>
+      <c r="D6303" t="inlineStr"/>
+    </row>
+    <row r="6304">
+      <c r="A6304" s="1" t="inlineStr">
+        <is>
+          <t>수상사가</t>
+        </is>
+      </c>
+      <c r="B6304" t="inlineStr"/>
+      <c r="C6304" t="inlineStr"/>
+      <c r="D6304" t="inlineStr"/>
+    </row>
+    <row r="6305">
+      <c r="A6305" s="1" t="inlineStr">
+        <is>
+          <t>정류소로</t>
+        </is>
+      </c>
+      <c r="B6305" t="inlineStr"/>
+      <c r="C6305" t="inlineStr"/>
+      <c r="D6305" t="inlineStr"/>
+    </row>
+    <row r="6306">
+      <c r="A6306" s="1" t="inlineStr">
+        <is>
+          <t>노원</t>
+        </is>
+      </c>
+      <c r="B6306" t="inlineStr"/>
+      <c r="C6306" t="inlineStr"/>
+      <c r="D6306" t="inlineStr"/>
+    </row>
+    <row r="6307">
+      <c r="A6307" s="1" t="inlineStr">
+        <is>
+          <t>용</t>
+        </is>
+      </c>
+      <c r="B6307" t="inlineStr"/>
+      <c r="C6307" t="inlineStr"/>
+      <c r="D6307" t="inlineStr"/>
+    </row>
+    <row r="6308">
+      <c r="A6308" s="1" t="inlineStr">
+        <is>
+          <t>칠백삼십</t>
+        </is>
+      </c>
+      <c r="B6308" t="inlineStr"/>
+      <c r="C6308" t="inlineStr"/>
+      <c r="D6308" t="inlineStr"/>
+    </row>
+    <row r="6309">
+      <c r="A6309" s="1" t="inlineStr">
+        <is>
+          <t>이번을</t>
+        </is>
+      </c>
+      <c r="B6309" t="inlineStr"/>
+      <c r="C6309" t="inlineStr"/>
+      <c r="D6309" t="inlineStr"/>
+    </row>
+    <row r="6310">
+      <c r="A6310" s="1" t="inlineStr">
+        <is>
+          <t>주보세요</t>
+        </is>
+      </c>
+      <c r="B6310" t="inlineStr"/>
+      <c r="C6310" t="inlineStr"/>
+      <c r="D6310" t="inlineStr"/>
+    </row>
+    <row r="6311">
+      <c r="A6311" s="1" t="inlineStr">
+        <is>
+          <t>칠백이십사</t>
+        </is>
+      </c>
+      <c r="B6311" t="inlineStr"/>
+      <c r="C6311" t="inlineStr"/>
+      <c r="D6311" t="inlineStr"/>
+    </row>
+    <row r="6312">
+      <c r="A6312" s="1" t="inlineStr">
+        <is>
+          <t>어렵다고</t>
+        </is>
+      </c>
+      <c r="B6312" t="inlineStr"/>
+      <c r="C6312" t="inlineStr"/>
+      <c r="D6312" t="inlineStr"/>
+    </row>
+    <row r="6313">
+      <c r="A6313" s="1" t="inlineStr">
+        <is>
+          <t>수목원</t>
+        </is>
+      </c>
+      <c r="B6313" t="inlineStr"/>
+      <c r="C6313" t="inlineStr"/>
+      <c r="D6313" t="inlineStr"/>
+    </row>
+    <row r="6314">
+      <c r="A6314" s="1" t="inlineStr">
+        <is>
+          <t>웨딩이라는</t>
+        </is>
+      </c>
+      <c r="B6314" t="inlineStr"/>
+      <c r="C6314" t="inlineStr"/>
+      <c r="D6314" t="inlineStr"/>
+    </row>
+    <row r="6315">
+      <c r="A6315" s="1" t="inlineStr">
+        <is>
+          <t>사십팔분에</t>
+        </is>
+      </c>
+      <c r="B6315" t="inlineStr"/>
+      <c r="C6315" t="inlineStr"/>
+      <c r="D6315" t="inlineStr"/>
+    </row>
+    <row r="6316">
+      <c r="A6316" s="1" t="inlineStr">
+        <is>
+          <t>서예요</t>
+        </is>
+      </c>
+      <c r="B6316" t="inlineStr"/>
+      <c r="C6316" t="inlineStr"/>
+      <c r="D6316" t="inlineStr"/>
+    </row>
+    <row r="6317">
+      <c r="A6317" s="1" t="inlineStr">
+        <is>
+          <t>삼덕</t>
+        </is>
+      </c>
+      <c r="B6317" t="inlineStr"/>
+      <c r="C6317" t="inlineStr"/>
+      <c r="D6317" t="inlineStr"/>
+    </row>
+    <row r="6318">
+      <c r="A6318" s="1" t="inlineStr">
+        <is>
+          <t>낫겠습니다</t>
+        </is>
+      </c>
+      <c r="B6318" t="inlineStr"/>
+      <c r="C6318" t="inlineStr"/>
+      <c r="D6318" t="inlineStr"/>
+    </row>
+    <row r="6319">
+      <c r="A6319" s="1" t="inlineStr">
+        <is>
+          <t>동아</t>
+        </is>
+      </c>
+      <c r="B6319" t="inlineStr"/>
+      <c r="C6319" t="inlineStr"/>
+      <c r="D6319" t="inlineStr"/>
+    </row>
+    <row r="6320">
+      <c r="A6320" s="1" t="inlineStr">
+        <is>
+          <t>오도</t>
+        </is>
+      </c>
+      <c r="B6320" t="inlineStr"/>
+      <c r="C6320" t="inlineStr"/>
+      <c r="D6320" t="inlineStr"/>
+    </row>
+    <row r="6321">
+      <c r="A6321" s="1" t="inlineStr">
+        <is>
+          <t>팔월</t>
+        </is>
+      </c>
+      <c r="B6321" t="inlineStr"/>
+      <c r="C6321" t="inlineStr"/>
+      <c r="D6321" t="inlineStr"/>
+    </row>
+    <row r="6322">
+      <c r="A6322" s="1" t="inlineStr">
+        <is>
+          <t>해드릴게요</t>
+        </is>
+      </c>
+      <c r="B6322" t="inlineStr"/>
+      <c r="C6322" t="inlineStr"/>
+      <c r="D6322" t="inlineStr"/>
+    </row>
+    <row r="6323">
+      <c r="A6323" s="1" t="inlineStr">
+        <is>
+          <t>문의하셨는데</t>
+        </is>
+      </c>
+      <c r="B6323" t="inlineStr"/>
+      <c r="C6323" t="inlineStr"/>
+      <c r="D6323" t="inlineStr"/>
+    </row>
+    <row r="6324">
+      <c r="A6324" s="1" t="inlineStr">
+        <is>
+          <t>오십오고</t>
+        </is>
+      </c>
+      <c r="B6324" t="inlineStr"/>
+      <c r="C6324" t="inlineStr"/>
+      <c r="D6324" t="inlineStr"/>
+    </row>
+    <row r="6325">
+      <c r="A6325" s="1" t="inlineStr">
+        <is>
+          <t>차고요</t>
+        </is>
+      </c>
+      <c r="B6325" t="inlineStr"/>
+      <c r="C6325" t="inlineStr"/>
+      <c r="D6325" t="inlineStr"/>
+    </row>
+    <row r="6326">
+      <c r="A6326" s="1" t="inlineStr">
+        <is>
+          <t>동물</t>
+        </is>
+      </c>
+      <c r="B6326" t="inlineStr"/>
+      <c r="C6326" t="inlineStr"/>
+      <c r="D6326" t="inlineStr"/>
+    </row>
+    <row r="6327">
+      <c r="A6327" s="1" t="inlineStr">
+        <is>
+          <t>하셨고요</t>
+        </is>
+      </c>
+      <c r="B6327" t="inlineStr"/>
+      <c r="C6327" t="inlineStr"/>
+      <c r="D6327" t="inlineStr"/>
+    </row>
+    <row r="6328">
+      <c r="A6328" s="1" t="inlineStr">
+        <is>
+          <t>반대편에</t>
+        </is>
+      </c>
+      <c r="B6328" t="inlineStr"/>
+      <c r="C6328" t="inlineStr"/>
+      <c r="D6328" t="inlineStr"/>
+    </row>
+    <row r="6329">
+      <c r="A6329" s="1" t="inlineStr">
+        <is>
+          <t>팔백삼십육</t>
+        </is>
+      </c>
+      <c r="B6329" t="inlineStr"/>
+      <c r="C6329" t="inlineStr"/>
+      <c r="D6329" t="inlineStr"/>
+    </row>
+    <row r="6330">
+      <c r="A6330" s="1" t="inlineStr">
+        <is>
+          <t>강산</t>
+        </is>
+      </c>
+      <c r="B6330" t="inlineStr"/>
+      <c r="C6330" t="inlineStr"/>
+      <c r="D6330" t="inlineStr"/>
+    </row>
+    <row r="6331">
+      <c r="A6331" s="1" t="inlineStr">
+        <is>
+          <t>건너편이</t>
+        </is>
+      </c>
+      <c r="B6331" t="inlineStr"/>
+      <c r="C6331" t="inlineStr"/>
+      <c r="D6331" t="inlineStr"/>
+    </row>
+    <row r="6332">
+      <c r="A6332" s="1" t="inlineStr">
+        <is>
+          <t>합동청사</t>
+        </is>
+      </c>
+      <c r="B6332" t="inlineStr"/>
+      <c r="C6332" t="inlineStr"/>
+      <c r="D6332" t="inlineStr"/>
+    </row>
+    <row r="6333">
+      <c r="A6333" s="1" t="inlineStr">
+        <is>
+          <t>육백구</t>
+        </is>
+      </c>
+      <c r="B6333" t="inlineStr"/>
+      <c r="C6333" t="inlineStr"/>
+      <c r="D6333" t="inlineStr"/>
+    </row>
+    <row r="6334">
+      <c r="A6334" s="1" t="inlineStr">
+        <is>
+          <t>만평</t>
+        </is>
+      </c>
+      <c r="B6334" t="inlineStr"/>
+      <c r="C6334" t="inlineStr"/>
+      <c r="D6334" t="inlineStr"/>
+    </row>
+    <row r="6335">
+      <c r="A6335" s="1" t="inlineStr">
+        <is>
+          <t>사업조합에</t>
+        </is>
+      </c>
+      <c r="B6335" t="inlineStr"/>
+      <c r="C6335" t="inlineStr"/>
+      <c r="D6335" t="inlineStr"/>
+    </row>
+    <row r="6336">
+      <c r="A6336" s="1" t="inlineStr">
+        <is>
+          <t>용광</t>
+        </is>
+      </c>
+      <c r="B6336" t="inlineStr"/>
+      <c r="C6336" t="inlineStr"/>
+      <c r="D6336" t="inlineStr"/>
+    </row>
+    <row r="6337">
+      <c r="A6337" s="1" t="inlineStr">
+        <is>
+          <t>쪽의</t>
+        </is>
+      </c>
+      <c r="B6337" t="inlineStr"/>
+      <c r="C6337" t="inlineStr"/>
+      <c r="D6337" t="inlineStr"/>
+    </row>
+    <row r="6338">
+      <c r="A6338" s="1" t="inlineStr">
+        <is>
+          <t>가도</t>
+        </is>
+      </c>
+      <c r="B6338" t="inlineStr"/>
+      <c r="C6338" t="inlineStr"/>
+      <c r="D6338" t="inlineStr"/>
+    </row>
+    <row r="6339">
+      <c r="A6339" s="1" t="inlineStr">
+        <is>
+          <t>개인택시냐</t>
+        </is>
+      </c>
+      <c r="B6339" t="inlineStr"/>
+      <c r="C6339" t="inlineStr"/>
+      <c r="D6339" t="inlineStr"/>
+    </row>
+    <row r="6340">
+      <c r="A6340" s="1" t="inlineStr">
+        <is>
+          <t>강변</t>
+        </is>
+      </c>
+      <c r="B6340" t="inlineStr"/>
+      <c r="C6340" t="inlineStr"/>
+      <c r="D6340" t="inlineStr"/>
+    </row>
+    <row r="6341">
+      <c r="A6341" s="1" t="inlineStr">
+        <is>
+          <t>대신동이고요</t>
+        </is>
+      </c>
+      <c r="B6341" t="inlineStr"/>
+      <c r="C6341" t="inlineStr"/>
+      <c r="D6341" t="inlineStr"/>
+    </row>
+    <row r="6342">
+      <c r="A6342" s="1" t="inlineStr">
+        <is>
+          <t>불법주차도</t>
+        </is>
+      </c>
+      <c r="B6342" t="inlineStr"/>
+      <c r="C6342" t="inlineStr"/>
+      <c r="D6342" t="inlineStr"/>
+    </row>
+    <row r="6343">
+      <c r="A6343" s="1" t="inlineStr">
+        <is>
+          <t>구삼팔오삼</t>
+        </is>
+      </c>
+      <c r="B6343" t="inlineStr"/>
+      <c r="C6343" t="inlineStr"/>
+      <c r="D6343" t="inlineStr"/>
+    </row>
+    <row r="6344">
+      <c r="A6344" s="1" t="inlineStr">
+        <is>
+          <t>있네</t>
+        </is>
+      </c>
+      <c r="B6344" t="inlineStr"/>
+      <c r="C6344" t="inlineStr"/>
+      <c r="D6344" t="inlineStr"/>
+    </row>
+    <row r="6345">
+      <c r="A6345" s="1" t="inlineStr">
+        <is>
+          <t>개역</t>
+        </is>
+      </c>
+      <c r="B6345" t="inlineStr"/>
+      <c r="C6345" t="inlineStr"/>
+      <c r="D6345" t="inlineStr"/>
+    </row>
+    <row r="6346">
+      <c r="A6346" s="1" t="inlineStr">
+        <is>
+          <t>테니까</t>
+        </is>
+      </c>
+      <c r="B6346" t="inlineStr"/>
+      <c r="C6346" t="inlineStr"/>
+      <c r="D6346" t="inlineStr"/>
+    </row>
+    <row r="6347">
+      <c r="A6347" s="1" t="inlineStr">
+        <is>
+          <t>번이고</t>
+        </is>
+      </c>
+      <c r="B6347" t="inlineStr"/>
+      <c r="C6347" t="inlineStr"/>
+      <c r="D6347" t="inlineStr"/>
+    </row>
+    <row r="6348">
+      <c r="A6348" s="1" t="inlineStr">
+        <is>
+          <t>가니까</t>
+        </is>
+      </c>
+      <c r="B6348" t="inlineStr"/>
+      <c r="C6348" t="inlineStr"/>
+      <c r="D6348" t="inlineStr"/>
+    </row>
+    <row r="6349">
+      <c r="A6349" s="1" t="inlineStr">
+        <is>
+          <t>나와요</t>
+        </is>
+      </c>
+      <c r="B6349" t="inlineStr"/>
+      <c r="C6349" t="inlineStr"/>
+      <c r="D6349" t="inlineStr"/>
+    </row>
+    <row r="6350">
+      <c r="A6350" s="1" t="inlineStr">
+        <is>
+          <t>그에</t>
+        </is>
+      </c>
+      <c r="B6350" t="inlineStr"/>
+      <c r="C6350" t="inlineStr"/>
+      <c r="D6350" t="inlineStr"/>
+    </row>
+    <row r="6351">
+      <c r="A6351" s="1" t="inlineStr">
+        <is>
+          <t>달이</t>
+        </is>
+      </c>
+      <c r="B6351" t="inlineStr"/>
+      <c r="C6351" t="inlineStr"/>
+      <c r="D6351" t="inlineStr"/>
+    </row>
+    <row r="6352">
+      <c r="A6352" s="1" t="inlineStr">
+        <is>
+          <t>청구아파트</t>
+        </is>
+      </c>
+      <c r="B6352" t="inlineStr"/>
+      <c r="C6352" t="inlineStr"/>
+      <c r="D6352" t="inlineStr"/>
+    </row>
+    <row r="6353">
+      <c r="A6353" s="1" t="inlineStr">
+        <is>
+          <t>진</t>
+        </is>
+      </c>
+      <c r="B6353" t="inlineStr"/>
+      <c r="C6353" t="inlineStr"/>
+      <c r="D6353" t="inlineStr"/>
+    </row>
+    <row r="6354">
+      <c r="A6354" s="1" t="inlineStr">
+        <is>
+          <t>있는덴데요</t>
+        </is>
+      </c>
+      <c r="B6354" t="inlineStr"/>
+      <c r="C6354" t="inlineStr"/>
+      <c r="D6354" t="inlineStr"/>
+    </row>
+    <row r="6355">
+      <c r="A6355" s="1" t="inlineStr">
+        <is>
+          <t>언제쯤</t>
+        </is>
+      </c>
+      <c r="B6355" t="inlineStr"/>
+      <c r="C6355" t="inlineStr"/>
+      <c r="D6355" t="inlineStr"/>
+    </row>
+    <row r="6356">
+      <c r="A6356" s="1" t="inlineStr">
+        <is>
+          <t>십삼</t>
+        </is>
+      </c>
+      <c r="B6356" t="inlineStr"/>
+      <c r="C6356" t="inlineStr"/>
+      <c r="D6356" t="inlineStr"/>
+    </row>
+    <row r="6357">
+      <c r="A6357" s="1" t="inlineStr">
+        <is>
+          <t>금호</t>
+        </is>
+      </c>
+      <c r="B6357" t="inlineStr"/>
+      <c r="C6357" t="inlineStr"/>
+      <c r="D6357" t="inlineStr"/>
+    </row>
+    <row r="6358">
+      <c r="A6358" s="1" t="inlineStr">
+        <is>
+          <t>쪽이니까</t>
+        </is>
+      </c>
+      <c r="B6358" t="inlineStr"/>
+      <c r="C6358" t="inlineStr"/>
+      <c r="D6358" t="inlineStr"/>
+    </row>
+    <row r="6359">
+      <c r="A6359" s="1" t="inlineStr">
+        <is>
+          <t>일요일이다</t>
+        </is>
+      </c>
+      <c r="B6359" t="inlineStr"/>
+      <c r="C6359" t="inlineStr"/>
+      <c r="D6359" t="inlineStr"/>
+    </row>
+    <row r="6360">
+      <c r="A6360" s="1" t="inlineStr">
+        <is>
+          <t>봐가지고</t>
+        </is>
+      </c>
+      <c r="B6360" t="inlineStr"/>
+      <c r="C6360" t="inlineStr"/>
+      <c r="D6360" t="inlineStr"/>
+    </row>
+    <row r="6361">
+      <c r="A6361" s="1" t="inlineStr">
+        <is>
+          <t>강남</t>
+        </is>
+      </c>
+      <c r="B6361" t="inlineStr"/>
+      <c r="C6361" t="inlineStr"/>
+      <c r="D6361" t="inlineStr"/>
+    </row>
+    <row r="6362">
+      <c r="A6362" s="1" t="inlineStr">
+        <is>
+          <t>오백</t>
+        </is>
+      </c>
+      <c r="B6362" t="inlineStr"/>
+      <c r="C6362" t="inlineStr"/>
+      <c r="D6362" t="inlineStr"/>
+    </row>
+    <row r="6363">
+      <c r="A6363" s="1" t="inlineStr">
+        <is>
+          <t>밸리로</t>
+        </is>
+      </c>
+      <c r="B6363" t="inlineStr"/>
+      <c r="C6363" t="inlineStr"/>
+      <c r="D6363" t="inlineStr"/>
+    </row>
+    <row r="6364">
+      <c r="A6364" s="1" t="inlineStr">
+        <is>
+          <t>한두</t>
+        </is>
+      </c>
+      <c r="B6364" t="inlineStr"/>
+      <c r="C6364" t="inlineStr"/>
+      <c r="D6364" t="inlineStr"/>
+    </row>
+    <row r="6365">
+      <c r="A6365" s="1" t="inlineStr">
+        <is>
+          <t>오십</t>
+        </is>
+      </c>
+      <c r="B6365" t="inlineStr"/>
+      <c r="C6365" t="inlineStr"/>
+      <c r="D6365" t="inlineStr"/>
+    </row>
+    <row r="6366">
+      <c r="A6366" s="1" t="inlineStr">
+        <is>
+          <t>중앙로</t>
+        </is>
+      </c>
+      <c r="B6366" t="inlineStr"/>
+      <c r="C6366" t="inlineStr"/>
+      <c r="D6366" t="inlineStr"/>
+    </row>
+    <row r="6367">
+      <c r="A6367" s="1" t="inlineStr">
+        <is>
+          <t>남구청이</t>
+        </is>
+      </c>
+      <c r="B6367" t="inlineStr"/>
+      <c r="C6367" t="inlineStr"/>
+      <c r="D6367" t="inlineStr"/>
+    </row>
+    <row r="6368">
+      <c r="A6368" s="1" t="inlineStr">
+        <is>
+          <t>오십분에</t>
+        </is>
+      </c>
+      <c r="B6368" t="inlineStr"/>
+      <c r="C6368" t="inlineStr"/>
+      <c r="D6368" t="inlineStr"/>
+    </row>
+    <row r="6369">
+      <c r="A6369" s="1" t="inlineStr">
+        <is>
+          <t>안내기가</t>
+        </is>
+      </c>
+      <c r="B6369" t="inlineStr"/>
+      <c r="C6369" t="inlineStr"/>
+      <c r="D6369" t="inlineStr"/>
+    </row>
+    <row r="6370">
+      <c r="A6370" s="1" t="inlineStr">
+        <is>
+          <t>청문회</t>
+        </is>
+      </c>
+      <c r="B6370" t="inlineStr"/>
+      <c r="C6370" t="inlineStr"/>
+      <c r="D6370" t="inlineStr"/>
+    </row>
+    <row r="6371">
+      <c r="A6371" s="1" t="inlineStr">
+        <is>
+          <t>갔다</t>
+        </is>
+      </c>
+      <c r="B6371" t="inlineStr"/>
+      <c r="C6371" t="inlineStr"/>
+      <c r="D6371" t="inlineStr"/>
+    </row>
+    <row r="6372">
+      <c r="A6372" s="1" t="inlineStr">
+        <is>
+          <t>테니</t>
+        </is>
+      </c>
+      <c r="B6372" t="inlineStr"/>
+      <c r="C6372" t="inlineStr"/>
+      <c r="D6372" t="inlineStr"/>
+    </row>
+    <row r="6373">
+      <c r="A6373" s="1" t="inlineStr">
+        <is>
+          <t>면은</t>
+        </is>
+      </c>
+      <c r="B6373" t="inlineStr"/>
+      <c r="C6373" t="inlineStr"/>
+      <c r="D6373" t="inlineStr"/>
+    </row>
+    <row r="6374">
+      <c r="A6374" s="1" t="inlineStr">
+        <is>
+          <t>상황에</t>
+        </is>
+      </c>
+      <c r="B6374" t="inlineStr"/>
+      <c r="C6374" t="inlineStr"/>
+      <c r="D6374" t="inlineStr"/>
+    </row>
+    <row r="6375">
+      <c r="A6375" s="1" t="inlineStr">
+        <is>
+          <t>아웃렛</t>
+        </is>
+      </c>
+      <c r="B6375" t="inlineStr"/>
+      <c r="C6375" t="inlineStr"/>
+      <c r="D6375" t="inlineStr"/>
+    </row>
+    <row r="6376">
+      <c r="A6376" s="1" t="inlineStr">
+        <is>
+          <t>오셨을</t>
+        </is>
+      </c>
+      <c r="B6376" t="inlineStr"/>
+      <c r="C6376" t="inlineStr"/>
+      <c r="D6376" t="inlineStr"/>
+    </row>
+    <row r="6377">
+      <c r="A6377" s="1" t="inlineStr">
+        <is>
+          <t>백팔십</t>
+        </is>
+      </c>
+      <c r="B6377" t="inlineStr"/>
+      <c r="C6377" t="inlineStr"/>
+      <c r="D6377" t="inlineStr"/>
+    </row>
+    <row r="6378">
+      <c r="A6378" s="1" t="inlineStr">
+        <is>
+          <t>번호나</t>
+        </is>
+      </c>
+      <c r="B6378" t="inlineStr"/>
+      <c r="C6378" t="inlineStr"/>
+      <c r="D6378" t="inlineStr"/>
+    </row>
+    <row r="6379">
+      <c r="A6379" s="1" t="inlineStr">
+        <is>
+          <t>팔고</t>
+        </is>
+      </c>
+      <c r="B6379" t="inlineStr"/>
+      <c r="C6379" t="inlineStr"/>
+      <c r="D6379" t="inlineStr"/>
+    </row>
+    <row r="6380">
+      <c r="A6380" s="1" t="inlineStr">
+        <is>
+          <t>소명은</t>
+        </is>
+      </c>
+      <c r="B6380" t="inlineStr"/>
+      <c r="C6380" t="inlineStr"/>
+      <c r="D6380" t="inlineStr"/>
+    </row>
+    <row r="6381">
+      <c r="A6381" s="1" t="inlineStr">
+        <is>
+          <t>공사</t>
+        </is>
+      </c>
+      <c r="B6381" t="inlineStr"/>
+      <c r="C6381" t="inlineStr"/>
+      <c r="D6381" t="inlineStr"/>
+    </row>
+    <row r="6382">
+      <c r="A6382" s="1" t="inlineStr">
+        <is>
+          <t>나요</t>
+        </is>
+      </c>
+      <c r="B6382" t="inlineStr"/>
+      <c r="C6382" t="inlineStr"/>
+      <c r="D6382" t="inlineStr"/>
+    </row>
+    <row r="6383">
+      <c r="A6383" s="1" t="inlineStr">
+        <is>
+          <t>이번에서</t>
+        </is>
+      </c>
+      <c r="B6383" t="inlineStr"/>
+      <c r="C6383" t="inlineStr"/>
+      <c r="D6383" t="inlineStr"/>
+    </row>
+    <row r="6384">
+      <c r="A6384" s="1" t="inlineStr">
+        <is>
+          <t>오분가량에</t>
+        </is>
+      </c>
+      <c r="B6384" t="inlineStr"/>
+      <c r="C6384" t="inlineStr"/>
+      <c r="D6384" t="inlineStr"/>
+    </row>
+    <row r="6385">
+      <c r="A6385" s="1" t="inlineStr">
+        <is>
+          <t>하다</t>
+        </is>
+      </c>
+      <c r="B6385" t="inlineStr"/>
+      <c r="C6385" t="inlineStr"/>
+      <c r="D6385" t="inlineStr"/>
+    </row>
+    <row r="6386">
+      <c r="A6386" s="1" t="inlineStr">
+        <is>
+          <t>운영에</t>
+        </is>
+      </c>
+      <c r="B6386" t="inlineStr"/>
+      <c r="C6386" t="inlineStr"/>
+      <c r="D6386" t="inlineStr"/>
+    </row>
+    <row r="6387">
+      <c r="A6387" s="1" t="inlineStr">
+        <is>
+          <t>구백삼십구</t>
+        </is>
+      </c>
+      <c r="B6387" t="inlineStr"/>
+      <c r="C6387" t="inlineStr"/>
+      <c r="D6387" t="inlineStr"/>
+    </row>
+    <row r="6388">
+      <c r="A6388" s="1" t="inlineStr">
+        <is>
+          <t>관련돼</t>
+        </is>
+      </c>
+      <c r="B6388" t="inlineStr"/>
+      <c r="C6388" t="inlineStr"/>
+      <c r="D6388" t="inlineStr"/>
+    </row>
+    <row r="6389">
+      <c r="A6389" s="1" t="inlineStr">
+        <is>
+          <t>보도</t>
+        </is>
+      </c>
+      <c r="B6389" t="inlineStr"/>
+      <c r="C6389" t="inlineStr"/>
+      <c r="D6389" t="inlineStr"/>
+    </row>
+    <row r="6390">
+      <c r="A6390" s="1" t="inlineStr">
+        <is>
+          <t>안된</t>
+        </is>
+      </c>
+      <c r="B6390" t="inlineStr"/>
+      <c r="C6390" t="inlineStr"/>
+      <c r="D6390" t="inlineStr"/>
+    </row>
+    <row r="6391">
+      <c r="A6391" s="1" t="inlineStr">
+        <is>
+          <t>오거리</t>
+        </is>
+      </c>
+      <c r="B6391" t="inlineStr"/>
+      <c r="C6391" t="inlineStr"/>
+      <c r="D6391" t="inlineStr"/>
+    </row>
+    <row r="6392">
+      <c r="A6392" s="1" t="inlineStr">
+        <is>
+          <t>플라자요</t>
+        </is>
+      </c>
+      <c r="B6392" t="inlineStr"/>
+      <c r="C6392" t="inlineStr"/>
+      <c r="D6392" t="inlineStr"/>
+    </row>
+    <row r="6393">
+      <c r="A6393" s="1" t="inlineStr">
+        <is>
+          <t>육일</t>
+        </is>
+      </c>
+      <c r="B6393" t="inlineStr"/>
+      <c r="C6393" t="inlineStr"/>
+      <c r="D6393" t="inlineStr"/>
+    </row>
+    <row r="6394">
+      <c r="A6394" s="1" t="inlineStr">
+        <is>
+          <t>팔삼오요</t>
+        </is>
+      </c>
+      <c r="B6394" t="inlineStr"/>
+      <c r="C6394" t="inlineStr"/>
+      <c r="D6394" t="inlineStr"/>
+    </row>
+    <row r="6395">
+      <c r="A6395" s="1" t="inlineStr">
+        <is>
+          <t>대로에</t>
+        </is>
+      </c>
+      <c r="B6395" t="inlineStr"/>
+      <c r="C6395" t="inlineStr"/>
+      <c r="D6395" t="inlineStr"/>
+    </row>
+    <row r="6396">
+      <c r="A6396" s="1" t="inlineStr">
+        <is>
+          <t>대회가</t>
+        </is>
+      </c>
+      <c r="B6396" t="inlineStr"/>
+      <c r="C6396" t="inlineStr"/>
+      <c r="D6396" t="inlineStr"/>
+    </row>
+    <row r="6397">
+      <c r="A6397" s="1" t="inlineStr">
+        <is>
+          <t>시켜</t>
+        </is>
+      </c>
+      <c r="B6397" t="inlineStr"/>
+      <c r="C6397" t="inlineStr"/>
+      <c r="D6397" t="inlineStr"/>
+    </row>
+    <row r="6398">
+      <c r="A6398" s="1" t="inlineStr">
+        <is>
+          <t>산업용</t>
+        </is>
+      </c>
+      <c r="B6398" t="inlineStr"/>
+      <c r="C6398" t="inlineStr"/>
+      <c r="D6398" t="inlineStr"/>
+    </row>
+    <row r="6399">
+      <c r="A6399" s="1" t="inlineStr">
+        <is>
+          <t>측에서</t>
+        </is>
+      </c>
+      <c r="B6399" t="inlineStr"/>
+      <c r="C6399" t="inlineStr"/>
+      <c r="D6399" t="inlineStr"/>
+    </row>
+    <row r="6400">
+      <c r="A6400" s="1" t="inlineStr">
+        <is>
+          <t>이륙</t>
+        </is>
+      </c>
+      <c r="B6400" t="inlineStr"/>
+      <c r="C6400" t="inlineStr"/>
+      <c r="D6400" t="inlineStr"/>
+    </row>
+    <row r="6401">
+      <c r="A6401" s="1" t="inlineStr">
+        <is>
+          <t>사백사십구</t>
+        </is>
+      </c>
+      <c r="B6401" t="inlineStr"/>
+      <c r="C6401" t="inlineStr"/>
+      <c r="D6401" t="inlineStr"/>
+    </row>
+    <row r="6402">
+      <c r="A6402" s="1" t="inlineStr">
+        <is>
+          <t>삼십분쯤에</t>
+        </is>
+      </c>
+      <c r="B6402" t="inlineStr"/>
+      <c r="C6402" t="inlineStr"/>
+      <c r="D6402" t="inlineStr"/>
+    </row>
+    <row r="6403">
+      <c r="A6403" s="1" t="inlineStr">
+        <is>
+          <t>찾아가려고</t>
+        </is>
+      </c>
+      <c r="B6403" t="inlineStr"/>
+      <c r="C6403" t="inlineStr"/>
+      <c r="D6403" t="inlineStr"/>
+    </row>
+    <row r="6404">
+      <c r="A6404" s="1" t="inlineStr">
+        <is>
+          <t>결제하시거나</t>
+        </is>
+      </c>
+      <c r="B6404" t="inlineStr"/>
+      <c r="C6404" t="inlineStr"/>
+      <c r="D6404" t="inlineStr"/>
+    </row>
+    <row r="6405">
+      <c r="A6405" s="1" t="inlineStr">
+        <is>
+          <t>오후</t>
+        </is>
+      </c>
+      <c r="B6405" t="inlineStr"/>
+      <c r="C6405" t="inlineStr"/>
+      <c r="D6405" t="inlineStr"/>
+    </row>
+    <row r="6406">
+      <c r="A6406" s="1" t="inlineStr">
+        <is>
+          <t>아기랑</t>
+        </is>
+      </c>
+      <c r="B6406" t="inlineStr"/>
+      <c r="C6406" t="inlineStr"/>
+      <c r="D6406" t="inlineStr"/>
+    </row>
+    <row r="6407">
+      <c r="A6407" s="1" t="inlineStr">
+        <is>
+          <t>맨</t>
+        </is>
+      </c>
+      <c r="B6407" t="inlineStr"/>
+      <c r="C6407" t="inlineStr"/>
+      <c r="D6407" t="inlineStr"/>
+    </row>
+    <row r="6408">
+      <c r="A6408" s="1" t="inlineStr">
+        <is>
+          <t>페이먼트라는</t>
+        </is>
+      </c>
+      <c r="B6408" t="inlineStr"/>
+      <c r="C6408" t="inlineStr"/>
+      <c r="D6408" t="inlineStr"/>
+    </row>
+    <row r="6409">
+      <c r="A6409" s="1" t="inlineStr">
+        <is>
+          <t>내릴라</t>
+        </is>
+      </c>
+      <c r="B6409" t="inlineStr"/>
+      <c r="C6409" t="inlineStr"/>
+      <c r="D6409" t="inlineStr"/>
+    </row>
+    <row r="6410">
+      <c r="A6410" s="1" t="inlineStr">
+        <is>
+          <t>아기가</t>
+        </is>
+      </c>
+      <c r="B6410" t="inlineStr"/>
+      <c r="C6410" t="inlineStr"/>
+      <c r="D6410" t="inlineStr"/>
+    </row>
+    <row r="6411">
+      <c r="A6411" s="1" t="inlineStr">
+        <is>
+          <t>영남에</t>
+        </is>
+      </c>
+      <c r="B6411" t="inlineStr"/>
+      <c r="C6411" t="inlineStr"/>
+      <c r="D6411" t="inlineStr"/>
+    </row>
+    <row r="6412">
+      <c r="A6412" s="1" t="inlineStr">
+        <is>
+          <t>교통이고요</t>
+        </is>
+      </c>
+      <c r="B6412" t="inlineStr"/>
+      <c r="C6412" t="inlineStr"/>
+      <c r="D6412" t="inlineStr"/>
+    </row>
+    <row r="6413">
+      <c r="A6413" s="1" t="inlineStr">
+        <is>
+          <t>번지</t>
+        </is>
+      </c>
+      <c r="B6413" t="inlineStr"/>
+      <c r="C6413" t="inlineStr"/>
+      <c r="D6413" t="inlineStr"/>
+    </row>
+    <row r="6414">
+      <c r="A6414" s="1" t="inlineStr">
+        <is>
+          <t>화원농협이</t>
+        </is>
+      </c>
+      <c r="B6414" t="inlineStr"/>
+      <c r="C6414" t="inlineStr"/>
+      <c r="D6414" t="inlineStr"/>
+    </row>
+    <row r="6415">
+      <c r="A6415" s="1" t="inlineStr">
+        <is>
+          <t>남다르게</t>
+        </is>
+      </c>
+      <c r="B6415" t="inlineStr"/>
+      <c r="C6415" t="inlineStr"/>
+      <c r="D6415" t="inlineStr"/>
+    </row>
+    <row r="6416">
+      <c r="A6416" s="1" t="inlineStr">
+        <is>
+          <t>공보이</t>
+        </is>
+      </c>
+      <c r="B6416" t="inlineStr"/>
+      <c r="C6416" t="inlineStr"/>
+      <c r="D6416" t="inlineStr"/>
+    </row>
+    <row r="6417">
+      <c r="A6417" s="1" t="inlineStr">
+        <is>
+          <t>버스라든지</t>
+        </is>
+      </c>
+      <c r="B6417" t="inlineStr"/>
+      <c r="C6417" t="inlineStr"/>
+      <c r="D6417" t="inlineStr"/>
+    </row>
+    <row r="6418">
+      <c r="A6418" s="1" t="inlineStr">
+        <is>
+          <t>불친절</t>
+        </is>
+      </c>
+      <c r="B6418" t="inlineStr"/>
+      <c r="C6418" t="inlineStr"/>
+      <c r="D6418" t="inlineStr"/>
+    </row>
+    <row r="6419">
+      <c r="A6419" s="1" t="inlineStr">
+        <is>
+          <t>그니께</t>
+        </is>
+      </c>
+      <c r="B6419" t="inlineStr"/>
+      <c r="C6419" t="inlineStr"/>
+      <c r="D6419" t="inlineStr"/>
+    </row>
+    <row r="6420">
+      <c r="A6420" s="1" t="inlineStr">
+        <is>
+          <t>선다고</t>
+        </is>
+      </c>
+      <c r="B6420" t="inlineStr"/>
+      <c r="C6420" t="inlineStr"/>
+      <c r="D6420" t="inlineStr"/>
+    </row>
+    <row r="6421">
+      <c r="A6421" s="1" t="inlineStr">
+        <is>
+          <t>처리했다고</t>
+        </is>
+      </c>
+      <c r="B6421" t="inlineStr"/>
+      <c r="C6421" t="inlineStr"/>
+      <c r="D6421" t="inlineStr"/>
+    </row>
+    <row r="6422">
+      <c r="A6422" s="1" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="B6422" t="inlineStr"/>
+      <c r="C6422" t="inlineStr"/>
+      <c r="D6422" t="inlineStr"/>
+    </row>
+    <row r="6423">
+      <c r="A6423" s="1" t="inlineStr">
+        <is>
+          <t>해봐드릴</t>
+        </is>
+      </c>
+      <c r="B6423" t="inlineStr"/>
+      <c r="C6423" t="inlineStr"/>
+      <c r="D6423" t="inlineStr"/>
+    </row>
+    <row r="6424">
+      <c r="A6424" s="1" t="inlineStr">
+        <is>
+          <t>사팔</t>
+        </is>
+      </c>
+      <c r="B6424" t="inlineStr"/>
+      <c r="C6424" t="inlineStr"/>
+      <c r="D6424" t="inlineStr"/>
+    </row>
+    <row r="6425">
+      <c r="A6425" s="1" t="inlineStr">
+        <is>
+          <t>오래된</t>
+        </is>
+      </c>
+      <c r="B6425" t="inlineStr"/>
+      <c r="C6425" t="inlineStr"/>
+      <c r="D6425" t="inlineStr"/>
+    </row>
+    <row r="6426">
+      <c r="A6426" s="1" t="inlineStr">
+        <is>
+          <t>옵니다</t>
+        </is>
+      </c>
+      <c r="B6426" t="inlineStr"/>
+      <c r="C6426" t="inlineStr"/>
+      <c r="D6426" t="inlineStr"/>
+    </row>
+    <row r="6427">
+      <c r="A6427" s="1" t="inlineStr">
+        <is>
+          <t>주고요</t>
+        </is>
+      </c>
+      <c r="B6427" t="inlineStr"/>
+      <c r="C6427" t="inlineStr"/>
+      <c r="D6427" t="inlineStr"/>
+    </row>
+    <row r="6428">
+      <c r="A6428" s="1" t="inlineStr">
+        <is>
+          <t>싶길</t>
+        </is>
+      </c>
+      <c r="B6428" t="inlineStr"/>
+      <c r="C6428" t="inlineStr"/>
+      <c r="D6428" t="inlineStr"/>
+    </row>
+    <row r="6429">
+      <c r="A6429" s="1" t="inlineStr">
+        <is>
+          <t>자동차거든요</t>
+        </is>
+      </c>
+      <c r="B6429" t="inlineStr"/>
+      <c r="C6429" t="inlineStr"/>
+      <c r="D6429" t="inlineStr"/>
+    </row>
+    <row r="6430">
+      <c r="A6430" s="1" t="inlineStr">
+        <is>
+          <t>이십이</t>
+        </is>
+      </c>
+      <c r="B6430" t="inlineStr"/>
+      <c r="C6430" t="inlineStr"/>
+      <c r="D6430" t="inlineStr"/>
+    </row>
+    <row r="6431">
+      <c r="A6431" s="1" t="inlineStr">
+        <is>
+          <t>계시고요</t>
+        </is>
+      </c>
+      <c r="B6431" t="inlineStr"/>
+      <c r="C6431" t="inlineStr"/>
+      <c r="D6431" t="inlineStr"/>
+    </row>
+    <row r="6432">
+      <c r="A6432" s="1" t="inlineStr">
+        <is>
+          <t>쪽입니까</t>
+        </is>
+      </c>
+      <c r="B6432" t="inlineStr"/>
+      <c r="C6432" t="inlineStr"/>
+      <c r="D6432" t="inlineStr"/>
+    </row>
+    <row r="6433">
+      <c r="A6433" s="1" t="inlineStr">
+        <is>
+          <t>앞이에요</t>
+        </is>
+      </c>
+      <c r="B6433" t="inlineStr"/>
+      <c r="C6433" t="inlineStr"/>
+      <c r="D6433" t="inlineStr"/>
+    </row>
+    <row r="6434">
+      <c r="A6434" s="1" t="inlineStr">
+        <is>
+          <t>육백오십오</t>
+        </is>
+      </c>
+      <c r="B6434" t="inlineStr"/>
+      <c r="C6434" t="inlineStr"/>
+      <c r="D6434" t="inlineStr"/>
+    </row>
+    <row r="6435">
+      <c r="A6435" s="1" t="inlineStr">
+        <is>
+          <t>고장</t>
+        </is>
+      </c>
+      <c r="B6435" t="inlineStr"/>
+      <c r="C6435" t="inlineStr"/>
+      <c r="D6435" t="inlineStr"/>
+    </row>
+    <row r="6436">
+      <c r="A6436" s="1" t="inlineStr">
+        <is>
+          <t>경우</t>
+        </is>
+      </c>
+      <c r="B6436" t="inlineStr"/>
+      <c r="C6436" t="inlineStr"/>
+      <c r="D6436" t="inlineStr"/>
+    </row>
+    <row r="6437">
+      <c r="A6437" s="1" t="inlineStr">
+        <is>
+          <t>번에서</t>
+        </is>
+      </c>
+      <c r="B6437" t="inlineStr"/>
+      <c r="C6437" t="inlineStr"/>
+      <c r="D6437" t="inlineStr"/>
+    </row>
+    <row r="6438">
+      <c r="A6438" s="1" t="inlineStr">
+        <is>
+          <t>거보다는</t>
+        </is>
+      </c>
+      <c r="B6438" t="inlineStr"/>
+      <c r="C6438" t="inlineStr"/>
+      <c r="D6438" t="inlineStr"/>
+    </row>
+    <row r="6439">
+      <c r="A6439" s="1" t="inlineStr">
+        <is>
+          <t>십팔번</t>
+        </is>
+      </c>
+      <c r="B6439" t="inlineStr"/>
+      <c r="C6439" t="inlineStr"/>
+      <c r="D6439" t="inlineStr"/>
+    </row>
+    <row r="6440">
+      <c r="A6440" s="1" t="inlineStr">
+        <is>
+          <t>지났어갔거든요</t>
+        </is>
+      </c>
+      <c r="B6440" t="inlineStr"/>
+      <c r="C6440" t="inlineStr"/>
+      <c r="D6440" t="inlineStr"/>
+    </row>
+    <row r="6441">
+      <c r="A6441" s="1" t="inlineStr">
+        <is>
+          <t>아가씨여</t>
+        </is>
+      </c>
+      <c r="B6441" t="inlineStr"/>
+      <c r="C6441" t="inlineStr"/>
+      <c r="D6441" t="inlineStr"/>
+    </row>
+    <row r="6442">
+      <c r="A6442" s="1" t="inlineStr">
+        <is>
+          <t>냈으면</t>
+        </is>
+      </c>
+      <c r="B6442" t="inlineStr"/>
+      <c r="C6442" t="inlineStr"/>
+      <c r="D6442" t="inlineStr"/>
+    </row>
+    <row r="6443">
+      <c r="A6443" s="1" t="inlineStr">
+        <is>
+          <t>캐도</t>
+        </is>
+      </c>
+      <c r="B6443" t="inlineStr"/>
+      <c r="C6443" t="inlineStr"/>
+      <c r="D6443" t="inlineStr"/>
+    </row>
+    <row r="6444">
+      <c r="A6444" s="1" t="inlineStr">
+        <is>
+          <t>침산</t>
+        </is>
+      </c>
+      <c r="B6444" t="inlineStr"/>
+      <c r="C6444" t="inlineStr"/>
+      <c r="D6444" t="inlineStr"/>
+    </row>
+    <row r="6445">
+      <c r="A6445" s="1" t="inlineStr">
+        <is>
+          <t>어딜</t>
+        </is>
+      </c>
+      <c r="B6445" t="inlineStr"/>
+      <c r="C6445" t="inlineStr"/>
+      <c r="D6445" t="inlineStr"/>
+    </row>
+    <row r="6446">
+      <c r="A6446" s="1" t="inlineStr">
+        <is>
+          <t>출근</t>
+        </is>
+      </c>
+      <c r="B6446" t="inlineStr"/>
+      <c r="C6446" t="inlineStr"/>
+      <c r="D6446" t="inlineStr"/>
+    </row>
+    <row r="6447">
+      <c r="A6447" s="1" t="inlineStr">
+        <is>
+          <t>주도록</t>
+        </is>
+      </c>
+      <c r="B6447" t="inlineStr"/>
+      <c r="C6447" t="inlineStr"/>
+      <c r="D6447" t="inlineStr"/>
+    </row>
+    <row r="6448">
+      <c r="A6448" s="1" t="inlineStr">
+        <is>
+          <t>외에도</t>
+        </is>
+      </c>
+      <c r="B6448" t="inlineStr"/>
+      <c r="C6448" t="inlineStr"/>
+      <c r="D6448" t="inlineStr"/>
+    </row>
+    <row r="6449">
+      <c r="A6449" s="1" t="inlineStr">
+        <is>
+          <t>서고</t>
+        </is>
+      </c>
+      <c r="B6449" t="inlineStr"/>
+      <c r="C6449" t="inlineStr"/>
+      <c r="D6449" t="inlineStr"/>
+    </row>
+    <row r="6450">
+      <c r="A6450" s="1" t="inlineStr">
+        <is>
+          <t>칠이사</t>
+        </is>
+      </c>
+      <c r="B6450" t="inlineStr"/>
+      <c r="C6450" t="inlineStr"/>
+      <c r="D6450" t="inlineStr"/>
+    </row>
+    <row r="6451">
+      <c r="A6451" s="1" t="inlineStr">
+        <is>
+          <t>터미널에서</t>
+        </is>
+      </c>
+      <c r="B6451" t="inlineStr"/>
+      <c r="C6451" t="inlineStr"/>
+      <c r="D6451" t="inlineStr"/>
+    </row>
+    <row r="6452">
+      <c r="A6452" s="1" t="inlineStr">
+        <is>
+          <t>맞더라고요</t>
+        </is>
+      </c>
+      <c r="B6452" t="inlineStr"/>
+      <c r="C6452" t="inlineStr"/>
+      <c r="D6452" t="inlineStr"/>
+    </row>
+    <row r="6453">
+      <c r="A6453" s="1" t="inlineStr">
+        <is>
+          <t>하느라</t>
+        </is>
+      </c>
+      <c r="B6453" t="inlineStr"/>
+      <c r="C6453" t="inlineStr"/>
+      <c r="D6453" t="inlineStr"/>
+    </row>
+    <row r="6454">
+      <c r="A6454" s="1" t="inlineStr">
+        <is>
+          <t>삼십사</t>
+        </is>
+      </c>
+      <c r="B6454" t="inlineStr"/>
+      <c r="C6454" t="inlineStr"/>
+      <c r="D6454" t="inlineStr"/>
+    </row>
+    <row r="6455">
+      <c r="A6455" s="1" t="inlineStr">
+        <is>
+          <t>라면</t>
+        </is>
+      </c>
+      <c r="B6455" t="inlineStr"/>
+      <c r="C6455" t="inlineStr"/>
+      <c r="D6455" t="inlineStr"/>
+    </row>
+    <row r="6456">
+      <c r="A6456" s="1" t="inlineStr">
+        <is>
+          <t>버스회사에서는</t>
+        </is>
+      </c>
+      <c r="B6456" t="inlineStr"/>
+      <c r="C6456" t="inlineStr"/>
+      <c r="D6456" t="inlineStr"/>
+    </row>
+    <row r="6457">
+      <c r="A6457" s="1" t="inlineStr">
+        <is>
+          <t>동명</t>
+        </is>
+      </c>
+      <c r="B6457" t="inlineStr"/>
+      <c r="C6457" t="inlineStr"/>
+      <c r="D6457" t="inlineStr"/>
+    </row>
+    <row r="6458">
+      <c r="A6458" s="1" t="inlineStr">
+        <is>
+          <t>준다고</t>
+        </is>
+      </c>
+      <c r="B6458" t="inlineStr"/>
+      <c r="C6458" t="inlineStr"/>
+      <c r="D6458" t="inlineStr"/>
+    </row>
+    <row r="6459">
+      <c r="A6459" s="1" t="inlineStr">
+        <is>
+          <t>그전에</t>
+        </is>
+      </c>
+      <c r="B6459" t="inlineStr"/>
+      <c r="C6459" t="inlineStr"/>
+      <c r="D6459" t="inlineStr"/>
+    </row>
+    <row r="6460">
+      <c r="A6460" s="1" t="inlineStr">
+        <is>
+          <t>국채</t>
+        </is>
+      </c>
+      <c r="B6460" t="inlineStr"/>
+      <c r="C6460" t="inlineStr"/>
+      <c r="D6460" t="inlineStr"/>
+    </row>
+    <row r="6461">
+      <c r="A6461" s="1" t="inlineStr">
+        <is>
+          <t>이천오백</t>
+        </is>
+      </c>
+      <c r="B6461" t="inlineStr"/>
+      <c r="C6461" t="inlineStr"/>
+      <c r="D6461" t="inlineStr"/>
+    </row>
+    <row r="6462">
+      <c r="A6462" s="1" t="inlineStr">
+        <is>
+          <t>버스였고요</t>
+        </is>
+      </c>
+      <c r="B6462" t="inlineStr"/>
+      <c r="C6462" t="inlineStr"/>
+      <c r="D6462" t="inlineStr"/>
+    </row>
+    <row r="6463">
+      <c r="A6463" s="1" t="inlineStr">
+        <is>
+          <t>맞은편에요</t>
+        </is>
+      </c>
+      <c r="B6463" t="inlineStr"/>
+      <c r="C6463" t="inlineStr"/>
+      <c r="D6463" t="inlineStr"/>
+    </row>
+    <row r="6464">
+      <c r="A6464" s="1" t="inlineStr">
+        <is>
+          <t>오더라고</t>
+        </is>
+      </c>
+      <c r="B6464" t="inlineStr"/>
+      <c r="C6464" t="inlineStr"/>
+      <c r="D6464" t="inlineStr"/>
+    </row>
+    <row r="6465">
+      <c r="A6465" s="1" t="inlineStr">
+        <is>
+          <t>코스트</t>
+        </is>
+      </c>
+      <c r="B6465" t="inlineStr"/>
+      <c r="C6465" t="inlineStr"/>
+      <c r="D6465" t="inlineStr"/>
+    </row>
+    <row r="6466">
+      <c r="A6466" s="1" t="inlineStr">
+        <is>
+          <t>트레이더스</t>
+        </is>
+      </c>
+      <c r="B6466" t="inlineStr"/>
+      <c r="C6466" t="inlineStr"/>
+      <c r="D6466" t="inlineStr"/>
+    </row>
+    <row r="6467">
+      <c r="A6467" s="1" t="inlineStr">
+        <is>
+          <t>구남보건</t>
+        </is>
+      </c>
+      <c r="B6467" t="inlineStr"/>
+      <c r="C6467" t="inlineStr"/>
+      <c r="D6467" t="inlineStr"/>
+    </row>
+    <row r="6468">
+      <c r="A6468" s="1" t="inlineStr">
+        <is>
+          <t>금봉에서는</t>
+        </is>
+      </c>
+      <c r="B6468" t="inlineStr"/>
+      <c r="C6468" t="inlineStr"/>
+      <c r="D6468" t="inlineStr"/>
+    </row>
+    <row r="6469">
+      <c r="A6469" s="1" t="inlineStr">
+        <is>
+          <t>편한</t>
+        </is>
+      </c>
+      <c r="B6469" t="inlineStr"/>
+      <c r="C6469" t="inlineStr"/>
+      <c r="D6469" t="inlineStr"/>
+    </row>
+    <row r="6470">
+      <c r="A6470" s="1" t="inlineStr">
+        <is>
+          <t>중</t>
+        </is>
+      </c>
+      <c r="B6470" t="inlineStr"/>
+      <c r="C6470" t="inlineStr"/>
+      <c r="D6470" t="inlineStr"/>
+    </row>
+    <row r="6471">
+      <c r="A6471" s="1" t="inlineStr">
+        <is>
+          <t>교육센터</t>
+        </is>
+      </c>
+      <c r="B6471" t="inlineStr"/>
+      <c r="C6471" t="inlineStr"/>
+      <c r="D6471" t="inlineStr"/>
+    </row>
+    <row r="6472">
+      <c r="A6472" s="1" t="inlineStr">
+        <is>
+          <t>수성에</t>
+        </is>
+      </c>
+      <c r="B6472" t="inlineStr"/>
+      <c r="C6472" t="inlineStr"/>
+      <c r="D6472" t="inlineStr"/>
+    </row>
+    <row r="6473">
+      <c r="A6473" s="1" t="inlineStr">
+        <is>
+          <t>있지마는</t>
+        </is>
+      </c>
+      <c r="B6473" t="inlineStr"/>
+      <c r="C6473" t="inlineStr"/>
+      <c r="D6473" t="inlineStr"/>
+    </row>
+    <row r="6474">
+      <c r="A6474" s="1" t="inlineStr">
+        <is>
+          <t>불리도</t>
+        </is>
+      </c>
+      <c r="B6474" t="inlineStr"/>
+      <c r="C6474" t="inlineStr"/>
+      <c r="D6474" t="inlineStr"/>
+    </row>
+    <row r="6475">
+      <c r="A6475" s="1" t="inlineStr">
+        <is>
+          <t>쫓아내려</t>
+        </is>
+      </c>
+      <c r="B6475" t="inlineStr"/>
+      <c r="C6475" t="inlineStr"/>
+      <c r="D6475" t="inlineStr"/>
+    </row>
+    <row r="6476">
+      <c r="A6476" s="1" t="inlineStr">
+        <is>
+          <t>삼삼사</t>
+        </is>
+      </c>
+      <c r="B6476" t="inlineStr"/>
+      <c r="C6476" t="inlineStr"/>
+      <c r="D6476" t="inlineStr"/>
+    </row>
+    <row r="6477">
+      <c r="A6477" s="1" t="inlineStr">
+        <is>
+          <t>안내방송하는</t>
+        </is>
+      </c>
+      <c r="B6477" t="inlineStr"/>
+      <c r="C6477" t="inlineStr"/>
+      <c r="D6477" t="inlineStr"/>
+    </row>
+    <row r="6478">
+      <c r="A6478" s="1" t="inlineStr">
+        <is>
+          <t>반송</t>
+        </is>
+      </c>
+      <c r="B6478" t="inlineStr"/>
+      <c r="C6478" t="inlineStr"/>
+      <c r="D6478" t="inlineStr"/>
+    </row>
+    <row r="6479">
+      <c r="A6479" s="1" t="inlineStr">
+        <is>
+          <t>고등학교라고</t>
+        </is>
+      </c>
+      <c r="B6479" t="inlineStr"/>
+      <c r="C6479" t="inlineStr"/>
+      <c r="D6479" t="inlineStr"/>
+    </row>
+    <row r="6480">
+      <c r="A6480" s="1" t="inlineStr">
+        <is>
+          <t>일곱</t>
+        </is>
+      </c>
+      <c r="B6480" t="inlineStr"/>
+      <c r="C6480" t="inlineStr"/>
+      <c r="D6480" t="inlineStr"/>
+    </row>
+    <row r="6481">
+      <c r="A6481" s="1" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="B6481" t="inlineStr"/>
+      <c r="C6481" t="inlineStr"/>
+      <c r="D6481" t="inlineStr"/>
+    </row>
+    <row r="6482">
+      <c r="A6482" s="1" t="inlineStr">
+        <is>
+          <t>왔어요</t>
+        </is>
+      </c>
+      <c r="B6482" t="inlineStr"/>
+      <c r="C6482" t="inlineStr"/>
+      <c r="D6482" t="inlineStr"/>
+    </row>
+    <row r="6483">
+      <c r="A6483" s="1" t="inlineStr">
+        <is>
+          <t>칠사</t>
+        </is>
+      </c>
+      <c r="B6483" t="inlineStr"/>
+      <c r="C6483" t="inlineStr"/>
+      <c r="D6483" t="inlineStr"/>
+    </row>
+    <row r="6484">
+      <c r="A6484" s="1" t="inlineStr">
+        <is>
+          <t>조회할</t>
+        </is>
+      </c>
+      <c r="B6484" t="inlineStr"/>
+      <c r="C6484" t="inlineStr"/>
+      <c r="D6484" t="inlineStr"/>
+    </row>
+    <row r="6485">
+      <c r="A6485" s="1" t="inlineStr">
+        <is>
+          <t>진행하게</t>
+        </is>
+      </c>
+      <c r="B6485" t="inlineStr"/>
+      <c r="C6485" t="inlineStr"/>
+      <c r="D6485" t="inlineStr"/>
+    </row>
+    <row r="6486">
+      <c r="A6486" s="1" t="inlineStr">
+        <is>
+          <t>합니까</t>
+        </is>
+      </c>
+      <c r="B6486" t="inlineStr"/>
+      <c r="C6486" t="inlineStr"/>
+      <c r="D6486" t="inlineStr"/>
+    </row>
+    <row r="6487">
+      <c r="A6487" s="1" t="inlineStr">
+        <is>
+          <t>발삼</t>
+        </is>
+      </c>
+      <c r="B6487" t="inlineStr"/>
+      <c r="C6487" t="inlineStr"/>
+      <c r="D6487" t="inlineStr"/>
+    </row>
+    <row r="6488">
+      <c r="A6488" s="1" t="inlineStr">
+        <is>
+          <t>가시려면은</t>
+        </is>
+      </c>
+      <c r="B6488" t="inlineStr"/>
+      <c r="C6488" t="inlineStr"/>
+      <c r="D6488" t="inlineStr"/>
+    </row>
+    <row r="6489">
+      <c r="A6489" s="1" t="inlineStr">
+        <is>
+          <t>국립대구</t>
+        </is>
+      </c>
+      <c r="B6489" t="inlineStr"/>
+      <c r="C6489" t="inlineStr"/>
+      <c r="D6489" t="inlineStr"/>
+    </row>
+    <row r="6490">
+      <c r="A6490" s="1" t="inlineStr">
+        <is>
+          <t>하려고</t>
+        </is>
+      </c>
+      <c r="B6490" t="inlineStr"/>
+      <c r="C6490" t="inlineStr"/>
+      <c r="D6490" t="inlineStr"/>
+    </row>
+    <row r="6491">
+      <c r="A6491" s="1" t="inlineStr">
+        <is>
+          <t>정보</t>
+        </is>
+      </c>
+      <c r="B6491" t="inlineStr"/>
+      <c r="C6491" t="inlineStr"/>
+      <c r="D6491" t="inlineStr"/>
+    </row>
+    <row r="6492">
+      <c r="A6492" s="1" t="inlineStr">
+        <is>
+          <t>줄이기는커녕</t>
+        </is>
+      </c>
+      <c r="B6492" t="inlineStr"/>
+      <c r="C6492" t="inlineStr"/>
+      <c r="D6492" t="inlineStr"/>
+    </row>
+    <row r="6493">
+      <c r="A6493" s="1" t="inlineStr">
+        <is>
+          <t>지고</t>
+        </is>
+      </c>
+      <c r="B6493" t="inlineStr"/>
+      <c r="C6493" t="inlineStr"/>
+      <c r="D6493" t="inlineStr"/>
+    </row>
+    <row r="6494">
+      <c r="A6494" s="1" t="inlineStr">
+        <is>
+          <t>그가</t>
+        </is>
+      </c>
+      <c r="B6494" t="inlineStr"/>
+      <c r="C6494" t="inlineStr"/>
+      <c r="D6494" t="inlineStr"/>
+    </row>
+    <row r="6495">
+      <c r="A6495" s="1" t="inlineStr">
+        <is>
+          <t>코앞에</t>
+        </is>
+      </c>
+      <c r="B6495" t="inlineStr"/>
+      <c r="C6495" t="inlineStr"/>
+      <c r="D6495" t="inlineStr"/>
+    </row>
+    <row r="6496">
+      <c r="A6496" s="1" t="inlineStr">
+        <is>
+          <t>해당과는</t>
+        </is>
+      </c>
+      <c r="B6496" t="inlineStr"/>
+      <c r="C6496" t="inlineStr"/>
+      <c r="D6496" t="inlineStr"/>
+    </row>
+    <row r="6497">
+      <c r="A6497" s="1" t="inlineStr">
+        <is>
+          <t>접수해드릴게요</t>
+        </is>
+      </c>
+      <c r="B6497" t="inlineStr"/>
+      <c r="C6497" t="inlineStr"/>
+      <c r="D6497" t="inlineStr"/>
+    </row>
+    <row r="6498">
+      <c r="A6498" s="1" t="inlineStr">
+        <is>
+          <t>특정</t>
+        </is>
+      </c>
+      <c r="B6498" t="inlineStr"/>
+      <c r="C6498" t="inlineStr"/>
+      <c r="D6498" t="inlineStr"/>
+    </row>
+    <row r="6499">
+      <c r="A6499" s="1" t="inlineStr">
+        <is>
+          <t>익일</t>
+        </is>
+      </c>
+      <c r="B6499" t="inlineStr"/>
+      <c r="C6499" t="inlineStr"/>
+      <c r="D6499" t="inlineStr"/>
+    </row>
+    <row r="6500">
+      <c r="A6500" s="1" t="inlineStr">
+        <is>
+          <t>사무소요</t>
+        </is>
+      </c>
+      <c r="B6500" t="inlineStr"/>
+      <c r="C6500" t="inlineStr"/>
+      <c r="D6500" t="inlineStr"/>
+    </row>
+    <row r="6501">
+      <c r="A6501" s="1" t="inlineStr">
+        <is>
+          <t>타려고</t>
+        </is>
+      </c>
+      <c r="B6501" t="inlineStr"/>
+      <c r="C6501" t="inlineStr"/>
+      <c r="D6501" t="inlineStr"/>
+    </row>
+    <row r="6502">
+      <c r="A6502" s="1" t="inlineStr">
+        <is>
+          <t>불편해</t>
+        </is>
+      </c>
+      <c r="B6502" t="inlineStr"/>
+      <c r="C6502" t="inlineStr"/>
+      <c r="D6502" t="inlineStr"/>
+    </row>
+    <row r="6503">
+      <c r="A6503" s="1" t="inlineStr">
+        <is>
+          <t>택시기사분</t>
+        </is>
+      </c>
+      <c r="B6503" t="inlineStr"/>
+      <c r="C6503" t="inlineStr"/>
+      <c r="D6503" t="inlineStr"/>
+    </row>
+    <row r="6504">
+      <c r="A6504" s="1" t="inlineStr">
+        <is>
+          <t>계시나요</t>
+        </is>
+      </c>
+      <c r="B6504" t="inlineStr"/>
+      <c r="C6504" t="inlineStr"/>
+      <c r="D6504" t="inlineStr"/>
+    </row>
+    <row r="6505">
+      <c r="A6505" s="1" t="inlineStr">
+        <is>
+          <t>보이네요</t>
+        </is>
+      </c>
+      <c r="B6505" t="inlineStr"/>
+      <c r="C6505" t="inlineStr"/>
+      <c r="D6505" t="inlineStr"/>
+    </row>
+    <row r="6506">
+      <c r="A6506" s="1" t="inlineStr">
+        <is>
+          <t>잔</t>
+        </is>
+      </c>
+      <c r="B6506" t="inlineStr"/>
+      <c r="C6506" t="inlineStr"/>
+      <c r="D6506" t="inlineStr"/>
+    </row>
+    <row r="6507">
+      <c r="A6507" s="1" t="inlineStr">
+        <is>
+          <t>내렸거든</t>
+        </is>
+      </c>
+      <c r="B6507" t="inlineStr"/>
+      <c r="C6507" t="inlineStr"/>
+      <c r="D6507" t="inlineStr"/>
+    </row>
+    <row r="6508">
+      <c r="A6508" s="1" t="inlineStr">
+        <is>
+          <t>구센</t>
+        </is>
+      </c>
+      <c r="B6508" t="inlineStr"/>
+      <c r="C6508" t="inlineStr"/>
+      <c r="D6508" t="inlineStr"/>
+    </row>
+    <row r="6509">
+      <c r="A6509" s="1" t="inlineStr">
+        <is>
+          <t>용계</t>
+        </is>
+      </c>
+      <c r="B6509" t="inlineStr"/>
+      <c r="C6509" t="inlineStr"/>
+      <c r="D6509" t="inlineStr"/>
+    </row>
+    <row r="6510">
+      <c r="A6510" s="1" t="inlineStr">
+        <is>
+          <t>서재</t>
+        </is>
+      </c>
+      <c r="B6510" t="inlineStr"/>
+      <c r="C6510" t="inlineStr"/>
+      <c r="D6510" t="inlineStr"/>
+    </row>
+    <row r="6511">
+      <c r="A6511" s="1" t="inlineStr">
+        <is>
+          <t>놔놓고</t>
+        </is>
+      </c>
+      <c r="B6511" t="inlineStr"/>
+      <c r="C6511" t="inlineStr"/>
+      <c r="D6511" t="inlineStr"/>
+    </row>
+    <row r="6512">
+      <c r="A6512" s="1" t="inlineStr">
+        <is>
+          <t>이름으로</t>
+        </is>
+      </c>
+      <c r="B6512" t="inlineStr"/>
+      <c r="C6512" t="inlineStr"/>
+      <c r="D6512" t="inlineStr"/>
+    </row>
+    <row r="6513">
+      <c r="A6513" s="1" t="inlineStr">
+        <is>
+          <t>거든</t>
+        </is>
+      </c>
+      <c r="B6513" t="inlineStr"/>
+      <c r="C6513" t="inlineStr"/>
+      <c r="D6513" t="inlineStr"/>
+    </row>
+    <row r="6514">
+      <c r="A6514" s="1" t="inlineStr">
+        <is>
+          <t>나고요</t>
+        </is>
+      </c>
+      <c r="B6514" t="inlineStr"/>
+      <c r="C6514" t="inlineStr"/>
+      <c r="D6514" t="inlineStr"/>
+    </row>
+    <row r="6515">
+      <c r="A6515" s="1" t="inlineStr">
+        <is>
+          <t>전면</t>
+        </is>
+      </c>
+      <c r="B6515" t="inlineStr"/>
+      <c r="C6515" t="inlineStr"/>
+      <c r="D6515" t="inlineStr"/>
+    </row>
+    <row r="6516">
+      <c r="A6516" s="1" t="inlineStr">
+        <is>
+          <t>장</t>
+        </is>
+      </c>
+      <c r="B6516" t="inlineStr"/>
+      <c r="C6516" t="inlineStr"/>
+      <c r="D6516" t="inlineStr"/>
+    </row>
+    <row r="6517">
+      <c r="A6517" s="1" t="inlineStr">
+        <is>
+          <t>다가</t>
+        </is>
+      </c>
+      <c r="B6517" t="inlineStr"/>
+      <c r="C6517" t="inlineStr"/>
+      <c r="D6517" t="inlineStr"/>
+    </row>
+    <row r="6518">
+      <c r="A6518" s="1" t="inlineStr">
+        <is>
+          <t>원짜리를</t>
+        </is>
+      </c>
+      <c r="B6518" t="inlineStr"/>
+      <c r="C6518" t="inlineStr"/>
+      <c r="D6518" t="inlineStr"/>
+    </row>
+    <row r="6519">
+      <c r="A6519" s="1" t="inlineStr">
+        <is>
+          <t>잔을</t>
+        </is>
+      </c>
+      <c r="B6519" t="inlineStr"/>
+      <c r="C6519" t="inlineStr"/>
+      <c r="D6519" t="inlineStr"/>
+    </row>
+    <row r="6520">
+      <c r="A6520" s="1" t="inlineStr">
+        <is>
+          <t>시행</t>
+        </is>
+      </c>
+      <c r="B6520" t="inlineStr"/>
+      <c r="C6520" t="inlineStr"/>
+      <c r="D6520" t="inlineStr"/>
+    </row>
+    <row r="6521">
+      <c r="A6521" s="1" t="inlineStr">
+        <is>
+          <t>빼고</t>
+        </is>
+      </c>
+      <c r="B6521" t="inlineStr"/>
+      <c r="C6521" t="inlineStr"/>
+      <c r="D6521" t="inlineStr"/>
+    </row>
+    <row r="6522">
+      <c r="A6522" s="1" t="inlineStr">
+        <is>
+          <t>복어</t>
+        </is>
+      </c>
+      <c r="B6522" t="inlineStr"/>
+      <c r="C6522" t="inlineStr"/>
+      <c r="D6522" t="inlineStr"/>
+    </row>
+    <row r="6523">
+      <c r="A6523" s="1" t="inlineStr">
+        <is>
+          <t>노변</t>
+        </is>
+      </c>
+      <c r="B6523" t="inlineStr"/>
+      <c r="C6523" t="inlineStr"/>
+      <c r="D6523" t="inlineStr"/>
+    </row>
+    <row r="6524">
+      <c r="A6524" s="1" t="inlineStr">
+        <is>
+          <t>육백오십</t>
+        </is>
+      </c>
+      <c r="B6524" t="inlineStr"/>
+      <c r="C6524" t="inlineStr"/>
+      <c r="D6524" t="inlineStr"/>
+    </row>
+    <row r="6525">
+      <c r="A6525" s="1" t="inlineStr">
+        <is>
+          <t>인코</t>
+        </is>
+      </c>
+      <c r="B6525" t="inlineStr"/>
+      <c r="C6525" t="inlineStr"/>
+      <c r="D6525" t="inlineStr"/>
+    </row>
+    <row r="6526">
+      <c r="A6526" s="1" t="inlineStr">
+        <is>
+          <t>공간만</t>
+        </is>
+      </c>
+      <c r="B6526" t="inlineStr"/>
+      <c r="C6526" t="inlineStr"/>
+      <c r="D6526" t="inlineStr"/>
+    </row>
+    <row r="6527">
+      <c r="A6527" s="1" t="inlineStr">
+        <is>
+          <t>내역</t>
+        </is>
+      </c>
+      <c r="B6527" t="inlineStr"/>
+      <c r="C6527" t="inlineStr"/>
+      <c r="D6527" t="inlineStr"/>
+    </row>
+    <row r="6528">
+      <c r="A6528" s="1" t="inlineStr">
+        <is>
+          <t>않았다는</t>
+        </is>
+      </c>
+      <c r="B6528" t="inlineStr"/>
+      <c r="C6528" t="inlineStr"/>
+      <c r="D6528" t="inlineStr"/>
+    </row>
+    <row r="6529">
+      <c r="A6529" s="1" t="inlineStr">
+        <is>
+          <t>노곡동</t>
+        </is>
+      </c>
+      <c r="B6529" t="inlineStr"/>
+      <c r="C6529" t="inlineStr"/>
+      <c r="D6529" t="inlineStr"/>
+    </row>
+    <row r="6530">
+      <c r="A6530" s="1" t="inlineStr">
+        <is>
+          <t>요고보다는</t>
+        </is>
+      </c>
+      <c r="B6530" t="inlineStr"/>
+      <c r="C6530" t="inlineStr"/>
+      <c r="D6530" t="inlineStr"/>
+    </row>
+    <row r="6531">
+      <c r="A6531" s="1" t="inlineStr">
+        <is>
+          <t>열려고</t>
+        </is>
+      </c>
+      <c r="B6531" t="inlineStr"/>
+      <c r="C6531" t="inlineStr"/>
+      <c r="D6531" t="inlineStr"/>
+    </row>
+    <row r="6532">
+      <c r="A6532" s="1" t="inlineStr">
+        <is>
+          <t>내려가셔서</t>
+        </is>
+      </c>
+      <c r="B6532" t="inlineStr"/>
+      <c r="C6532" t="inlineStr"/>
+      <c r="D6532" t="inlineStr"/>
+    </row>
+    <row r="6533">
+      <c r="A6533" s="1" t="inlineStr">
+        <is>
+          <t>출구</t>
+        </is>
+      </c>
+      <c r="B6533" t="inlineStr"/>
+      <c r="C6533" t="inlineStr"/>
+      <c r="D6533" t="inlineStr"/>
+    </row>
+    <row r="6534">
+      <c r="A6534" s="1" t="inlineStr">
+        <is>
+          <t>영업시간은</t>
+        </is>
+      </c>
+      <c r="B6534" t="inlineStr"/>
+      <c r="C6534" t="inlineStr"/>
+      <c r="D6534" t="inlineStr"/>
+    </row>
+    <row r="6535">
+      <c r="A6535" s="1" t="inlineStr">
+        <is>
+          <t>이백오십</t>
+        </is>
+      </c>
+      <c r="B6535" t="inlineStr"/>
+      <c r="C6535" t="inlineStr"/>
+      <c r="D6535" t="inlineStr"/>
+    </row>
+    <row r="6536">
+      <c r="A6536" s="1" t="inlineStr">
+        <is>
+          <t>일오구오</t>
+        </is>
+      </c>
+      <c r="B6536" t="inlineStr"/>
+      <c r="C6536" t="inlineStr"/>
+      <c r="D6536" t="inlineStr"/>
+    </row>
+    <row r="6537">
+      <c r="A6537" s="1" t="inlineStr">
+        <is>
+          <t>골</t>
+        </is>
+      </c>
+      <c r="B6537" t="inlineStr"/>
+      <c r="C6537" t="inlineStr"/>
+      <c r="D6537" t="inlineStr"/>
+    </row>
+    <row r="6538">
+      <c r="A6538" s="1" t="inlineStr">
+        <is>
+          <t>주공에서</t>
+        </is>
+      </c>
+      <c r="B6538" t="inlineStr"/>
+      <c r="C6538" t="inlineStr"/>
+      <c r="D6538" t="inlineStr"/>
+    </row>
+    <row r="6539">
+      <c r="A6539" s="1" t="inlineStr">
+        <is>
+          <t>대회라고</t>
+        </is>
+      </c>
+      <c r="B6539" t="inlineStr"/>
+      <c r="C6539" t="inlineStr"/>
+      <c r="D6539" t="inlineStr"/>
+    </row>
+    <row r="6540">
+      <c r="A6540" s="1" t="inlineStr">
+        <is>
+          <t>앞까지</t>
+        </is>
+      </c>
+      <c r="B6540" t="inlineStr"/>
+      <c r="C6540" t="inlineStr"/>
+      <c r="D6540" t="inlineStr"/>
+    </row>
+    <row r="6541">
+      <c r="A6541" s="1" t="inlineStr">
+        <is>
+          <t>나오던데</t>
+        </is>
+      </c>
+      <c r="B6541" t="inlineStr"/>
+      <c r="C6541" t="inlineStr"/>
+      <c r="D6541" t="inlineStr"/>
+    </row>
+    <row r="6542">
+      <c r="A6542" s="1" t="inlineStr">
+        <is>
+          <t>부근</t>
+        </is>
+      </c>
+      <c r="B6542" t="inlineStr"/>
+      <c r="C6542" t="inlineStr"/>
+      <c r="D6542" t="inlineStr"/>
+    </row>
+    <row r="6543">
+      <c r="A6543" s="1" t="inlineStr">
+        <is>
+          <t>치려고</t>
+        </is>
+      </c>
+      <c r="B6543" t="inlineStr"/>
+      <c r="C6543" t="inlineStr"/>
+      <c r="D6543" t="inlineStr"/>
+    </row>
+    <row r="6544">
+      <c r="A6544" s="1" t="inlineStr">
+        <is>
+          <t>펀에</t>
+        </is>
+      </c>
+      <c r="B6544" t="inlineStr"/>
+      <c r="C6544" t="inlineStr"/>
+      <c r="D6544" t="inlineStr"/>
+    </row>
+    <row r="6545">
+      <c r="A6545" s="1" t="inlineStr">
+        <is>
+          <t>빼어돌라</t>
+        </is>
+      </c>
+      <c r="B6545" t="inlineStr"/>
+      <c r="C6545" t="inlineStr"/>
+      <c r="D6545" t="inlineStr"/>
+    </row>
+    <row r="6546">
+      <c r="A6546" s="1" t="inlineStr">
+        <is>
+          <t>간격인</t>
+        </is>
+      </c>
+      <c r="B6546" t="inlineStr"/>
+      <c r="C6546" t="inlineStr"/>
+      <c r="D6546" t="inlineStr"/>
+    </row>
+    <row r="6547">
+      <c r="A6547" s="1" t="inlineStr">
+        <is>
+          <t>옷</t>
+        </is>
+      </c>
+      <c r="B6547" t="inlineStr"/>
+      <c r="C6547" t="inlineStr"/>
+      <c r="D6547" t="inlineStr"/>
+    </row>
+    <row r="6548">
+      <c r="A6548" s="1" t="inlineStr">
+        <is>
+          <t>청구</t>
+        </is>
+      </c>
+      <c r="B6548" t="inlineStr"/>
+      <c r="C6548" t="inlineStr"/>
+      <c r="D6548" t="inlineStr"/>
+    </row>
+    <row r="6549">
+      <c r="A6549" s="1" t="inlineStr">
+        <is>
+          <t>장애인</t>
+        </is>
+      </c>
+      <c r="B6549" t="inlineStr"/>
+      <c r="C6549" t="inlineStr"/>
+      <c r="D6549" t="inlineStr"/>
+    </row>
+    <row r="6550">
+      <c r="A6550" s="1" t="inlineStr">
+        <is>
+          <t>되시고요</t>
+        </is>
+      </c>
+      <c r="B6550" t="inlineStr"/>
+      <c r="C6550" t="inlineStr"/>
+      <c r="D6550" t="inlineStr"/>
+    </row>
+    <row r="6551">
+      <c r="A6551" s="1" t="inlineStr">
+        <is>
+          <t>십팔번은</t>
+        </is>
+      </c>
+      <c r="B6551" t="inlineStr"/>
+      <c r="C6551" t="inlineStr"/>
+      <c r="D6551" t="inlineStr"/>
+    </row>
+    <row r="6552">
+      <c r="A6552" s="1" t="inlineStr">
+        <is>
+          <t>노선으로</t>
+        </is>
+      </c>
+      <c r="B6552" t="inlineStr"/>
+      <c r="C6552" t="inlineStr"/>
+      <c r="D6552" t="inlineStr"/>
+    </row>
+    <row r="6553">
+      <c r="A6553" s="1" t="inlineStr">
+        <is>
+          <t>있는덴데</t>
+        </is>
+      </c>
+      <c r="B6553" t="inlineStr"/>
+      <c r="C6553" t="inlineStr"/>
+      <c r="D6553" t="inlineStr"/>
+    </row>
+    <row r="6554">
+      <c r="A6554" s="1" t="inlineStr">
+        <is>
+          <t>문의하셔야지</t>
+        </is>
+      </c>
+      <c r="B6554" t="inlineStr"/>
+      <c r="C6554" t="inlineStr"/>
+      <c r="D6554" t="inlineStr"/>
+    </row>
+    <row r="6555">
+      <c r="A6555" s="1" t="inlineStr">
+        <is>
+          <t>청구요</t>
+        </is>
+      </c>
+      <c r="B6555" t="inlineStr"/>
+      <c r="C6555" t="inlineStr"/>
+      <c r="D6555" t="inlineStr"/>
+    </row>
+    <row r="6556">
+      <c r="A6556" s="1" t="inlineStr">
+        <is>
+          <t>코스</t>
+        </is>
+      </c>
+      <c r="B6556" t="inlineStr"/>
+      <c r="C6556" t="inlineStr"/>
+      <c r="D6556" t="inlineStr"/>
+    </row>
+    <row r="6557">
+      <c r="A6557" s="1" t="inlineStr">
+        <is>
+          <t>대회</t>
+        </is>
+      </c>
+      <c r="B6557" t="inlineStr"/>
+      <c r="C6557" t="inlineStr"/>
+      <c r="D6557" t="inlineStr"/>
+    </row>
+    <row r="6558">
+      <c r="A6558" s="1" t="inlineStr">
+        <is>
+          <t>시외버스인</t>
+        </is>
+      </c>
+      <c r="B6558" t="inlineStr"/>
+      <c r="C6558" t="inlineStr"/>
+      <c r="D6558" t="inlineStr"/>
+    </row>
+    <row r="6559">
+      <c r="A6559" s="1" t="inlineStr">
+        <is>
+          <t>라마</t>
+        </is>
+      </c>
+      <c r="B6559" t="inlineStr"/>
+      <c r="C6559" t="inlineStr"/>
+      <c r="D6559" t="inlineStr"/>
+    </row>
+    <row r="6560">
+      <c r="A6560" s="1" t="inlineStr">
+        <is>
+          <t>운전기사</t>
+        </is>
+      </c>
+      <c r="B6560" t="inlineStr"/>
+      <c r="C6560" t="inlineStr"/>
+      <c r="D6560" t="inlineStr"/>
+    </row>
+    <row r="6561">
+      <c r="A6561" s="1" t="inlineStr">
+        <is>
+          <t>칠백삼</t>
+        </is>
+      </c>
+      <c r="B6561" t="inlineStr"/>
+      <c r="C6561" t="inlineStr"/>
+      <c r="D6561" t="inlineStr"/>
+    </row>
+    <row r="6562">
+      <c r="A6562" s="1" t="inlineStr">
+        <is>
+          <t>불편신고하려고</t>
+        </is>
+      </c>
+      <c r="B6562" t="inlineStr"/>
+      <c r="C6562" t="inlineStr"/>
+      <c r="D6562" t="inlineStr"/>
+    </row>
+    <row r="6563">
+      <c r="A6563" s="1" t="inlineStr">
+        <is>
+          <t>사구</t>
+        </is>
+      </c>
+      <c r="B6563" t="inlineStr"/>
+      <c r="C6563" t="inlineStr"/>
+      <c r="D6563" t="inlineStr"/>
+    </row>
+    <row r="6564">
+      <c r="A6564" s="1" t="inlineStr">
+        <is>
+          <t>정점에서</t>
+        </is>
+      </c>
+      <c r="B6564" t="inlineStr"/>
+      <c r="C6564" t="inlineStr"/>
+      <c r="D6564" t="inlineStr"/>
+    </row>
+    <row r="6565">
+      <c r="A6565" s="1" t="inlineStr">
+        <is>
+          <t>십칠</t>
+        </is>
+      </c>
+      <c r="B6565" t="inlineStr"/>
+      <c r="C6565" t="inlineStr"/>
+      <c r="D6565" t="inlineStr"/>
+    </row>
+    <row r="6566">
+      <c r="A6566" s="1" t="inlineStr">
+        <is>
+          <t>장소로</t>
+        </is>
+      </c>
+      <c r="B6566" t="inlineStr"/>
+      <c r="C6566" t="inlineStr"/>
+      <c r="D6566" t="inlineStr"/>
+    </row>
+    <row r="6567">
+      <c r="A6567" s="1" t="inlineStr">
+        <is>
+          <t>정거</t>
+        </is>
+      </c>
+      <c r="B6567" t="inlineStr"/>
+      <c r="C6567" t="inlineStr"/>
+      <c r="D6567" t="inlineStr"/>
+    </row>
+    <row r="6568">
+      <c r="A6568" s="1" t="inlineStr">
+        <is>
+          <t>싶니까</t>
+        </is>
+      </c>
+      <c r="B6568" t="inlineStr"/>
+      <c r="C6568" t="inlineStr"/>
+      <c r="D6568" t="inlineStr"/>
+    </row>
+    <row r="6569">
+      <c r="A6569" s="1" t="inlineStr">
+        <is>
+          <t>북서쪽에서</t>
+        </is>
+      </c>
+      <c r="B6569" t="inlineStr"/>
+      <c r="C6569" t="inlineStr"/>
+      <c r="D6569" t="inlineStr"/>
+    </row>
+    <row r="6570">
+      <c r="A6570" s="1" t="inlineStr">
+        <is>
+          <t>놔가지고</t>
+        </is>
+      </c>
+      <c r="B6570" t="inlineStr"/>
+      <c r="C6570" t="inlineStr"/>
+      <c r="D6570" t="inlineStr"/>
+    </row>
+    <row r="6571">
+      <c r="A6571" s="1" t="inlineStr">
+        <is>
+          <t>알라</t>
+        </is>
+      </c>
+      <c r="B6571" t="inlineStr"/>
+      <c r="C6571" t="inlineStr"/>
+      <c r="D6571" t="inlineStr"/>
+    </row>
+    <row r="6572">
+      <c r="A6572" s="1" t="inlineStr">
+        <is>
+          <t>밸</t>
+        </is>
+      </c>
+      <c r="B6572" t="inlineStr"/>
+      <c r="C6572" t="inlineStr"/>
+      <c r="D6572" t="inlineStr"/>
+    </row>
+    <row r="6573">
+      <c r="A6573" s="1" t="inlineStr">
+        <is>
+          <t>부서하고</t>
+        </is>
+      </c>
+      <c r="B6573" t="inlineStr"/>
+      <c r="C6573" t="inlineStr"/>
+      <c r="D6573" t="inlineStr"/>
+    </row>
+    <row r="6574">
+      <c r="A6574" s="1" t="inlineStr">
+        <is>
+          <t>아이씨</t>
+        </is>
+      </c>
+      <c r="B6574" t="inlineStr"/>
+      <c r="C6574" t="inlineStr"/>
+      <c r="D6574" t="inlineStr"/>
+    </row>
+    <row r="6575">
+      <c r="A6575" s="1" t="inlineStr">
+        <is>
+          <t>프로</t>
+        </is>
+      </c>
+      <c r="B6575" t="inlineStr"/>
+      <c r="C6575" t="inlineStr"/>
+      <c r="D6575" t="inlineStr"/>
+    </row>
+    <row r="6576">
+      <c r="A6576" s="1" t="inlineStr">
+        <is>
+          <t>보성</t>
+        </is>
+      </c>
+      <c r="B6576" t="inlineStr"/>
+      <c r="C6576" t="inlineStr"/>
+      <c r="D6576" t="inlineStr"/>
+    </row>
+    <row r="6577">
+      <c r="A6577" s="1" t="inlineStr">
+        <is>
+          <t>급해</t>
+        </is>
+      </c>
+      <c r="B6577" t="inlineStr"/>
+      <c r="C6577" t="inlineStr"/>
+      <c r="D6577" t="inlineStr"/>
+    </row>
+    <row r="6578">
+      <c r="A6578" s="1" t="inlineStr">
+        <is>
+          <t>건의</t>
+        </is>
+      </c>
+      <c r="B6578" t="inlineStr"/>
+      <c r="C6578" t="inlineStr"/>
+      <c r="D6578" t="inlineStr"/>
+    </row>
+    <row r="6579">
+      <c r="A6579" s="1" t="inlineStr">
+        <is>
+          <t>있었던</t>
+        </is>
+      </c>
+      <c r="B6579" t="inlineStr"/>
+      <c r="C6579" t="inlineStr"/>
+      <c r="D6579" t="inlineStr"/>
+    </row>
+    <row r="6580">
+      <c r="A6580" s="1" t="inlineStr">
+        <is>
+          <t>구삼이</t>
+        </is>
+      </c>
+      <c r="B6580" t="inlineStr"/>
+      <c r="C6580" t="inlineStr"/>
+      <c r="D6580" t="inlineStr"/>
+    </row>
+    <row r="6581">
+      <c r="A6581" s="1" t="inlineStr">
+        <is>
+          <t>맨션에</t>
+        </is>
+      </c>
+      <c r="B6581" t="inlineStr"/>
+      <c r="C6581" t="inlineStr"/>
+      <c r="D6581" t="inlineStr"/>
+    </row>
+    <row r="6582">
+      <c r="A6582" s="1" t="inlineStr">
+        <is>
+          <t>그러하다</t>
+        </is>
+      </c>
+      <c r="B6582" t="inlineStr"/>
+      <c r="C6582" t="inlineStr"/>
+      <c r="D6582" t="inlineStr"/>
+    </row>
+    <row r="6583">
+      <c r="A6583" s="1" t="inlineStr">
+        <is>
+          <t>카면</t>
+        </is>
+      </c>
+      <c r="B6583" t="inlineStr"/>
+      <c r="C6583" t="inlineStr"/>
+      <c r="D6583" t="inlineStr"/>
+    </row>
+    <row r="6584">
+      <c r="A6584" s="1" t="inlineStr">
+        <is>
+          <t>실무</t>
+        </is>
+      </c>
+      <c r="B6584" t="inlineStr"/>
+      <c r="C6584" t="inlineStr"/>
+      <c r="D6584" t="inlineStr"/>
+    </row>
+    <row r="6585">
+      <c r="A6585" s="1" t="inlineStr">
+        <is>
+          <t>판매에도</t>
+        </is>
+      </c>
+      <c r="B6585" t="inlineStr"/>
+      <c r="C6585" t="inlineStr"/>
+      <c r="D6585" t="inlineStr"/>
+    </row>
+    <row r="6586">
+      <c r="A6586" s="1" t="inlineStr">
+        <is>
+          <t>이번이요</t>
+        </is>
+      </c>
+      <c r="B6586" t="inlineStr"/>
+      <c r="C6586" t="inlineStr"/>
+      <c r="D6586" t="inlineStr"/>
+    </row>
+    <row r="6587">
+      <c r="A6587" s="1" t="inlineStr">
+        <is>
+          <t>번지여</t>
+        </is>
+      </c>
+      <c r="B6587" t="inlineStr"/>
+      <c r="C6587" t="inlineStr"/>
+      <c r="D6587" t="inlineStr"/>
+    </row>
+    <row r="6588">
+      <c r="A6588" s="1" t="inlineStr">
+        <is>
+          <t>내라</t>
+        </is>
+      </c>
+      <c r="B6588" t="inlineStr"/>
+      <c r="C6588" t="inlineStr"/>
+      <c r="D6588" t="inlineStr"/>
+    </row>
+    <row r="6589">
+      <c r="A6589" s="1" t="inlineStr">
+        <is>
+          <t>쪽과</t>
+        </is>
+      </c>
+      <c r="B6589" t="inlineStr"/>
+      <c r="C6589" t="inlineStr"/>
+      <c r="D6589" t="inlineStr"/>
+    </row>
+    <row r="6590">
+      <c r="A6590" s="1" t="inlineStr">
+        <is>
+          <t>죄송함</t>
+        </is>
+      </c>
+      <c r="B6590" t="inlineStr"/>
+      <c r="C6590" t="inlineStr"/>
+      <c r="D6590" t="inlineStr"/>
+    </row>
+    <row r="6591">
+      <c r="A6591" s="1" t="inlineStr">
+        <is>
+          <t>교</t>
+        </is>
+      </c>
+      <c r="B6591" t="inlineStr"/>
+      <c r="C6591" t="inlineStr"/>
+      <c r="D6591" t="inlineStr"/>
+    </row>
+    <row r="6592">
+      <c r="A6592" s="1" t="inlineStr">
+        <is>
+          <t>찾아</t>
+        </is>
+      </c>
+      <c r="B6592" t="inlineStr"/>
+      <c r="C6592" t="inlineStr"/>
+      <c r="D6592" t="inlineStr"/>
+    </row>
+    <row r="6593">
+      <c r="A6593" s="1" t="inlineStr">
+        <is>
+          <t>일동이거든</t>
+        </is>
+      </c>
+      <c r="B6593" t="inlineStr"/>
+      <c r="C6593" t="inlineStr"/>
+      <c r="D6593" t="inlineStr"/>
+    </row>
+    <row r="6594">
+      <c r="A6594" s="1" t="inlineStr">
+        <is>
+          <t>붙여놓고</t>
+        </is>
+      </c>
+      <c r="B6594" t="inlineStr"/>
+      <c r="C6594" t="inlineStr"/>
+      <c r="D6594" t="inlineStr"/>
+    </row>
+    <row r="6595">
+      <c r="A6595" s="1" t="inlineStr">
+        <is>
+          <t>그러니깐</t>
+        </is>
+      </c>
+      <c r="B6595" t="inlineStr"/>
+      <c r="C6595" t="inlineStr"/>
+      <c r="D6595" t="inlineStr"/>
+    </row>
+    <row r="6596">
+      <c r="A6596" s="1" t="inlineStr">
+        <is>
+          <t>데예여</t>
+        </is>
+      </c>
+      <c r="B6596" t="inlineStr"/>
+      <c r="C6596" t="inlineStr"/>
+      <c r="D6596" t="inlineStr"/>
+    </row>
+    <row r="6597">
+      <c r="A6597" s="1" t="inlineStr">
+        <is>
+          <t>돌려받을</t>
+        </is>
+      </c>
+      <c r="B6597" t="inlineStr"/>
+      <c r="C6597" t="inlineStr"/>
+      <c r="D6597" t="inlineStr"/>
+    </row>
+    <row r="6598">
+      <c r="A6598" s="1" t="inlineStr">
+        <is>
+          <t>타려고요</t>
+        </is>
+      </c>
+      <c r="B6598" t="inlineStr"/>
+      <c r="C6598" t="inlineStr"/>
+      <c r="D6598" t="inlineStr"/>
+    </row>
+    <row r="6599">
+      <c r="A6599" s="1" t="inlineStr">
+        <is>
+          <t>당일</t>
+        </is>
+      </c>
+      <c r="B6599" t="inlineStr"/>
+      <c r="C6599" t="inlineStr"/>
+      <c r="D6599" t="inlineStr"/>
+    </row>
+    <row r="6600">
+      <c r="A6600" s="1" t="inlineStr">
+        <is>
+          <t>번이라는</t>
+        </is>
+      </c>
+      <c r="B6600" t="inlineStr"/>
+      <c r="C6600" t="inlineStr"/>
+      <c r="D6600" t="inlineStr"/>
+    </row>
+    <row r="6601">
+      <c r="A6601" s="1" t="inlineStr">
+        <is>
+          <t>도와드리고요</t>
+        </is>
+      </c>
+      <c r="B6601" t="inlineStr"/>
+      <c r="C6601" t="inlineStr"/>
+      <c r="D6601" t="inlineStr"/>
+    </row>
+    <row r="6602">
+      <c r="A6602" s="1" t="inlineStr">
+        <is>
+          <t>없거든</t>
+        </is>
+      </c>
+      <c r="B6602" t="inlineStr"/>
+      <c r="C6602" t="inlineStr"/>
+      <c r="D6602" t="inlineStr"/>
+    </row>
+    <row r="6603">
+      <c r="A6603" s="1" t="inlineStr">
+        <is>
+          <t>분대로</t>
+        </is>
+      </c>
+      <c r="B6603" t="inlineStr"/>
+      <c r="C6603" t="inlineStr"/>
+      <c r="D6603" t="inlineStr"/>
+    </row>
+    <row r="6604">
+      <c r="A6604" s="1" t="inlineStr">
+        <is>
+          <t>볼라</t>
+        </is>
+      </c>
+      <c r="B6604" t="inlineStr"/>
+      <c r="C6604" t="inlineStr"/>
+      <c r="D6604" t="inlineStr"/>
+    </row>
+    <row r="6605">
+      <c r="A6605" s="1" t="inlineStr">
+        <is>
+          <t>결제하셨다면</t>
+        </is>
+      </c>
+      <c r="B6605" t="inlineStr"/>
+      <c r="C6605" t="inlineStr"/>
+      <c r="D6605" t="inlineStr"/>
+    </row>
+    <row r="6606">
+      <c r="A6606" s="1" t="inlineStr">
+        <is>
+          <t>면</t>
+        </is>
+      </c>
+      <c r="B6606" t="inlineStr"/>
+      <c r="C6606" t="inlineStr"/>
+      <c r="D6606" t="inlineStr"/>
+    </row>
+    <row r="6607">
+      <c r="A6607" s="1" t="inlineStr">
+        <is>
+          <t>에어컨은</t>
+        </is>
+      </c>
+      <c r="B6607" t="inlineStr"/>
+      <c r="C6607" t="inlineStr"/>
+      <c r="D6607" t="inlineStr"/>
+    </row>
+    <row r="6608">
+      <c r="A6608" s="1" t="inlineStr">
+        <is>
+          <t>대고</t>
+        </is>
+      </c>
+      <c r="B6608" t="inlineStr"/>
+      <c r="C6608" t="inlineStr"/>
+      <c r="D6608" t="inlineStr"/>
+    </row>
+    <row r="6609">
+      <c r="A6609" s="1" t="inlineStr">
+        <is>
+          <t>도곡동</t>
+        </is>
+      </c>
+      <c r="B6609" t="inlineStr"/>
+      <c r="C6609" t="inlineStr"/>
+      <c r="D6609" t="inlineStr"/>
+    </row>
+    <row r="6610">
+      <c r="A6610" s="1" t="inlineStr">
+        <is>
+          <t>대구시내버스</t>
+        </is>
+      </c>
+      <c r="B6610" t="inlineStr"/>
+      <c r="C6610" t="inlineStr"/>
+      <c r="D6610" t="inlineStr"/>
+    </row>
+    <row r="6611">
+      <c r="A6611" s="1" t="inlineStr">
+        <is>
+          <t>태평</t>
+        </is>
+      </c>
+      <c r="B6611" t="inlineStr"/>
+      <c r="C6611" t="inlineStr"/>
+      <c r="D6611" t="inlineStr"/>
+    </row>
+    <row r="6612">
+      <c r="A6612" s="1" t="inlineStr">
+        <is>
+          <t>하시려는</t>
+        </is>
+      </c>
+      <c r="B6612" t="inlineStr"/>
+      <c r="C6612" t="inlineStr"/>
+      <c r="D6612" t="inlineStr"/>
+    </row>
+    <row r="6613">
+      <c r="A6613" s="1" t="inlineStr">
+        <is>
+          <t>네거리의</t>
+        </is>
+      </c>
+      <c r="B6613" t="inlineStr"/>
+      <c r="C6613" t="inlineStr"/>
+      <c r="D6613" t="inlineStr"/>
+    </row>
+    <row r="6614">
+      <c r="A6614" s="1" t="inlineStr">
+        <is>
+          <t>이한다고</t>
+        </is>
+      </c>
+      <c r="B6614" t="inlineStr"/>
+      <c r="C6614" t="inlineStr"/>
+      <c r="D6614" t="inlineStr"/>
+    </row>
+    <row r="6615">
+      <c r="A6615" s="1" t="inlineStr">
+        <is>
+          <t>될지</t>
+        </is>
+      </c>
+      <c r="B6615" t="inlineStr"/>
+      <c r="C6615" t="inlineStr"/>
+      <c r="D6615" t="inlineStr"/>
+    </row>
+    <row r="6616">
+      <c r="A6616" s="1" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="B6616" t="inlineStr"/>
+      <c r="C6616" t="inlineStr"/>
+      <c r="D6616" t="inlineStr"/>
+    </row>
+    <row r="6617">
+      <c r="A6617" s="1" t="inlineStr">
+        <is>
+          <t>뉴</t>
+        </is>
+      </c>
+      <c r="B6617" t="inlineStr"/>
+      <c r="C6617" t="inlineStr"/>
+      <c r="D6617" t="inlineStr"/>
+    </row>
+    <row r="6618">
+      <c r="A6618" s="1" t="inlineStr">
+        <is>
+          <t>조회하려고요</t>
+        </is>
+      </c>
+      <c r="B6618" t="inlineStr"/>
+      <c r="C6618" t="inlineStr"/>
+      <c r="D6618" t="inlineStr"/>
+    </row>
+    <row r="6619">
+      <c r="A6619" s="1" t="inlineStr">
+        <is>
+          <t>팔공산에</t>
+        </is>
+      </c>
+      <c r="B6619" t="inlineStr"/>
+      <c r="C6619" t="inlineStr"/>
+      <c r="D6619" t="inlineStr"/>
+    </row>
+    <row r="6620">
+      <c r="A6620" s="1" t="inlineStr">
+        <is>
+          <t>후문</t>
+        </is>
+      </c>
+      <c r="B6620" t="inlineStr"/>
+      <c r="C6620" t="inlineStr"/>
+      <c r="D6620" t="inlineStr"/>
+    </row>
+    <row r="6621">
+      <c r="A6621" s="1" t="inlineStr">
+        <is>
+          <t>포스코</t>
+        </is>
+      </c>
+      <c r="B6621" t="inlineStr"/>
+      <c r="C6621" t="inlineStr"/>
+      <c r="D6621" t="inlineStr"/>
+    </row>
+    <row r="6622">
+      <c r="A6622" s="1" t="inlineStr">
+        <is>
+          <t>접수하는</t>
+        </is>
+      </c>
+      <c r="B6622" t="inlineStr"/>
+      <c r="C6622" t="inlineStr"/>
+      <c r="D6622" t="inlineStr"/>
+    </row>
+    <row r="6623">
+      <c r="A6623" s="1" t="inlineStr">
+        <is>
+          <t>정류</t>
+        </is>
+      </c>
+      <c r="B6623" t="inlineStr"/>
+      <c r="C6623" t="inlineStr"/>
+      <c r="D6623" t="inlineStr"/>
+    </row>
+    <row r="6624">
+      <c r="A6624" s="1" t="inlineStr">
+        <is>
+          <t>번이</t>
+        </is>
+      </c>
+      <c r="B6624" t="inlineStr"/>
+      <c r="C6624" t="inlineStr"/>
+      <c r="D6624" t="inlineStr"/>
+    </row>
+    <row r="6625">
+      <c r="A6625" s="1" t="inlineStr">
+        <is>
+          <t>팔백십사</t>
+        </is>
+      </c>
+      <c r="B6625" t="inlineStr"/>
+      <c r="C6625" t="inlineStr"/>
+      <c r="D6625" t="inlineStr"/>
+    </row>
+    <row r="6626">
+      <c r="A6626" s="1" t="inlineStr">
+        <is>
+          <t>넘버는</t>
+        </is>
+      </c>
+      <c r="B6626" t="inlineStr"/>
+      <c r="C6626" t="inlineStr"/>
+      <c r="D6626" t="inlineStr"/>
+    </row>
+    <row r="6627">
+      <c r="A6627" s="1" t="inlineStr">
+        <is>
+          <t>요번</t>
+        </is>
+      </c>
+      <c r="B6627" t="inlineStr"/>
+      <c r="C6627" t="inlineStr"/>
+      <c r="D6627" t="inlineStr"/>
+    </row>
+    <row r="6628">
+      <c r="A6628" s="1" t="inlineStr">
+        <is>
+          <t>오백구</t>
+        </is>
+      </c>
+      <c r="B6628" t="inlineStr"/>
+      <c r="C6628" t="inlineStr"/>
+      <c r="D6628" t="inlineStr"/>
+    </row>
+    <row r="6629">
+      <c r="A6629" s="1" t="inlineStr">
+        <is>
+          <t>세상</t>
+        </is>
+      </c>
+      <c r="B6629" t="inlineStr"/>
+      <c r="C6629" t="inlineStr"/>
+      <c r="D6629" t="inlineStr"/>
+    </row>
+    <row r="6630">
+      <c r="A6630" s="1" t="inlineStr">
+        <is>
+          <t>만촌</t>
+        </is>
+      </c>
+      <c r="B6630" t="inlineStr"/>
+      <c r="C6630" t="inlineStr"/>
+      <c r="D6630" t="inlineStr"/>
+    </row>
+    <row r="6631">
+      <c r="A6631" s="1" t="inlineStr">
+        <is>
+          <t>주에</t>
+        </is>
+      </c>
+      <c r="B6631" t="inlineStr"/>
+      <c r="C6631" t="inlineStr"/>
+      <c r="D6631" t="inlineStr"/>
+    </row>
+    <row r="6632">
+      <c r="A6632" s="1" t="inlineStr">
+        <is>
+          <t>우회전했는데</t>
+        </is>
+      </c>
+      <c r="B6632" t="inlineStr"/>
+      <c r="C6632" t="inlineStr"/>
+      <c r="D6632" t="inlineStr"/>
+    </row>
+    <row r="6633">
+      <c r="A6633" s="1" t="inlineStr">
+        <is>
+          <t>동요</t>
+        </is>
+      </c>
+      <c r="B6633" t="inlineStr"/>
+      <c r="C6633" t="inlineStr"/>
+      <c r="D6633" t="inlineStr"/>
+    </row>
+    <row r="6634">
+      <c r="A6634" s="1" t="inlineStr">
+        <is>
+          <t>칠백육</t>
+        </is>
+      </c>
+      <c r="B6634" t="inlineStr"/>
+      <c r="C6634" t="inlineStr"/>
+      <c r="D6634" t="inlineStr"/>
+    </row>
+    <row r="6635">
+      <c r="A6635" s="1" t="inlineStr">
+        <is>
+          <t>확인되시거든</t>
+        </is>
+      </c>
+      <c r="B6635" t="inlineStr"/>
+      <c r="C6635" t="inlineStr"/>
+      <c r="D6635" t="inlineStr"/>
+    </row>
+    <row r="6636">
+      <c r="A6636" s="1" t="inlineStr">
+        <is>
+          <t>사백오</t>
+        </is>
+      </c>
+      <c r="B6636" t="inlineStr"/>
+      <c r="C6636" t="inlineStr"/>
+      <c r="D6636" t="inlineStr"/>
+    </row>
+    <row r="6637">
+      <c r="A6637" s="1" t="inlineStr">
+        <is>
+          <t>카드회사</t>
+        </is>
+      </c>
+      <c r="B6637" t="inlineStr"/>
+      <c r="C6637" t="inlineStr"/>
+      <c r="D6637" t="inlineStr"/>
+    </row>
+    <row r="6638">
+      <c r="A6638" s="1" t="inlineStr">
+        <is>
+          <t>하나하나</t>
+        </is>
+      </c>
+      <c r="B6638" t="inlineStr"/>
+      <c r="C6638" t="inlineStr"/>
+      <c r="D6638" t="inlineStr"/>
+    </row>
+    <row r="6639">
+      <c r="A6639" s="1" t="inlineStr">
+        <is>
+          <t>해주실</t>
+        </is>
+      </c>
+      <c r="B6639" t="inlineStr"/>
+      <c r="C6639" t="inlineStr"/>
+      <c r="D6639" t="inlineStr"/>
+    </row>
+    <row r="6640">
+      <c r="A6640" s="1" t="inlineStr">
+        <is>
+          <t>반송해</t>
+        </is>
+      </c>
+      <c r="B6640" t="inlineStr"/>
+      <c r="C6640" t="inlineStr"/>
+      <c r="D6640" t="inlineStr"/>
+    </row>
+    <row r="6641">
+      <c r="A6641" s="1" t="inlineStr">
+        <is>
+          <t>비스타</t>
+        </is>
+      </c>
+      <c r="B6641" t="inlineStr"/>
+      <c r="C6641" t="inlineStr"/>
+      <c r="D6641" t="inlineStr"/>
+    </row>
+    <row r="6642">
+      <c r="A6642" s="1" t="inlineStr">
+        <is>
+          <t>택시기사분이</t>
+        </is>
+      </c>
+      <c r="B6642" t="inlineStr"/>
+      <c r="C6642" t="inlineStr"/>
+      <c r="D6642" t="inlineStr"/>
+    </row>
+    <row r="6643">
+      <c r="A6643" s="1" t="inlineStr">
+        <is>
+          <t>육사로</t>
+        </is>
+      </c>
+      <c r="B6643" t="inlineStr"/>
+      <c r="C6643" t="inlineStr"/>
+      <c r="D6643" t="inlineStr"/>
+    </row>
+    <row r="6644">
+      <c r="A6644" s="1" t="inlineStr">
+        <is>
+          <t>탑승하시고요</t>
+        </is>
+      </c>
+      <c r="B6644" t="inlineStr"/>
+      <c r="C6644" t="inlineStr"/>
+      <c r="D6644" t="inlineStr"/>
+    </row>
+    <row r="6645">
+      <c r="A6645" s="1" t="inlineStr">
+        <is>
+          <t>개밖에</t>
+        </is>
+      </c>
+      <c r="B6645" t="inlineStr"/>
+      <c r="C6645" t="inlineStr"/>
+      <c r="D6645" t="inlineStr"/>
+    </row>
+    <row r="6646">
+      <c r="A6646" s="1" t="inlineStr">
+        <is>
+          <t>월촌역이고요</t>
+        </is>
+      </c>
+      <c r="B6646" t="inlineStr"/>
+      <c r="C6646" t="inlineStr"/>
+      <c r="D6646" t="inlineStr"/>
+    </row>
+    <row r="6647">
+      <c r="A6647" s="1" t="inlineStr">
+        <is>
+          <t>택시의</t>
+        </is>
+      </c>
+      <c r="B6647" t="inlineStr"/>
+      <c r="C6647" t="inlineStr"/>
+      <c r="D6647" t="inlineStr"/>
+    </row>
+    <row r="6648">
+      <c r="A6648" s="1" t="inlineStr">
+        <is>
+          <t>출발이라는</t>
+        </is>
+      </c>
+      <c r="B6648" t="inlineStr"/>
+      <c r="C6648" t="inlineStr"/>
+      <c r="D6648" t="inlineStr"/>
+    </row>
+    <row r="6649">
+      <c r="A6649" s="1" t="inlineStr">
+        <is>
+          <t>닫으려</t>
+        </is>
+      </c>
+      <c r="B6649" t="inlineStr"/>
+      <c r="C6649" t="inlineStr"/>
+      <c r="D6649" t="inlineStr"/>
+    </row>
+    <row r="6650">
+      <c r="A6650" s="1" t="inlineStr">
+        <is>
+          <t>위법에</t>
+        </is>
+      </c>
+      <c r="B6650" t="inlineStr"/>
+      <c r="C6650" t="inlineStr"/>
+      <c r="D6650" t="inlineStr"/>
+    </row>
+    <row r="6651">
+      <c r="A6651" s="1" t="inlineStr">
+        <is>
+          <t>택시라고</t>
+        </is>
+      </c>
+      <c r="B6651" t="inlineStr"/>
+      <c r="C6651" t="inlineStr"/>
+      <c r="D6651" t="inlineStr"/>
+    </row>
+    <row r="6652">
+      <c r="A6652" s="1" t="inlineStr">
+        <is>
+          <t>모공이라는</t>
+        </is>
+      </c>
+      <c r="B6652" t="inlineStr"/>
+      <c r="C6652" t="inlineStr"/>
+      <c r="D6652" t="inlineStr"/>
+    </row>
+    <row r="6653">
+      <c r="A6653" s="1" t="inlineStr">
+        <is>
+          <t>칠백십구</t>
+        </is>
+      </c>
+      <c r="B6653" t="inlineStr"/>
+      <c r="C6653" t="inlineStr"/>
+      <c r="D6653" t="inlineStr"/>
+    </row>
+    <row r="6654">
+      <c r="A6654" s="1" t="inlineStr">
+        <is>
+          <t>유치원</t>
+        </is>
+      </c>
+      <c r="B6654" t="inlineStr"/>
+      <c r="C6654" t="inlineStr"/>
+      <c r="D6654" t="inlineStr"/>
+    </row>
+    <row r="6655">
+      <c r="A6655" s="1" t="inlineStr">
+        <is>
+          <t>엠비시</t>
+        </is>
+      </c>
+      <c r="B6655" t="inlineStr"/>
+      <c r="C6655" t="inlineStr"/>
+      <c r="D6655" t="inlineStr"/>
+    </row>
+    <row r="6656">
+      <c r="A6656" s="1" t="inlineStr">
+        <is>
+          <t>삼덕호</t>
+        </is>
+      </c>
+      <c r="B6656" t="inlineStr"/>
+      <c r="C6656" t="inlineStr"/>
+      <c r="D6656" t="inlineStr"/>
+    </row>
+    <row r="6657">
+      <c r="A6657" s="1" t="inlineStr">
+        <is>
+          <t>지난주</t>
+        </is>
+      </c>
+      <c r="B6657" t="inlineStr"/>
+      <c r="C6657" t="inlineStr"/>
+      <c r="D6657" t="inlineStr"/>
+    </row>
+    <row r="6658">
+      <c r="A6658" s="1" t="inlineStr">
+        <is>
+          <t>유아보호</t>
+        </is>
+      </c>
+      <c r="B6658" t="inlineStr"/>
+      <c r="C6658" t="inlineStr"/>
+      <c r="D6658" t="inlineStr"/>
+    </row>
+    <row r="6659">
+      <c r="A6659" s="1" t="inlineStr">
+        <is>
+          <t>일동인데</t>
+        </is>
+      </c>
+      <c r="B6659" t="inlineStr"/>
+      <c r="C6659" t="inlineStr"/>
+      <c r="D6659" t="inlineStr"/>
+    </row>
+    <row r="6660">
+      <c r="A6660" s="1" t="inlineStr">
+        <is>
+          <t>방문은</t>
+        </is>
+      </c>
+      <c r="B6660" t="inlineStr"/>
+      <c r="C6660" t="inlineStr"/>
+      <c r="D6660" t="inlineStr"/>
+    </row>
+    <row r="6661">
+      <c r="A6661" s="1" t="inlineStr">
+        <is>
+          <t>교육청</t>
+        </is>
+      </c>
+      <c r="B6661" t="inlineStr"/>
+      <c r="C6661" t="inlineStr"/>
+      <c r="D6661" t="inlineStr"/>
+    </row>
+    <row r="6662">
+      <c r="A6662" s="1" t="inlineStr">
+        <is>
+          <t>확답</t>
+        </is>
+      </c>
+      <c r="B6662" t="inlineStr"/>
+      <c r="C6662" t="inlineStr"/>
+      <c r="D6662" t="inlineStr"/>
+    </row>
+    <row r="6663">
+      <c r="A6663" s="1" t="inlineStr">
+        <is>
+          <t>뒷자리에</t>
+        </is>
+      </c>
+      <c r="B6663" t="inlineStr"/>
+      <c r="C6663" t="inlineStr"/>
+      <c r="D6663" t="inlineStr"/>
+    </row>
+    <row r="6664">
+      <c r="A6664" s="1" t="inlineStr">
+        <is>
+          <t>성보</t>
+        </is>
+      </c>
+      <c r="B6664" t="inlineStr"/>
+      <c r="C6664" t="inlineStr"/>
+      <c r="D6664" t="inlineStr"/>
+    </row>
+    <row r="6665">
+      <c r="A6665" s="1" t="inlineStr">
+        <is>
+          <t>닫으려고</t>
+        </is>
+      </c>
+      <c r="B6665" t="inlineStr"/>
+      <c r="C6665" t="inlineStr"/>
+      <c r="D6665" t="inlineStr"/>
+    </row>
+    <row r="6666">
+      <c r="A6666" s="1" t="inlineStr">
+        <is>
+          <t>악령</t>
+        </is>
+      </c>
+      <c r="B6666" t="inlineStr"/>
+      <c r="C6666" t="inlineStr"/>
+      <c r="D6666" t="inlineStr"/>
+    </row>
+    <row r="6667">
+      <c r="A6667" s="1" t="inlineStr">
+        <is>
+          <t>물어보려고</t>
+        </is>
+      </c>
+      <c r="B6667" t="inlineStr"/>
+      <c r="C6667" t="inlineStr"/>
+      <c r="D6667" t="inlineStr"/>
+    </row>
+    <row r="6668">
+      <c r="A6668" s="1" t="inlineStr">
+        <is>
+          <t>어렵거든요</t>
+        </is>
+      </c>
+      <c r="B6668" t="inlineStr"/>
+      <c r="C6668" t="inlineStr"/>
+      <c r="D6668" t="inlineStr"/>
+    </row>
+    <row r="6669">
+      <c r="A6669" s="1" t="inlineStr">
+        <is>
+          <t>오십육분쯤에</t>
+        </is>
+      </c>
+      <c r="B6669" t="inlineStr"/>
+      <c r="C6669" t="inlineStr"/>
+      <c r="D6669" t="inlineStr"/>
+    </row>
+    <row r="6670">
+      <c r="A6670" s="1" t="inlineStr">
+        <is>
+          <t>받아</t>
+        </is>
+      </c>
+      <c r="B6670" t="inlineStr"/>
+      <c r="C6670" t="inlineStr"/>
+      <c r="D6670" t="inlineStr"/>
+    </row>
+    <row r="6671">
+      <c r="A6671" s="1" t="inlineStr">
+        <is>
+          <t>칠백이십육</t>
+        </is>
+      </c>
+      <c r="B6671" t="inlineStr"/>
+      <c r="C6671" t="inlineStr"/>
+      <c r="D6671" t="inlineStr"/>
+    </row>
+    <row r="6672">
+      <c r="A6672" s="1" t="inlineStr">
+        <is>
+          <t>지키시더라도</t>
+        </is>
+      </c>
+      <c r="B6672" t="inlineStr"/>
+      <c r="C6672" t="inlineStr"/>
+      <c r="D6672" t="inlineStr"/>
+    </row>
+    <row r="6673">
+      <c r="A6673" s="1" t="inlineStr">
+        <is>
+          <t>내리셔가지고요</t>
+        </is>
+      </c>
+      <c r="B6673" t="inlineStr"/>
+      <c r="C6673" t="inlineStr"/>
+      <c r="D6673" t="inlineStr"/>
+    </row>
+    <row r="6674">
+      <c r="A6674" s="1" t="inlineStr">
+        <is>
+          <t>삼사구</t>
+        </is>
+      </c>
+      <c r="B6674" t="inlineStr"/>
+      <c r="C6674" t="inlineStr"/>
+      <c r="D6674" t="inlineStr"/>
+    </row>
+    <row r="6675">
+      <c r="A6675" s="1" t="inlineStr">
+        <is>
+          <t>센터하고는</t>
+        </is>
+      </c>
+      <c r="B6675" t="inlineStr"/>
+      <c r="C6675" t="inlineStr"/>
+      <c r="D6675" t="inlineStr"/>
+    </row>
+    <row r="6676">
+      <c r="A6676" s="1" t="inlineStr">
+        <is>
+          <t>팔백팔</t>
+        </is>
+      </c>
+      <c r="B6676" t="inlineStr"/>
+      <c r="C6676" t="inlineStr"/>
+      <c r="D6676" t="inlineStr"/>
+    </row>
+    <row r="6677">
+      <c r="A6677" s="1" t="inlineStr">
+        <is>
+          <t>구산</t>
+        </is>
+      </c>
+      <c r="B6677" t="inlineStr"/>
+      <c r="C6677" t="inlineStr"/>
+      <c r="D6677" t="inlineStr"/>
+    </row>
+    <row r="6678">
+      <c r="A6678" s="1" t="inlineStr">
+        <is>
+          <t>버스고요</t>
+        </is>
+      </c>
+      <c r="B6678" t="inlineStr"/>
+      <c r="C6678" t="inlineStr"/>
+      <c r="D6678" t="inlineStr"/>
+    </row>
+    <row r="6679">
+      <c r="A6679" s="1" t="inlineStr">
+        <is>
+          <t>신고하려고</t>
+        </is>
+      </c>
+      <c r="B6679" t="inlineStr"/>
+      <c r="C6679" t="inlineStr"/>
+      <c r="D6679" t="inlineStr"/>
+    </row>
+    <row r="6680">
+      <c r="A6680" s="1" t="inlineStr">
+        <is>
+          <t>이백사십</t>
+        </is>
+      </c>
+      <c r="B6680" t="inlineStr"/>
+      <c r="C6680" t="inlineStr"/>
+      <c r="D6680" t="inlineStr"/>
+    </row>
+    <row r="6681">
+      <c r="A6681" s="1" t="inlineStr">
+        <is>
+          <t>떠가지고요</t>
+        </is>
+      </c>
+      <c r="B6681" t="inlineStr"/>
+      <c r="C6681" t="inlineStr"/>
+      <c r="D6681" t="inlineStr"/>
+    </row>
+    <row r="6682">
+      <c r="A6682" s="1" t="inlineStr">
+        <is>
+          <t>새길</t>
+        </is>
+      </c>
+      <c r="B6682" t="inlineStr"/>
+      <c r="C6682" t="inlineStr"/>
+      <c r="D6682" t="inlineStr"/>
+    </row>
+    <row r="6683">
+      <c r="A6683" s="1" t="inlineStr">
+        <is>
+          <t>타운을</t>
+        </is>
+      </c>
+      <c r="B6683" t="inlineStr"/>
+      <c r="C6683" t="inlineStr"/>
+      <c r="D6683" t="inlineStr"/>
+    </row>
+    <row r="6684">
+      <c r="A6684" s="1" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B6684" t="inlineStr"/>
+      <c r="C6684" t="inlineStr"/>
+      <c r="D6684" t="inlineStr"/>
+    </row>
+    <row r="6685">
+      <c r="A6685" s="1" t="inlineStr">
+        <is>
+          <t>언제쯤인</t>
+        </is>
+      </c>
+      <c r="B6685" t="inlineStr"/>
+      <c r="C6685" t="inlineStr"/>
+      <c r="D6685" t="inlineStr"/>
+    </row>
+    <row r="6686">
+      <c r="A6686" s="1" t="inlineStr">
+        <is>
+          <t>삼이고요</t>
+        </is>
+      </c>
+      <c r="B6686" t="inlineStr"/>
+      <c r="C6686" t="inlineStr"/>
+      <c r="D6686" t="inlineStr"/>
+    </row>
+    <row r="6687">
+      <c r="A6687" s="1" t="inlineStr">
+        <is>
+          <t>째거든요</t>
+        </is>
+      </c>
+      <c r="B6687" t="inlineStr"/>
+      <c r="C6687" t="inlineStr"/>
+      <c r="D6687" t="inlineStr"/>
+    </row>
+    <row r="6688">
+      <c r="A6688" s="1" t="inlineStr">
+        <is>
+          <t>거리요</t>
+        </is>
+      </c>
+      <c r="B6688" t="inlineStr"/>
+      <c r="C6688" t="inlineStr"/>
+      <c r="D6688" t="inlineStr"/>
+    </row>
+    <row r="6689">
+      <c r="A6689" s="1" t="inlineStr">
+        <is>
+          <t>생겼는데</t>
+        </is>
+      </c>
+      <c r="B6689" t="inlineStr"/>
+      <c r="C6689" t="inlineStr"/>
+      <c r="D6689" t="inlineStr"/>
+    </row>
+    <row r="6690">
+      <c r="A6690" s="1" t="inlineStr">
+        <is>
+          <t>소지하고</t>
+        </is>
+      </c>
+      <c r="B6690" t="inlineStr"/>
+      <c r="C6690" t="inlineStr"/>
+      <c r="D6690" t="inlineStr"/>
+    </row>
+    <row r="6691">
+      <c r="A6691" s="1" t="inlineStr">
+        <is>
+          <t>하차하는</t>
+        </is>
+      </c>
+      <c r="B6691" t="inlineStr"/>
+      <c r="C6691" t="inlineStr"/>
+      <c r="D6691" t="inlineStr"/>
+    </row>
+    <row r="6692">
+      <c r="A6692" s="1" t="inlineStr">
+        <is>
+          <t>이백</t>
+        </is>
+      </c>
+      <c r="B6692" t="inlineStr"/>
+      <c r="C6692" t="inlineStr"/>
+      <c r="D6692" t="inlineStr"/>
+    </row>
+    <row r="6693">
+      <c r="A6693" s="1" t="inlineStr">
+        <is>
+          <t>군데서</t>
+        </is>
+      </c>
+      <c r="B6693" t="inlineStr"/>
+      <c r="C6693" t="inlineStr"/>
+      <c r="D6693" t="inlineStr"/>
+    </row>
+    <row r="6694">
+      <c r="A6694" s="1" t="inlineStr">
+        <is>
+          <t>떨어졌으니만</t>
+        </is>
+      </c>
+      <c r="B6694" t="inlineStr"/>
+      <c r="C6694" t="inlineStr"/>
+      <c r="D6694" t="inlineStr"/>
+    </row>
+    <row r="6695">
+      <c r="A6695" s="1" t="inlineStr">
+        <is>
+          <t>번도</t>
+        </is>
+      </c>
+      <c r="B6695" t="inlineStr"/>
+      <c r="C6695" t="inlineStr"/>
+      <c r="D6695" t="inlineStr"/>
+    </row>
+    <row r="6696">
+      <c r="A6696" s="1" t="inlineStr">
+        <is>
+          <t>용산역일</t>
+        </is>
+      </c>
+      <c r="B6696" t="inlineStr"/>
+      <c r="C6696" t="inlineStr"/>
+      <c r="D6696" t="inlineStr"/>
+    </row>
+    <row r="6697">
+      <c r="A6697" s="1" t="inlineStr">
+        <is>
+          <t>팔이</t>
+        </is>
+      </c>
+      <c r="B6697" t="inlineStr"/>
+      <c r="C6697" t="inlineStr"/>
+      <c r="D6697" t="inlineStr"/>
+    </row>
+    <row r="6698">
+      <c r="A6698" s="1" t="inlineStr">
+        <is>
+          <t>팔칠</t>
+        </is>
+      </c>
+      <c r="B6698" t="inlineStr"/>
+      <c r="C6698" t="inlineStr"/>
+      <c r="D6698" t="inlineStr"/>
+    </row>
+    <row r="6699">
+      <c r="A6699" s="1" t="inlineStr">
+        <is>
+          <t>삼백이십오</t>
+        </is>
+      </c>
+      <c r="B6699" t="inlineStr"/>
+      <c r="C6699" t="inlineStr"/>
+      <c r="D6699" t="inlineStr"/>
+    </row>
+    <row r="6700">
+      <c r="A6700" s="1" t="inlineStr">
+        <is>
+          <t>보</t>
+        </is>
+      </c>
+      <c r="B6700" t="inlineStr"/>
+      <c r="C6700" t="inlineStr"/>
+      <c r="D6700" t="inlineStr"/>
+    </row>
+    <row r="6701">
+      <c r="A6701" s="1" t="inlineStr">
+        <is>
+          <t>경상</t>
+        </is>
+      </c>
+      <c r="B6701" t="inlineStr"/>
+      <c r="C6701" t="inlineStr"/>
+      <c r="D6701" t="inlineStr"/>
+    </row>
+    <row r="6702">
+      <c r="A6702" s="1" t="inlineStr">
+        <is>
+          <t>대우</t>
+        </is>
+      </c>
+      <c r="B6702" t="inlineStr"/>
+      <c r="C6702" t="inlineStr"/>
+      <c r="D6702" t="inlineStr"/>
+    </row>
+    <row r="6703">
+      <c r="A6703" s="1" t="inlineStr">
+        <is>
+          <t>대백플라자에서</t>
+        </is>
+      </c>
+      <c r="B6703" t="inlineStr"/>
+      <c r="C6703" t="inlineStr"/>
+      <c r="D6703" t="inlineStr"/>
+    </row>
+    <row r="6704">
+      <c r="A6704" s="1" t="inlineStr">
+        <is>
+          <t>동일하이빌이</t>
+        </is>
+      </c>
+      <c r="B6704" t="inlineStr"/>
+      <c r="C6704" t="inlineStr"/>
+      <c r="D6704" t="inlineStr"/>
+    </row>
+    <row r="6705">
+      <c r="A6705" s="1" t="inlineStr">
+        <is>
+          <t>육이삼이고요</t>
+        </is>
+      </c>
+      <c r="B6705" t="inlineStr"/>
+      <c r="C6705" t="inlineStr"/>
+      <c r="D6705" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
